--- a/Data/manually coded training dataset.xlsx
+++ b/Data/manually coded training dataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_85f\AC\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryanfunkhouser/Documents/Research/Active Projects/Small Stories in Big Data/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="529" documentId="8_{29B46563-6FFF-487F-912F-0B3F7C1B466A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DEAD0725-7B71-4488-9C4C-035649008066}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A9C2BA-5DEF-3A46-8581-3652A893BE9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="in" sheetId="1" r:id="rId1"/>
@@ -984,6 +984,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">I think you overestimate the average American's willingness to participate in anarchy. Our lives are extremely comfortable compared to that of our predecessors; even the poorest in the US have access to stuff like toilets with running water and microwaves,  which is far more luxurious than what was available during the Civil War. So yes, even if the political division in the US is comparable to that of before the Civil War, society at large is not. Most people are not psychologically capable of giving up Facebook; what makes you think they'd be willing to slum it in a milita? 
@@ -996,6 +997,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>I seriously doubt all the Meemaws and Peepaws are gonna wheel onto the battlefield, machine gun in hand, ready to fuck up the Liberals.</t>
@@ -1005,6 +1007,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> Again, there are able-bodied people who are willing to get violent, but not enough for a war, or even widespread rioting. 
@@ -13799,7 +13802,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -13811,6 +13814,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -13944,7 +13948,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -13957,12 +13961,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -14706,22 +14705,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H953"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A179" workbookViewId="0">
-      <selection activeCell="C179" sqref="C179"/>
+    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
+      <selection activeCell="A182" sqref="A2:E182"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
-    <col min="3" max="3" width="77.5703125" customWidth="1"/>
-    <col min="4" max="4" width="41.85546875" customWidth="1"/>
-    <col min="5" max="5" width="4.42578125" customWidth="1"/>
-    <col min="6" max="6" width="2.7109375" customWidth="1"/>
-    <col min="7" max="7" width="7.140625" customWidth="1"/>
-    <col min="8" max="8" width="5.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="77.5" customWidth="1"/>
+    <col min="4" max="4" width="41.83203125" customWidth="1"/>
+    <col min="5" max="5" width="6.6640625" customWidth="1"/>
+    <col min="6" max="6" width="2.6640625" customWidth="1"/>
+    <col min="7" max="7" width="7.1640625" customWidth="1"/>
+    <col min="8" max="8" width="5.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -14747,7 +14746,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="229.5">
+    <row r="2" spans="1:8" ht="224" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -14773,7 +14772,7 @@
         <v>44743.308518518519</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="137.25">
+    <row r="3" spans="1:8" ht="128" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -14797,7 +14796,7 @@
         <v>44743.327199074076</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="183">
+    <row r="4" spans="1:8" ht="176" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -14823,7 +14822,7 @@
         <v>44743.356990740744</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="396.75">
+    <row r="5" spans="1:8" ht="380" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -14849,7 +14848,7 @@
         <v>44743.381423611114</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="409.6">
+    <row r="6" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -14873,7 +14872,7 @@
         <v>44743.589178240742</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="409.6">
+    <row r="7" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -14899,7 +14898,7 @@
         <v>44743.650520833333</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -14922,7 +14921,7 @@
         <v>44743.66134259259</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -14945,7 +14944,7 @@
         <v>44743.710729166669</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="336">
+    <row r="10" spans="1:8" ht="335" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -14969,7 +14968,7 @@
         <v>44743.732048611113</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="6" customFormat="1" ht="259.5">
+    <row r="11" spans="1:8" s="6" customFormat="1" ht="256" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>41</v>
       </c>
@@ -14995,7 +14994,7 @@
         <v>44743.77065972222</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="290.25">
+    <row r="12" spans="1:8" ht="272" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -15021,7 +15020,7 @@
         <v>44743.771168981482</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="167.25">
+    <row r="13" spans="1:8" ht="160" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -15047,7 +15046,7 @@
         <v>44743.772800925923</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="409.6">
+    <row r="14" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -15071,7 +15070,7 @@
         <v>44743.774282407408</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="409.6">
+    <row r="15" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -15097,7 +15096,7 @@
         <v>44743.776817129627</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="121.5">
+    <row r="16" spans="1:8" ht="112" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -15123,7 +15122,7 @@
         <v>44743.807013888887</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="91.5">
+    <row r="17" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>41</v>
       </c>
@@ -15149,7 +15148,7 @@
         <v>44743.850428240738</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -15172,7 +15171,7 @@
         <v>44743.920023148145</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="409.6">
+    <row r="19" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>41</v>
       </c>
@@ -15196,7 +15195,7 @@
         <v>44743.938194444447</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="409.6">
+    <row r="20" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -15222,7 +15221,7 @@
         <v>44743.954155092593</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="409.6">
+    <row r="21" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -15248,7 +15247,7 @@
         <v>44744.11378472222</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="336">
+    <row r="22" spans="1:8" ht="320" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -15274,7 +15273,7 @@
         <v>44744.157337962963</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="409.6">
+    <row r="23" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>41</v>
       </c>
@@ -15298,7 +15297,7 @@
         <v>44744.163194444445</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="45.75">
+    <row r="24" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>41</v>
       </c>
@@ -15321,7 +15320,7 @@
         <v>44744.182546296295</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="30.75">
+    <row r="25" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>41</v>
       </c>
@@ -15344,7 +15343,7 @@
         <v>44744.27065972222</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="275.25">
+    <row r="26" spans="1:8" ht="256" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>41</v>
       </c>
@@ -15368,7 +15367,7 @@
         <v>44744.324004629627</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="366">
+    <row r="27" spans="1:8" ht="350" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>41</v>
       </c>
@@ -15392,7 +15391,7 @@
         <v>44744.326863425929</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="409.6">
+    <row r="28" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>41</v>
       </c>
@@ -15418,7 +15417,7 @@
         <v>44744.348981481482</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="290.25">
+    <row r="29" spans="1:8" ht="288" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>41</v>
       </c>
@@ -15444,7 +15443,7 @@
         <v>44744.358287037037</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="6" customFormat="1" ht="305.25">
+    <row r="30" spans="1:8" s="6" customFormat="1" ht="304" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>41</v>
       </c>
@@ -15470,7 +15469,7 @@
         <v>44744.365555555552</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="106.5">
+    <row r="31" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>41</v>
       </c>
@@ -15496,7 +15495,7 @@
         <v>44744.40421296296</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="409.6">
+    <row r="32" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>41</v>
       </c>
@@ -15522,7 +15521,7 @@
         <v>44744.412546296298</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="45.75">
+    <row r="33" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>41</v>
       </c>
@@ -15546,7 +15545,7 @@
         <v>44744.416655092595</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="60.75">
+    <row r="34" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>41</v>
       </c>
@@ -15569,7 +15568,7 @@
         <v>44744.421793981484</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="409.6">
+    <row r="35" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -15595,7 +15594,7 @@
         <v>44744.423472222225</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="409.6">
+    <row r="36" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>41</v>
       </c>
@@ -15619,7 +15618,7 @@
         <v>44744.435023148151</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="409.6">
+    <row r="37" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>41</v>
       </c>
@@ -15643,7 +15642,7 @@
         <v>44744.435960648145</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="259.5">
+    <row r="38" spans="1:8" ht="256" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>41</v>
       </c>
@@ -15667,7 +15666,7 @@
         <v>44744.435972222222</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="275.25">
+    <row r="39" spans="1:8" ht="240" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>41</v>
       </c>
@@ -15691,7 +15690,7 @@
         <v>44744.437673611108</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="121.5">
+    <row r="40" spans="1:8" ht="128" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -15717,7 +15716,7 @@
         <v>44744.439479166664</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="121.5">
+    <row r="41" spans="1:8" ht="128" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -15741,7 +15740,7 @@
         <v>44744.442615740743</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="137.25">
+    <row r="42" spans="1:8" ht="128" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -15764,7 +15763,7 @@
         <v>44744.444004629629</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="137.25">
+    <row r="43" spans="1:8" ht="128" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -15788,7 +15787,7 @@
         <v>44744.47252314815</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="121.5">
+    <row r="44" spans="1:8" ht="128" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>41</v>
       </c>
@@ -15812,7 +15811,7 @@
         <v>44744.475543981483</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="275.25">
+    <row r="45" spans="1:8" ht="256" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>41</v>
       </c>
@@ -15838,7 +15837,7 @@
         <v>44744.479803240742</v>
       </c>
     </row>
-    <row r="46" spans="1:8" s="6" customFormat="1" ht="409.6">
+    <row r="46" spans="1:8" s="6" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
         <v>41</v>
       </c>
@@ -15864,7 +15863,7 @@
         <v>44744.485914351855</v>
       </c>
     </row>
-    <row r="47" spans="1:8" s="9" customFormat="1" ht="409.6">
+    <row r="47" spans="1:8" s="9" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A47" s="9" t="s">
         <v>41</v>
       </c>
@@ -15890,7 +15889,7 @@
         <v>44744.49827546296</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="409.6">
+    <row r="48" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>41</v>
       </c>
@@ -15914,7 +15913,7 @@
         <v>44744.512280092589</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="409.6">
+    <row r="49" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>41</v>
       </c>
@@ -15938,7 +15937,7 @@
         <v>44744.525173611109</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="137.25">
+    <row r="50" spans="1:8" ht="144" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>41</v>
       </c>
@@ -15962,7 +15961,7 @@
         <v>44744.52925925926</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="409.6">
+    <row r="51" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>41</v>
       </c>
@@ -15986,7 +15985,7 @@
         <v>44744.533171296294</v>
       </c>
     </row>
-    <row r="52" spans="1:8" s="6" customFormat="1" ht="409.6">
+    <row r="52" spans="1:8" s="6" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
         <v>41</v>
       </c>
@@ -16012,7 +16011,7 @@
         <v>44744.541643518518</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="121.5">
+    <row r="53" spans="1:8" ht="128" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>41</v>
       </c>
@@ -16036,7 +16035,7 @@
         <v>44744.550335648149</v>
       </c>
     </row>
-    <row r="54" spans="1:8" s="6" customFormat="1" ht="381.75">
+    <row r="54" spans="1:8" s="6" customFormat="1" ht="395" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
         <v>41</v>
       </c>
@@ -16062,7 +16061,7 @@
         <v>44744.579525462963</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="167.25">
+    <row r="55" spans="1:8" ht="176" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>41</v>
       </c>
@@ -16086,7 +16085,7 @@
         <v>44744.594907407409</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="409.6">
+    <row r="56" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>41</v>
       </c>
@@ -16110,7 +16109,7 @@
         <v>44744.598113425927</v>
       </c>
     </row>
-    <row r="57" spans="1:8" s="6" customFormat="1" ht="76.5">
+    <row r="57" spans="1:8" s="6" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
         <v>41</v>
       </c>
@@ -16136,7 +16135,7 @@
         <v>44744.609039351853</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="409.6">
+    <row r="58" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>41</v>
       </c>
@@ -16162,7 +16161,7 @@
         <v>44744.661747685182</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="409.6">
+    <row r="59" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>41</v>
       </c>
@@ -16188,7 +16187,7 @@
         <v>44744.673101851855</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="409.6">
+    <row r="60" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>41</v>
       </c>
@@ -16214,7 +16213,7 @@
         <v>44744.702615740738</v>
       </c>
     </row>
-    <row r="61" spans="1:8" s="6" customFormat="1" ht="396.75">
+    <row r="61" spans="1:8" s="6" customFormat="1" ht="365" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
         <v>41</v>
       </c>
@@ -16238,7 +16237,7 @@
         <v>44744.864837962959</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>41</v>
       </c>
@@ -16261,7 +16260,7 @@
         <v>44744.898414351854</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="137.25">
+    <row r="63" spans="1:8" ht="128" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
         <v>14</v>
       </c>
@@ -16282,7 +16281,7 @@
         <v>44744.928240740737</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="244.5">
+    <row r="64" spans="1:8" ht="240" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>14</v>
       </c>
@@ -16303,7 +16302,7 @@
         <v>44745.132291666669</v>
       </c>
     </row>
-    <row r="65" spans="2:8" ht="321">
+    <row r="65" spans="2:8" ht="320" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>87</v>
       </c>
@@ -16324,7 +16323,7 @@
         <v>44745.167280092595</v>
       </c>
     </row>
-    <row r="66" spans="2:8">
+    <row r="66" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>14</v>
       </c>
@@ -16344,7 +16343,7 @@
         <v>44745.167673611111</v>
       </c>
     </row>
-    <row r="67" spans="2:8">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
         <v>14</v>
       </c>
@@ -16364,7 +16363,7 @@
         <v>44745.171909722223</v>
       </c>
     </row>
-    <row r="68" spans="2:8">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
         <v>14</v>
       </c>
@@ -16387,7 +16386,7 @@
         <v>44745.175625000003</v>
       </c>
     </row>
-    <row r="69" spans="2:8" ht="409.6">
+    <row r="69" spans="2:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
         <v>243</v>
       </c>
@@ -16410,7 +16409,7 @@
         <v>44745.251979166664</v>
       </c>
     </row>
-    <row r="70" spans="2:8" ht="76.5">
+    <row r="70" spans="2:8" ht="80" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
         <v>71</v>
       </c>
@@ -16431,7 +16430,7 @@
         <v>44745.266655092593</v>
       </c>
     </row>
-    <row r="71" spans="2:8" ht="152.25">
+    <row r="71" spans="2:8" ht="144" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
         <v>14</v>
       </c>
@@ -16452,7 +16451,7 @@
         <v>44745.279004629629</v>
       </c>
     </row>
-    <row r="72" spans="2:8" ht="409.6">
+    <row r="72" spans="2:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
         <v>87</v>
       </c>
@@ -16473,7 +16472,7 @@
         <v>44745.287916666668</v>
       </c>
     </row>
-    <row r="73" spans="2:8" ht="106.5">
+    <row r="73" spans="2:8" ht="96" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
         <v>14</v>
       </c>
@@ -16494,7 +16493,7 @@
         <v>44745.303738425922</v>
       </c>
     </row>
-    <row r="74" spans="2:8" ht="121.5">
+    <row r="74" spans="2:8" ht="112" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
         <v>14</v>
       </c>
@@ -16517,7 +16516,7 @@
         <v>44745.333553240744</v>
       </c>
     </row>
-    <row r="75" spans="2:8" ht="60.75">
+    <row r="75" spans="2:8" ht="48" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
         <v>14</v>
       </c>
@@ -16538,7 +16537,7 @@
         <v>44745.340520833335</v>
       </c>
     </row>
-    <row r="76" spans="2:8" ht="409.6">
+    <row r="76" spans="2:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
         <v>14</v>
       </c>
@@ -16559,7 +16558,7 @@
         <v>44745.354166666664</v>
       </c>
     </row>
-    <row r="77" spans="2:8" ht="409.6">
+    <row r="77" spans="2:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
         <v>268</v>
       </c>
@@ -16580,7 +16579,7 @@
         <v>44745.36347222222</v>
       </c>
     </row>
-    <row r="78" spans="2:8" ht="213">
+    <row r="78" spans="2:8" ht="192" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
         <v>87</v>
       </c>
@@ -16601,7 +16600,7 @@
         <v>44745.374351851853</v>
       </c>
     </row>
-    <row r="79" spans="2:8">
+    <row r="79" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
         <v>87</v>
       </c>
@@ -16621,7 +16620,7 @@
         <v>44745.375578703701</v>
       </c>
     </row>
-    <row r="80" spans="2:8" ht="275.25">
+    <row r="80" spans="2:8" ht="256" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
         <v>14</v>
       </c>
@@ -16642,7 +16641,7 @@
         <v>44745.446898148148</v>
       </c>
     </row>
-    <row r="81" spans="2:8" ht="76.5">
+    <row r="81" spans="2:8" ht="80" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
         <v>71</v>
       </c>
@@ -16663,7 +16662,7 @@
         <v>44745.449456018519</v>
       </c>
     </row>
-    <row r="82" spans="2:8" ht="351">
+    <row r="82" spans="2:8" ht="335" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
         <v>14</v>
       </c>
@@ -16684,7 +16683,7 @@
         <v>44745.465960648151</v>
       </c>
     </row>
-    <row r="83" spans="2:8" ht="409.6">
+    <row r="83" spans="2:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
         <v>9</v>
       </c>
@@ -16707,7 +16706,7 @@
         <v>44745.475532407407</v>
       </c>
     </row>
-    <row r="84" spans="2:8">
+    <row r="84" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
         <v>87</v>
       </c>
@@ -16727,7 +16726,7 @@
         <v>44745.549826388888</v>
       </c>
     </row>
-    <row r="85" spans="2:8" ht="106.5">
+    <row r="85" spans="2:8" ht="112" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
         <v>14</v>
       </c>
@@ -16748,7 +16747,7 @@
         <v>44745.568865740737</v>
       </c>
     </row>
-    <row r="86" spans="2:8" ht="409.6">
+    <row r="86" spans="2:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
         <v>9</v>
       </c>
@@ -16771,7 +16770,7 @@
         <v>44745.614004629628</v>
       </c>
     </row>
-    <row r="87" spans="2:8" ht="198">
+    <row r="87" spans="2:8" ht="192" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
         <v>14</v>
       </c>
@@ -16792,7 +16791,7 @@
         <v>44745.70453703704</v>
       </c>
     </row>
-    <row r="88" spans="2:8" ht="183">
+    <row r="88" spans="2:8" ht="176" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
         <v>14</v>
       </c>
@@ -16813,7 +16812,7 @@
         <v>44745.710381944446</v>
       </c>
     </row>
-    <row r="89" spans="2:8" ht="244.5">
+    <row r="89" spans="2:8" ht="240" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
         <v>87</v>
       </c>
@@ -16834,7 +16833,7 @@
         <v>44745.740335648145</v>
       </c>
     </row>
-    <row r="90" spans="2:8" ht="60.75">
+    <row r="90" spans="2:8" ht="64" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
         <v>87</v>
       </c>
@@ -16855,7 +16854,7 @@
         <v>44745.762754629628</v>
       </c>
     </row>
-    <row r="91" spans="2:8" ht="409.6">
+    <row r="91" spans="2:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
         <v>9</v>
       </c>
@@ -16878,7 +16877,7 @@
         <v>44745.85460648148</v>
       </c>
     </row>
-    <row r="92" spans="2:8" ht="305.25">
+    <row r="92" spans="2:8" ht="288" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
         <v>14</v>
       </c>
@@ -16899,7 +16898,7 @@
         <v>44745.876782407409</v>
       </c>
     </row>
-    <row r="93" spans="2:8" ht="152.25">
+    <row r="93" spans="2:8" ht="144" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
         <v>14</v>
       </c>
@@ -16920,7 +16919,7 @@
         <v>44745.880231481482</v>
       </c>
     </row>
-    <row r="94" spans="2:8" ht="396.75">
+    <row r="94" spans="2:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
         <v>9</v>
       </c>
@@ -16943,7 +16942,7 @@
         <v>44745.880601851852</v>
       </c>
     </row>
-    <row r="95" spans="2:8">
+    <row r="95" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
         <v>14</v>
       </c>
@@ -16963,7 +16962,7 @@
         <v>44746.033032407409</v>
       </c>
     </row>
-    <row r="96" spans="2:8" ht="396.75">
+    <row r="96" spans="2:8" ht="395" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
         <v>14</v>
       </c>
@@ -16986,7 +16985,7 @@
         <v>44746.164872685185</v>
       </c>
     </row>
-    <row r="97" spans="2:8" ht="381.75">
+    <row r="97" spans="2:8" ht="380" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
         <v>14</v>
       </c>
@@ -17007,7 +17006,7 @@
         <v>44746.169791666667</v>
       </c>
     </row>
-    <row r="98" spans="2:8" ht="244.5">
+    <row r="98" spans="2:8" ht="224" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
         <v>14</v>
       </c>
@@ -17028,7 +17027,7 @@
         <v>44746.201886574076</v>
       </c>
     </row>
-    <row r="99" spans="2:8" ht="259.5">
+    <row r="99" spans="2:8" ht="240" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
         <v>14</v>
       </c>
@@ -17049,7 +17048,7 @@
         <v>44746.251793981479</v>
       </c>
     </row>
-    <row r="100" spans="2:8" ht="409.6">
+    <row r="100" spans="2:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
         <v>71</v>
       </c>
@@ -17070,7 +17069,7 @@
         <v>44746.281030092592</v>
       </c>
     </row>
-    <row r="101" spans="2:8" ht="60.75">
+    <row r="101" spans="2:8" ht="48" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
         <v>14</v>
       </c>
@@ -17091,7 +17090,7 @@
         <v>44746.370706018519</v>
       </c>
     </row>
-    <row r="102" spans="2:8" ht="229.5">
+    <row r="102" spans="2:8" ht="208" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
         <v>14</v>
       </c>
@@ -17114,7 +17113,7 @@
         <v>44746.401678240742</v>
       </c>
     </row>
-    <row r="103" spans="2:8" ht="198">
+    <row r="103" spans="2:8" ht="192" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
         <v>14</v>
       </c>
@@ -17137,7 +17136,7 @@
         <v>44746.412407407406</v>
       </c>
     </row>
-    <row r="104" spans="2:8" ht="351">
+    <row r="104" spans="2:8" ht="335" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
         <v>268</v>
       </c>
@@ -17160,7 +17159,7 @@
         <v>44746.440289351849</v>
       </c>
     </row>
-    <row r="105" spans="2:8" ht="213">
+    <row r="105" spans="2:8" ht="240" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
         <v>268</v>
       </c>
@@ -17183,7 +17182,7 @@
         <v>44746.471307870372</v>
       </c>
     </row>
-    <row r="106" spans="2:8">
+    <row r="106" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
         <v>14</v>
       </c>
@@ -17203,7 +17202,7 @@
         <v>44746.486701388887</v>
       </c>
     </row>
-    <row r="107" spans="2:8" ht="198">
+    <row r="107" spans="2:8" ht="208" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
         <v>14</v>
       </c>
@@ -17224,7 +17223,7 @@
         <v>44746.557453703703</v>
       </c>
     </row>
-    <row r="108" spans="2:8" ht="213">
+    <row r="108" spans="2:8" ht="208" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
         <v>363</v>
       </c>
@@ -17247,7 +17246,7 @@
         <v>44746.571631944447</v>
       </c>
     </row>
-    <row r="109" spans="2:8" ht="213">
+    <row r="109" spans="2:8" ht="208" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
         <v>268</v>
       </c>
@@ -17270,7 +17269,7 @@
         <v>44746.591817129629</v>
       </c>
     </row>
-    <row r="110" spans="2:8" ht="409.6">
+    <row r="110" spans="2:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
         <v>9</v>
       </c>
@@ -17293,7 +17292,7 @@
         <v>44746.697858796295</v>
       </c>
     </row>
-    <row r="111" spans="2:8">
+    <row r="111" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
         <v>14</v>
       </c>
@@ -17313,7 +17312,7 @@
         <v>44746.70039351852</v>
       </c>
     </row>
-    <row r="112" spans="2:8">
+    <row r="112" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
         <v>14</v>
       </c>
@@ -17333,7 +17332,7 @@
         <v>44746.940497685187</v>
       </c>
     </row>
-    <row r="113" spans="2:8" ht="409.6">
+    <row r="113" spans="2:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
         <v>268</v>
       </c>
@@ -17356,7 +17355,7 @@
         <v>44747.018287037034</v>
       </c>
     </row>
-    <row r="114" spans="2:8" ht="91.5">
+    <row r="114" spans="2:8" ht="80" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
         <v>14</v>
       </c>
@@ -17377,7 +17376,7 @@
         <v>44747.059131944443</v>
       </c>
     </row>
-    <row r="115" spans="2:8" ht="229.5">
+    <row r="115" spans="2:8" ht="208" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
         <v>268</v>
       </c>
@@ -17400,7 +17399,7 @@
         <v>44747.079664351855</v>
       </c>
     </row>
-    <row r="116" spans="2:8" ht="106.5">
+    <row r="116" spans="2:8" ht="112" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
         <v>268</v>
       </c>
@@ -17423,7 +17422,7 @@
         <v>44747.085995370369</v>
       </c>
     </row>
-    <row r="117" spans="2:8" ht="409.6">
+    <row r="117" spans="2:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="B117" t="s">
         <v>268</v>
       </c>
@@ -17446,7 +17445,7 @@
         <v>44747.191203703704</v>
       </c>
     </row>
-    <row r="118" spans="2:8">
+    <row r="118" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B118" t="s">
         <v>87</v>
       </c>
@@ -17466,7 +17465,7 @@
         <v>44747.205185185187</v>
       </c>
     </row>
-    <row r="119" spans="2:8" ht="409.6">
+    <row r="119" spans="2:8" ht="380" x14ac:dyDescent="0.2">
       <c r="B119" t="s">
         <v>268</v>
       </c>
@@ -17489,7 +17488,7 @@
         <v>44747.206180555557</v>
       </c>
     </row>
-    <row r="120" spans="2:8" ht="290.25">
+    <row r="120" spans="2:8" ht="272" x14ac:dyDescent="0.2">
       <c r="B120" t="s">
         <v>363</v>
       </c>
@@ -17512,7 +17511,7 @@
         <v>44747.272488425922</v>
       </c>
     </row>
-    <row r="121" spans="2:8" ht="409.6">
+    <row r="121" spans="2:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
         <v>268</v>
       </c>
@@ -17533,7 +17532,7 @@
         <v>44747.326631944445</v>
       </c>
     </row>
-    <row r="122" spans="2:8" ht="76.5">
+    <row r="122" spans="2:8" ht="80" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
         <v>14</v>
       </c>
@@ -17554,7 +17553,7 @@
         <v>44747.371770833335</v>
       </c>
     </row>
-    <row r="123" spans="2:8" ht="336">
+    <row r="123" spans="2:8" ht="350" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
         <v>87</v>
       </c>
@@ -17575,7 +17574,7 @@
         <v>44747.392210648148</v>
       </c>
     </row>
-    <row r="124" spans="2:8" ht="198">
+    <row r="124" spans="2:8" ht="192" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
         <v>14</v>
       </c>
@@ -17596,7 +17595,7 @@
         <v>44747.415625000001</v>
       </c>
     </row>
-    <row r="125" spans="2:8" ht="152.25">
+    <row r="125" spans="2:8" ht="144" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
         <v>14</v>
       </c>
@@ -17617,7 +17616,7 @@
         <v>44747.424131944441</v>
       </c>
     </row>
-    <row r="126" spans="2:8">
+    <row r="126" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B126" t="s">
         <v>87</v>
       </c>
@@ -17637,7 +17636,7 @@
         <v>44747.453773148147</v>
       </c>
     </row>
-    <row r="127" spans="2:8" ht="409.6">
+    <row r="127" spans="2:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="B127" t="s">
         <v>268</v>
       </c>
@@ -17660,7 +17659,7 @@
         <v>44747.518101851849</v>
       </c>
     </row>
-    <row r="128" spans="2:8" ht="244.5">
+    <row r="128" spans="2:8" ht="256" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
         <v>268</v>
       </c>
@@ -17683,7 +17682,7 @@
         <v>44747.534953703704</v>
       </c>
     </row>
-    <row r="129" spans="2:8" ht="275.25">
+    <row r="129" spans="2:8" ht="256" x14ac:dyDescent="0.2">
       <c r="B129" t="s">
         <v>268</v>
       </c>
@@ -17706,7 +17705,7 @@
         <v>44747.566168981481</v>
       </c>
     </row>
-    <row r="130" spans="2:8" ht="381.75">
+    <row r="130" spans="2:8" ht="350" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
         <v>14</v>
       </c>
@@ -17729,7 +17728,7 @@
         <v>44747.604710648149</v>
       </c>
     </row>
-    <row r="131" spans="2:8" ht="259.5">
+    <row r="131" spans="2:8" ht="240" x14ac:dyDescent="0.2">
       <c r="B131" t="s">
         <v>14</v>
       </c>
@@ -17750,7 +17749,7 @@
         <v>44747.627118055556</v>
       </c>
     </row>
-    <row r="132" spans="2:8" ht="409.6">
+    <row r="132" spans="2:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="B132" t="s">
         <v>14</v>
       </c>
@@ -17771,7 +17770,7 @@
         <v>44747.678344907406</v>
       </c>
     </row>
-    <row r="133" spans="2:8" ht="409.6">
+    <row r="133" spans="2:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="B133" t="s">
         <v>268</v>
       </c>
@@ -17794,7 +17793,7 @@
         <v>44747.688333333332</v>
       </c>
     </row>
-    <row r="134" spans="2:8">
+    <row r="134" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B134" t="s">
         <v>14</v>
       </c>
@@ -17814,7 +17813,7 @@
         <v>44747.688634259262</v>
       </c>
     </row>
-    <row r="135" spans="2:8" ht="409.6">
+    <row r="135" spans="2:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="B135" t="s">
         <v>14</v>
       </c>
@@ -17835,7 +17834,7 @@
         <v>44747.713622685187</v>
       </c>
     </row>
-    <row r="136" spans="2:8" ht="409.6">
+    <row r="136" spans="2:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="B136" t="s">
         <v>363</v>
       </c>
@@ -17858,7 +17857,7 @@
         <v>44747.719317129631</v>
       </c>
     </row>
-    <row r="137" spans="2:8" ht="167.25">
+    <row r="137" spans="2:8" ht="176" x14ac:dyDescent="0.2">
       <c r="B137" t="s">
         <v>14</v>
       </c>
@@ -17881,7 +17880,7 @@
         <v>44747.867731481485</v>
       </c>
     </row>
-    <row r="138" spans="2:8" ht="76.5">
+    <row r="138" spans="2:8" ht="80" x14ac:dyDescent="0.2">
       <c r="B138" t="s">
         <v>14</v>
       </c>
@@ -17902,7 +17901,7 @@
         <v>44747.897951388892</v>
       </c>
     </row>
-    <row r="139" spans="2:8" ht="381.75">
+    <row r="139" spans="2:8" ht="380" x14ac:dyDescent="0.2">
       <c r="B139" t="s">
         <v>87</v>
       </c>
@@ -17923,7 +17922,7 @@
         <v>44747.922453703701</v>
       </c>
     </row>
-    <row r="140" spans="2:8" ht="76.5">
+    <row r="140" spans="2:8" ht="80" x14ac:dyDescent="0.2">
       <c r="B140" t="s">
         <v>14</v>
       </c>
@@ -17944,7 +17943,7 @@
         <v>44748.010138888887</v>
       </c>
     </row>
-    <row r="141" spans="2:8">
+    <row r="141" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B141" t="s">
         <v>477</v>
       </c>
@@ -17964,7 +17963,7 @@
         <v>44748.011354166665</v>
       </c>
     </row>
-    <row r="142" spans="2:8" ht="198">
+    <row r="142" spans="2:8" ht="160" x14ac:dyDescent="0.2">
       <c r="B142" t="s">
         <v>14</v>
       </c>
@@ -17985,7 +17984,7 @@
         <v>44748.302858796298</v>
       </c>
     </row>
-    <row r="143" spans="2:8" ht="152.25">
+    <row r="143" spans="2:8" ht="160" x14ac:dyDescent="0.2">
       <c r="B143" t="s">
         <v>268</v>
       </c>
@@ -18006,7 +18005,7 @@
         <v>44748.317523148151</v>
       </c>
     </row>
-    <row r="144" spans="2:8" ht="167.25">
+    <row r="144" spans="2:8" ht="144" x14ac:dyDescent="0.2">
       <c r="B144" t="s">
         <v>268</v>
       </c>
@@ -18029,7 +18028,7 @@
         <v>44748.318865740737</v>
       </c>
     </row>
-    <row r="145" spans="2:8" ht="121.5">
+    <row r="145" spans="2:8" ht="96" x14ac:dyDescent="0.2">
       <c r="B145" t="s">
         <v>14</v>
       </c>
@@ -18050,7 +18049,7 @@
         <v>44748.320347222223</v>
       </c>
     </row>
-    <row r="146" spans="2:8" ht="336">
+    <row r="146" spans="2:8" ht="320" x14ac:dyDescent="0.2">
       <c r="B146" t="s">
         <v>14</v>
       </c>
@@ -18073,7 +18072,7 @@
         <v>44748.321087962962</v>
       </c>
     </row>
-    <row r="147" spans="2:8" ht="321">
+    <row r="147" spans="2:8" ht="304" x14ac:dyDescent="0.2">
       <c r="B147" t="s">
         <v>268</v>
       </c>
@@ -18094,7 +18093,7 @@
         <v>44748.328877314816</v>
       </c>
     </row>
-    <row r="148" spans="2:8" ht="213">
+    <row r="148" spans="2:8" ht="192" x14ac:dyDescent="0.2">
       <c r="B148" t="s">
         <v>14</v>
       </c>
@@ -18115,7 +18114,7 @@
         <v>44748.333506944444</v>
       </c>
     </row>
-    <row r="149" spans="2:8" ht="290.25">
+    <row r="149" spans="2:8" ht="272" x14ac:dyDescent="0.2">
       <c r="B149" t="s">
         <v>14</v>
       </c>
@@ -18136,7 +18135,7 @@
         <v>44748.349340277775</v>
       </c>
     </row>
-    <row r="150" spans="2:8" ht="76.5">
+    <row r="150" spans="2:8" ht="80" x14ac:dyDescent="0.2">
       <c r="B150" t="s">
         <v>14</v>
       </c>
@@ -18157,7 +18156,7 @@
         <v>44748.353680555556</v>
       </c>
     </row>
-    <row r="151" spans="2:8" ht="290.25">
+    <row r="151" spans="2:8" ht="272" x14ac:dyDescent="0.2">
       <c r="B151" t="s">
         <v>268</v>
       </c>
@@ -18180,7 +18179,7 @@
         <v>44748.366990740738</v>
       </c>
     </row>
-    <row r="152" spans="2:8" ht="198">
+    <row r="152" spans="2:8" ht="192" x14ac:dyDescent="0.2">
       <c r="B152" t="s">
         <v>14</v>
       </c>
@@ -18201,7 +18200,7 @@
         <v>44748.373356481483</v>
       </c>
     </row>
-    <row r="153" spans="2:8" ht="409.6">
+    <row r="153" spans="2:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="B153" t="s">
         <v>268</v>
       </c>
@@ -18222,7 +18221,7 @@
         <v>44748.376944444448</v>
       </c>
     </row>
-    <row r="154" spans="2:8" ht="290.25">
+    <row r="154" spans="2:8" ht="288" x14ac:dyDescent="0.2">
       <c r="B154" t="s">
         <v>14</v>
       </c>
@@ -18243,7 +18242,7 @@
         <v>44748.380231481482</v>
       </c>
     </row>
-    <row r="155" spans="2:8" ht="409.6">
+    <row r="155" spans="2:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="B155" t="s">
         <v>14</v>
       </c>
@@ -18264,7 +18263,7 @@
         <v>44748.382361111115</v>
       </c>
     </row>
-    <row r="156" spans="2:8" ht="198">
+    <row r="156" spans="2:8" ht="192" x14ac:dyDescent="0.2">
       <c r="B156" t="s">
         <v>14</v>
       </c>
@@ -18285,7 +18284,7 @@
         <v>44748.386805555558</v>
       </c>
     </row>
-    <row r="157" spans="2:8" ht="381.75">
+    <row r="157" spans="2:8" ht="380" x14ac:dyDescent="0.2">
       <c r="B157" t="s">
         <v>268</v>
       </c>
@@ -18306,7 +18305,7 @@
         <v>44748.403784722221</v>
       </c>
     </row>
-    <row r="158" spans="2:8" ht="121.5">
+    <row r="158" spans="2:8" ht="128" x14ac:dyDescent="0.2">
       <c r="B158" t="s">
         <v>14</v>
       </c>
@@ -18329,7 +18328,7 @@
         <v>44748.40724537037</v>
       </c>
     </row>
-    <row r="159" spans="2:8">
+    <row r="159" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B159" t="s">
         <v>477</v>
       </c>
@@ -18349,7 +18348,7 @@
         <v>44748.407627314817</v>
       </c>
     </row>
-    <row r="160" spans="2:8" ht="366">
+    <row r="160" spans="2:8" ht="365" x14ac:dyDescent="0.2">
       <c r="B160" t="s">
         <v>363</v>
       </c>
@@ -18370,7 +18369,7 @@
         <v>44748.408263888887</v>
       </c>
     </row>
-    <row r="161" spans="2:8" ht="409.6">
+    <row r="161" spans="2:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="B161" t="s">
         <v>14</v>
       </c>
@@ -18391,7 +18390,7 @@
         <v>44748.424097222225</v>
       </c>
     </row>
-    <row r="162" spans="2:8" ht="259.5">
+    <row r="162" spans="2:8" ht="240" x14ac:dyDescent="0.2">
       <c r="B162" t="s">
         <v>14</v>
       </c>
@@ -18412,7 +18411,7 @@
         <v>44748.432685185187</v>
       </c>
     </row>
-    <row r="163" spans="2:8" ht="275.25">
+    <row r="163" spans="2:8" ht="272" x14ac:dyDescent="0.2">
       <c r="B163" t="s">
         <v>268</v>
       </c>
@@ -18435,7 +18434,7 @@
         <v>44748.439918981479</v>
       </c>
     </row>
-    <row r="164" spans="2:8" ht="409.6">
+    <row r="164" spans="2:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="B164" t="s">
         <v>14</v>
       </c>
@@ -18456,7 +18455,7 @@
         <v>44748.442847222221</v>
       </c>
     </row>
-    <row r="165" spans="2:8" ht="229.5">
+    <row r="165" spans="2:8" ht="240" x14ac:dyDescent="0.2">
       <c r="B165" t="s">
         <v>87</v>
       </c>
@@ -18477,7 +18476,7 @@
         <v>44748.45584490741</v>
       </c>
     </row>
-    <row r="166" spans="2:8" ht="381.75">
+    <row r="166" spans="2:8" ht="350" x14ac:dyDescent="0.2">
       <c r="B166" t="s">
         <v>268</v>
       </c>
@@ -18500,7 +18499,7 @@
         <v>44748.479594907411</v>
       </c>
     </row>
-    <row r="167" spans="2:8">
+    <row r="167" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B167" t="s">
         <v>87</v>
       </c>
@@ -18520,7 +18519,7 @@
         <v>44748.481180555558</v>
       </c>
     </row>
-    <row r="168" spans="2:8" ht="396.75">
+    <row r="168" spans="2:8" ht="380" x14ac:dyDescent="0.2">
       <c r="B168" t="s">
         <v>14</v>
       </c>
@@ -18541,7 +18540,7 @@
         <v>44748.500462962962</v>
       </c>
     </row>
-    <row r="169" spans="2:8" ht="137.25">
+    <row r="169" spans="2:8" ht="144" x14ac:dyDescent="0.2">
       <c r="B169" t="s">
         <v>87</v>
       </c>
@@ -18562,7 +18561,7 @@
         <v>44748.510266203702</v>
       </c>
     </row>
-    <row r="170" spans="2:8" ht="213">
+    <row r="170" spans="2:8" ht="192" x14ac:dyDescent="0.2">
       <c r="B170" t="s">
         <v>14</v>
       </c>
@@ -18585,7 +18584,7 @@
         <v>44748.528923611113</v>
       </c>
     </row>
-    <row r="171" spans="2:8" ht="290.25">
+    <row r="171" spans="2:8" ht="272" x14ac:dyDescent="0.2">
       <c r="B171" t="s">
         <v>268</v>
       </c>
@@ -18608,7 +18607,7 @@
         <v>44748.529861111114</v>
       </c>
     </row>
-    <row r="172" spans="2:8" ht="167.25">
+    <row r="172" spans="2:8" ht="160" x14ac:dyDescent="0.2">
       <c r="B172" t="s">
         <v>14</v>
       </c>
@@ -18629,7 +18628,7 @@
         <v>44748.610266203701</v>
       </c>
     </row>
-    <row r="173" spans="2:8" ht="290.25">
+    <row r="173" spans="2:8" ht="304" x14ac:dyDescent="0.2">
       <c r="B173" t="s">
         <v>87</v>
       </c>
@@ -18650,7 +18649,7 @@
         <v>44748.671678240738</v>
       </c>
     </row>
-    <row r="174" spans="2:8" ht="152.25">
+    <row r="174" spans="2:8" ht="144" x14ac:dyDescent="0.2">
       <c r="B174" t="s">
         <v>14</v>
       </c>
@@ -18671,7 +18670,7 @@
         <v>44748.674375000002</v>
       </c>
     </row>
-    <row r="175" spans="2:8" ht="106.5">
+    <row r="175" spans="2:8" ht="112" x14ac:dyDescent="0.2">
       <c r="B175" t="s">
         <v>477</v>
       </c>
@@ -18692,7 +18691,7 @@
         <v>44748.674537037034</v>
       </c>
     </row>
-    <row r="176" spans="2:8" ht="409.6">
+    <row r="176" spans="2:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="B176" t="s">
         <v>14</v>
       </c>
@@ -18713,7 +18712,7 @@
         <v>44748.677025462966</v>
       </c>
     </row>
-    <row r="177" spans="2:8" ht="409.6">
+    <row r="177" spans="2:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="B177" t="s">
         <v>14</v>
       </c>
@@ -18734,7 +18733,7 @@
         <v>44748.702581018515</v>
       </c>
     </row>
-    <row r="178" spans="2:8" ht="409.6">
+    <row r="178" spans="2:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="B178" t="s">
         <v>87</v>
       </c>
@@ -18755,7 +18754,7 @@
         <v>44748.710462962961</v>
       </c>
     </row>
-    <row r="179" spans="2:8" ht="351">
+    <row r="179" spans="2:8" ht="335" x14ac:dyDescent="0.2">
       <c r="B179" t="s">
         <v>268</v>
       </c>
@@ -18778,7 +18777,7 @@
         <v>44748.749583333331</v>
       </c>
     </row>
-    <row r="180" spans="2:8" ht="409.6">
+    <row r="180" spans="2:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="B180" t="s">
         <v>268</v>
       </c>
@@ -18801,7 +18800,7 @@
         <v>44748.750891203701</v>
       </c>
     </row>
-    <row r="181" spans="2:8" ht="106.5">
+    <row r="181" spans="2:8" ht="96" x14ac:dyDescent="0.2">
       <c r="B181" t="s">
         <v>14</v>
       </c>
@@ -18822,7 +18821,7 @@
         <v>44748.752349537041</v>
       </c>
     </row>
-    <row r="182" spans="2:8" ht="321">
+    <row r="182" spans="2:8" ht="304" x14ac:dyDescent="0.2">
       <c r="B182" t="s">
         <v>268</v>
       </c>
@@ -18845,7 +18844,7 @@
         <v>44748.943668981483</v>
       </c>
     </row>
-    <row r="183" spans="2:8">
+    <row r="183" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C183" t="s">
         <v>601</v>
       </c>
@@ -18862,7 +18861,7 @@
         <v>44748.944571759261</v>
       </c>
     </row>
-    <row r="184" spans="2:8" ht="137.25">
+    <row r="184" spans="2:8" ht="112" x14ac:dyDescent="0.2">
       <c r="C184" s="1" t="s">
         <v>604</v>
       </c>
@@ -18880,7 +18879,7 @@
         <v>44749.06354166667</v>
       </c>
     </row>
-    <row r="185" spans="2:8" ht="409.6">
+    <row r="185" spans="2:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C185" s="1" t="s">
         <v>607</v>
       </c>
@@ -18898,7 +18897,7 @@
         <v>44749.066747685189</v>
       </c>
     </row>
-    <row r="186" spans="2:8" ht="244.5">
+    <row r="186" spans="2:8" ht="256" x14ac:dyDescent="0.2">
       <c r="C186" s="1" t="s">
         <v>610</v>
       </c>
@@ -18916,7 +18915,7 @@
         <v>44749.115069444444</v>
       </c>
     </row>
-    <row r="187" spans="2:8" ht="409.6">
+    <row r="187" spans="2:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C187" s="1" t="s">
         <v>612</v>
       </c>
@@ -18934,7 +18933,7 @@
         <v>44749.187916666669</v>
       </c>
     </row>
-    <row r="188" spans="2:8" ht="229.5">
+    <row r="188" spans="2:8" ht="208" x14ac:dyDescent="0.2">
       <c r="C188" s="1" t="s">
         <v>615</v>
       </c>
@@ -18952,7 +18951,7 @@
         <v>44749.198888888888</v>
       </c>
     </row>
-    <row r="189" spans="2:8" ht="409.6">
+    <row r="189" spans="2:8" ht="380" x14ac:dyDescent="0.2">
       <c r="C189" s="1" t="s">
         <v>618</v>
       </c>
@@ -18970,7 +18969,7 @@
         <v>44749.259988425925</v>
       </c>
     </row>
-    <row r="190" spans="2:8" ht="137.25">
+    <row r="190" spans="2:8" ht="112" x14ac:dyDescent="0.2">
       <c r="C190" s="1" t="s">
         <v>621</v>
       </c>
@@ -18988,7 +18987,7 @@
         <v>44749.263680555552</v>
       </c>
     </row>
-    <row r="191" spans="2:8">
+    <row r="191" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C191" t="s">
         <v>624</v>
       </c>
@@ -19005,7 +19004,7 @@
         <v>44749.298888888887</v>
       </c>
     </row>
-    <row r="192" spans="2:8">
+    <row r="192" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C192" t="s">
         <v>626</v>
       </c>
@@ -19022,7 +19021,7 @@
         <v>44749.326550925929</v>
       </c>
     </row>
-    <row r="193" spans="3:8" ht="409.6">
+    <row r="193" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C193" s="1" t="s">
         <v>628</v>
       </c>
@@ -19040,7 +19039,7 @@
         <v>44749.343831018516</v>
       </c>
     </row>
-    <row r="194" spans="3:8" ht="351">
+    <row r="194" spans="3:8" ht="335" x14ac:dyDescent="0.2">
       <c r="C194" s="1" t="s">
         <v>631</v>
       </c>
@@ -19058,7 +19057,7 @@
         <v>44749.378437500003</v>
       </c>
     </row>
-    <row r="195" spans="3:8" ht="213">
+    <row r="195" spans="3:8" ht="208" x14ac:dyDescent="0.2">
       <c r="C195" s="1" t="s">
         <v>634</v>
       </c>
@@ -19076,7 +19075,7 @@
         <v>44749.421203703707</v>
       </c>
     </row>
-    <row r="196" spans="3:8" ht="409.6">
+    <row r="196" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C196" s="1" t="s">
         <v>636</v>
       </c>
@@ -19094,7 +19093,7 @@
         <v>44749.421446759261</v>
       </c>
     </row>
-    <row r="197" spans="3:8" ht="336">
+    <row r="197" spans="3:8" ht="320" x14ac:dyDescent="0.2">
       <c r="C197" s="1" t="s">
         <v>638</v>
       </c>
@@ -19112,7 +19111,7 @@
         <v>44749.423831018517</v>
       </c>
     </row>
-    <row r="198" spans="3:8" ht="76.5">
+    <row r="198" spans="3:8" ht="80" x14ac:dyDescent="0.2">
       <c r="C198" s="1" t="s">
         <v>641</v>
       </c>
@@ -19130,7 +19129,7 @@
         <v>44749.43414351852</v>
       </c>
     </row>
-    <row r="199" spans="3:8" ht="351">
+    <row r="199" spans="3:8" ht="335" x14ac:dyDescent="0.2">
       <c r="C199" s="1" t="s">
         <v>644</v>
       </c>
@@ -19148,7 +19147,7 @@
         <v>44749.481238425928</v>
       </c>
     </row>
-    <row r="200" spans="3:8" ht="183">
+    <row r="200" spans="3:8" ht="160" x14ac:dyDescent="0.2">
       <c r="C200" s="1" t="s">
         <v>647</v>
       </c>
@@ -19166,7 +19165,7 @@
         <v>44749.521134259259</v>
       </c>
     </row>
-    <row r="201" spans="3:8" ht="409.6">
+    <row r="201" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C201" s="1" t="s">
         <v>650</v>
       </c>
@@ -19184,7 +19183,7 @@
         <v>44749.619664351849</v>
       </c>
     </row>
-    <row r="202" spans="3:8" ht="275.25">
+    <row r="202" spans="3:8" ht="272" x14ac:dyDescent="0.2">
       <c r="C202" s="1" t="s">
         <v>652</v>
       </c>
@@ -19202,7 +19201,7 @@
         <v>44749.661944444444</v>
       </c>
     </row>
-    <row r="203" spans="3:8" ht="409.6">
+    <row r="203" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C203" s="1" t="s">
         <v>654</v>
       </c>
@@ -19220,7 +19219,7 @@
         <v>44749.670601851853</v>
       </c>
     </row>
-    <row r="204" spans="3:8" ht="305.25">
+    <row r="204" spans="3:8" ht="288" x14ac:dyDescent="0.2">
       <c r="C204" s="1" t="s">
         <v>657</v>
       </c>
@@ -19238,7 +19237,7 @@
         <v>44749.728391203702</v>
       </c>
     </row>
-    <row r="205" spans="3:8" ht="409.6">
+    <row r="205" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C205" s="1" t="s">
         <v>660</v>
       </c>
@@ -19256,7 +19255,7 @@
         <v>44749.768067129633</v>
       </c>
     </row>
-    <row r="206" spans="3:8">
+    <row r="206" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C206" t="s">
         <v>663</v>
       </c>
@@ -19273,7 +19272,7 @@
         <v>44749.772569444445</v>
       </c>
     </row>
-    <row r="207" spans="3:8" ht="290.25">
+    <row r="207" spans="3:8" ht="272" x14ac:dyDescent="0.2">
       <c r="C207" s="1" t="s">
         <v>666</v>
       </c>
@@ -19291,7 +19290,7 @@
         <v>44749.904814814814</v>
       </c>
     </row>
-    <row r="208" spans="3:8" ht="152.25">
+    <row r="208" spans="3:8" ht="160" x14ac:dyDescent="0.2">
       <c r="C208" s="1" t="s">
         <v>669</v>
       </c>
@@ -19309,7 +19308,7 @@
         <v>44749.905798611115</v>
       </c>
     </row>
-    <row r="209" spans="3:8">
+    <row r="209" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C209" t="s">
         <v>72</v>
       </c>
@@ -19326,7 +19325,7 @@
         <v>44749.911689814813</v>
       </c>
     </row>
-    <row r="210" spans="3:8" ht="152.25">
+    <row r="210" spans="3:8" ht="128" x14ac:dyDescent="0.2">
       <c r="C210" s="1" t="s">
         <v>673</v>
       </c>
@@ -19344,7 +19343,7 @@
         <v>44749.91302083333</v>
       </c>
     </row>
-    <row r="211" spans="3:8" ht="137.25">
+    <row r="211" spans="3:8" ht="144" x14ac:dyDescent="0.2">
       <c r="C211" s="1" t="s">
         <v>676</v>
       </c>
@@ -19362,7 +19361,7 @@
         <v>44749.925046296295</v>
       </c>
     </row>
-    <row r="212" spans="3:8" ht="60.75">
+    <row r="212" spans="3:8" ht="64" x14ac:dyDescent="0.2">
       <c r="C212" s="1" t="s">
         <v>679</v>
       </c>
@@ -19380,7 +19379,7 @@
         <v>44749.957175925927</v>
       </c>
     </row>
-    <row r="213" spans="3:8" ht="409.6">
+    <row r="213" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C213" s="1" t="s">
         <v>682</v>
       </c>
@@ -19398,7 +19397,7 @@
         <v>44750.140219907407</v>
       </c>
     </row>
-    <row r="214" spans="3:8" ht="106.5">
+    <row r="214" spans="3:8" ht="80" x14ac:dyDescent="0.2">
       <c r="C214" s="1" t="s">
         <v>685</v>
       </c>
@@ -19416,7 +19415,7 @@
         <v>44750.29478009259</v>
       </c>
     </row>
-    <row r="215" spans="3:8" ht="409.6">
+    <row r="215" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C215" s="1" t="s">
         <v>688</v>
       </c>
@@ -19434,7 +19433,7 @@
         <v>44750.328356481485</v>
       </c>
     </row>
-    <row r="216" spans="3:8" ht="106.5">
+    <row r="216" spans="3:8" ht="112" x14ac:dyDescent="0.2">
       <c r="C216" s="1" t="s">
         <v>691</v>
       </c>
@@ -19452,7 +19451,7 @@
         <v>44750.338576388887</v>
       </c>
     </row>
-    <row r="217" spans="3:8" ht="167.25">
+    <row r="217" spans="3:8" ht="160" x14ac:dyDescent="0.2">
       <c r="C217" s="1" t="s">
         <v>694</v>
       </c>
@@ -19470,7 +19469,7 @@
         <v>44750.361435185187</v>
       </c>
     </row>
-    <row r="218" spans="3:8" ht="409.6">
+    <row r="218" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C218" s="1" t="s">
         <v>697</v>
       </c>
@@ -19488,7 +19487,7 @@
         <v>44750.398495370369</v>
       </c>
     </row>
-    <row r="219" spans="3:8" ht="409.6">
+    <row r="219" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C219" s="1" t="s">
         <v>699</v>
       </c>
@@ -19506,7 +19505,7 @@
         <v>44750.54965277778</v>
       </c>
     </row>
-    <row r="220" spans="3:8" ht="183">
+    <row r="220" spans="3:8" ht="192" x14ac:dyDescent="0.2">
       <c r="C220" s="1" t="s">
         <v>702</v>
       </c>
@@ -19524,7 +19523,7 @@
         <v>44750.553946759261</v>
       </c>
     </row>
-    <row r="221" spans="3:8" ht="183">
+    <row r="221" spans="3:8" ht="176" x14ac:dyDescent="0.2">
       <c r="C221" s="1" t="s">
         <v>705</v>
       </c>
@@ -19542,7 +19541,7 @@
         <v>44751.052418981482</v>
       </c>
     </row>
-    <row r="222" spans="3:8" ht="259.5">
+    <row r="222" spans="3:8" ht="240" x14ac:dyDescent="0.2">
       <c r="C222" s="1" t="s">
         <v>708</v>
       </c>
@@ -19560,7 +19559,7 @@
         <v>44751.064027777778</v>
       </c>
     </row>
-    <row r="223" spans="3:8" ht="409.6">
+    <row r="223" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C223" s="1" t="s">
         <v>711</v>
       </c>
@@ -19578,7 +19577,7 @@
         <v>44751.086689814816</v>
       </c>
     </row>
-    <row r="224" spans="3:8" ht="106.5">
+    <row r="224" spans="3:8" ht="96" x14ac:dyDescent="0.2">
       <c r="C224" s="1" t="s">
         <v>714</v>
       </c>
@@ -19596,7 +19595,7 @@
         <v>44751.205960648149</v>
       </c>
     </row>
-    <row r="225" spans="3:8" ht="152.25">
+    <row r="225" spans="3:8" ht="128" x14ac:dyDescent="0.2">
       <c r="C225" s="1" t="s">
         <v>717</v>
       </c>
@@ -19614,7 +19613,7 @@
         <v>44751.291203703702</v>
       </c>
     </row>
-    <row r="226" spans="3:8" ht="366">
+    <row r="226" spans="3:8" ht="350" x14ac:dyDescent="0.2">
       <c r="C226" s="1" t="s">
         <v>720</v>
       </c>
@@ -19632,7 +19631,7 @@
         <v>44751.36859953704</v>
       </c>
     </row>
-    <row r="227" spans="3:8" ht="409.6">
+    <row r="227" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C227" s="1" t="s">
         <v>723</v>
       </c>
@@ -19650,7 +19649,7 @@
         <v>44751.388726851852</v>
       </c>
     </row>
-    <row r="228" spans="3:8" ht="259.5">
+    <row r="228" spans="3:8" ht="224" x14ac:dyDescent="0.2">
       <c r="C228" s="1" t="s">
         <v>726</v>
       </c>
@@ -19668,7 +19667,7 @@
         <v>44751.41611111111</v>
       </c>
     </row>
-    <row r="229" spans="3:8" ht="244.5">
+    <row r="229" spans="3:8" ht="256" x14ac:dyDescent="0.2">
       <c r="C229" s="1" t="s">
         <v>728</v>
       </c>
@@ -19686,7 +19685,7 @@
         <v>44751.41646990741</v>
       </c>
     </row>
-    <row r="230" spans="3:8" ht="229.5">
+    <row r="230" spans="3:8" ht="240" x14ac:dyDescent="0.2">
       <c r="C230" s="1" t="s">
         <v>731</v>
       </c>
@@ -19704,7 +19703,7 @@
         <v>44751.420775462961</v>
       </c>
     </row>
-    <row r="231" spans="3:8" ht="275.25">
+    <row r="231" spans="3:8" ht="256" x14ac:dyDescent="0.2">
       <c r="C231" s="1" t="s">
         <v>734</v>
       </c>
@@ -19722,7 +19721,7 @@
         <v>44751.482916666668</v>
       </c>
     </row>
-    <row r="232" spans="3:8" ht="137.25">
+    <row r="232" spans="3:8" ht="144" x14ac:dyDescent="0.2">
       <c r="C232" s="1" t="s">
         <v>737</v>
       </c>
@@ -19740,7 +19739,7 @@
         <v>44751.512430555558</v>
       </c>
     </row>
-    <row r="233" spans="3:8" ht="366">
+    <row r="233" spans="3:8" ht="365" x14ac:dyDescent="0.2">
       <c r="C233" s="1" t="s">
         <v>740</v>
       </c>
@@ -19758,7 +19757,7 @@
         <v>44751.548402777778</v>
       </c>
     </row>
-    <row r="234" spans="3:8" ht="137.25">
+    <row r="234" spans="3:8" ht="128" x14ac:dyDescent="0.2">
       <c r="C234" s="1" t="s">
         <v>742</v>
       </c>
@@ -19776,7 +19775,7 @@
         <v>44751.576527777775</v>
       </c>
     </row>
-    <row r="235" spans="3:8" ht="409.6">
+    <row r="235" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C235" s="1" t="s">
         <v>745</v>
       </c>
@@ -19794,7 +19793,7 @@
         <v>44751.590069444443</v>
       </c>
     </row>
-    <row r="236" spans="3:8">
+    <row r="236" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C236" t="s">
         <v>747</v>
       </c>
@@ -19811,7 +19810,7 @@
         <v>44751.606886574074</v>
       </c>
     </row>
-    <row r="237" spans="3:8" ht="351">
+    <row r="237" spans="3:8" ht="365" x14ac:dyDescent="0.2">
       <c r="C237" s="1" t="s">
         <v>750</v>
       </c>
@@ -19829,7 +19828,7 @@
         <v>44751.609918981485</v>
       </c>
     </row>
-    <row r="238" spans="3:8" ht="409.6">
+    <row r="238" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C238" s="1" t="s">
         <v>752</v>
       </c>
@@ -19847,7 +19846,7 @@
         <v>44751.628819444442</v>
       </c>
     </row>
-    <row r="239" spans="3:8" ht="213">
+    <row r="239" spans="3:8" ht="208" x14ac:dyDescent="0.2">
       <c r="C239" s="1" t="s">
         <v>754</v>
       </c>
@@ -19865,7 +19864,7 @@
         <v>44751.700127314813</v>
       </c>
     </row>
-    <row r="240" spans="3:8" ht="366">
+    <row r="240" spans="3:8" ht="350" x14ac:dyDescent="0.2">
       <c r="C240" s="1" t="s">
         <v>757</v>
       </c>
@@ -19883,7 +19882,7 @@
         <v>44751.721307870372</v>
       </c>
     </row>
-    <row r="241" spans="3:8" ht="106.5">
+    <row r="241" spans="3:8" ht="112" x14ac:dyDescent="0.2">
       <c r="C241" s="1" t="s">
         <v>760</v>
       </c>
@@ -19901,7 +19900,7 @@
         <v>44751.755254629628</v>
       </c>
     </row>
-    <row r="242" spans="3:8" ht="409.6">
+    <row r="242" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C242" s="1" t="s">
         <v>763</v>
       </c>
@@ -19919,7 +19918,7 @@
         <v>44751.768946759257</v>
       </c>
     </row>
-    <row r="243" spans="3:8" ht="167.25">
+    <row r="243" spans="3:8" ht="144" x14ac:dyDescent="0.2">
       <c r="C243" s="1" t="s">
         <v>766</v>
       </c>
@@ -19937,7 +19936,7 @@
         <v>44751.779351851852</v>
       </c>
     </row>
-    <row r="244" spans="3:8" ht="198">
+    <row r="244" spans="3:8" ht="176" x14ac:dyDescent="0.2">
       <c r="C244" s="1" t="s">
         <v>769</v>
       </c>
@@ -19955,7 +19954,7 @@
         <v>44751.782083333332</v>
       </c>
     </row>
-    <row r="245" spans="3:8" ht="396.75">
+    <row r="245" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C245" s="1" t="s">
         <v>771</v>
       </c>
@@ -19973,7 +19972,7 @@
         <v>44751.78324074074</v>
       </c>
     </row>
-    <row r="246" spans="3:8" ht="290.25">
+    <row r="246" spans="3:8" ht="288" x14ac:dyDescent="0.2">
       <c r="C246" s="1" t="s">
         <v>773</v>
       </c>
@@ -19991,7 +19990,7 @@
         <v>44751.838206018518</v>
       </c>
     </row>
-    <row r="247" spans="3:8" ht="409.6">
+    <row r="247" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C247" s="1" t="s">
         <v>776</v>
       </c>
@@ -20009,7 +20008,7 @@
         <v>44752.032187500001</v>
       </c>
     </row>
-    <row r="248" spans="3:8" ht="275.25">
+    <row r="248" spans="3:8" ht="256" x14ac:dyDescent="0.2">
       <c r="C248" s="1" t="s">
         <v>779</v>
       </c>
@@ -20027,7 +20026,7 @@
         <v>44752.050173611111</v>
       </c>
     </row>
-    <row r="249" spans="3:8" ht="76.5">
+    <row r="249" spans="3:8" ht="80" x14ac:dyDescent="0.2">
       <c r="C249" s="1" t="s">
         <v>782</v>
       </c>
@@ -20045,7 +20044,7 @@
         <v>44752.109236111108</v>
       </c>
     </row>
-    <row r="250" spans="3:8" ht="409.6">
+    <row r="250" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C250" s="1" t="s">
         <v>785</v>
       </c>
@@ -20063,7 +20062,7 @@
         <v>44752.173946759256</v>
       </c>
     </row>
-    <row r="251" spans="3:8" ht="229.5">
+    <row r="251" spans="3:8" ht="208" x14ac:dyDescent="0.2">
       <c r="C251" s="1" t="s">
         <v>788</v>
       </c>
@@ -20081,7 +20080,7 @@
         <v>44752.251006944447</v>
       </c>
     </row>
-    <row r="252" spans="3:8">
+    <row r="252" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C252" t="s">
         <v>791</v>
       </c>
@@ -20098,7 +20097,7 @@
         <v>44752.253020833334</v>
       </c>
     </row>
-    <row r="253" spans="3:8" ht="259.5">
+    <row r="253" spans="3:8" ht="256" x14ac:dyDescent="0.2">
       <c r="C253" s="1" t="s">
         <v>794</v>
       </c>
@@ -20116,7 +20115,7 @@
         <v>44752.441469907404</v>
       </c>
     </row>
-    <row r="254" spans="3:8" ht="183">
+    <row r="254" spans="3:8" ht="160" x14ac:dyDescent="0.2">
       <c r="C254" s="1" t="s">
         <v>796</v>
       </c>
@@ -20134,7 +20133,7 @@
         <v>44752.444386574076</v>
       </c>
     </row>
-    <row r="255" spans="3:8" ht="259.5">
+    <row r="255" spans="3:8" ht="256" x14ac:dyDescent="0.2">
       <c r="C255" s="1" t="s">
         <v>799</v>
       </c>
@@ -20152,7 +20151,7 @@
         <v>44752.449074074073</v>
       </c>
     </row>
-    <row r="256" spans="3:8" ht="121.5">
+    <row r="256" spans="3:8" ht="112" x14ac:dyDescent="0.2">
       <c r="C256" s="1" t="s">
         <v>802</v>
       </c>
@@ -20170,7 +20169,7 @@
         <v>44752.472638888888</v>
       </c>
     </row>
-    <row r="257" spans="3:8">
+    <row r="257" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C257" t="s">
         <v>805</v>
       </c>
@@ -20187,7 +20186,7 @@
         <v>44752.513923611114</v>
       </c>
     </row>
-    <row r="258" spans="3:8" ht="409.6">
+    <row r="258" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C258" s="1" t="s">
         <v>808</v>
       </c>
@@ -20205,7 +20204,7 @@
         <v>44752.593287037038</v>
       </c>
     </row>
-    <row r="259" spans="3:8" ht="409.6">
+    <row r="259" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C259" s="1" t="s">
         <v>811</v>
       </c>
@@ -20223,7 +20222,7 @@
         <v>44752.605787037035</v>
       </c>
     </row>
-    <row r="260" spans="3:8" ht="167.25">
+    <row r="260" spans="3:8" ht="176" x14ac:dyDescent="0.2">
       <c r="C260" s="1" t="s">
         <v>814</v>
       </c>
@@ -20241,7 +20240,7 @@
         <v>44752.655312499999</v>
       </c>
     </row>
-    <row r="261" spans="3:8" ht="381.75">
+    <row r="261" spans="3:8" ht="395" x14ac:dyDescent="0.2">
       <c r="C261" s="1" t="s">
         <v>817</v>
       </c>
@@ -20259,7 +20258,7 @@
         <v>44752.751215277778</v>
       </c>
     </row>
-    <row r="262" spans="3:8" ht="336">
+    <row r="262" spans="3:8" ht="335" x14ac:dyDescent="0.2">
       <c r="C262" s="1" t="s">
         <v>819</v>
       </c>
@@ -20277,7 +20276,7 @@
         <v>44752.77070601852</v>
       </c>
     </row>
-    <row r="263" spans="3:8" ht="121.5">
+    <row r="263" spans="3:8" ht="112" x14ac:dyDescent="0.2">
       <c r="C263" s="1" t="s">
         <v>822</v>
       </c>
@@ -20295,7 +20294,7 @@
         <v>44752.776967592596</v>
       </c>
     </row>
-    <row r="264" spans="3:8" ht="351">
+    <row r="264" spans="3:8" ht="335" x14ac:dyDescent="0.2">
       <c r="C264" s="1" t="s">
         <v>824</v>
       </c>
@@ -20313,7 +20312,7 @@
         <v>44752.789490740739</v>
       </c>
     </row>
-    <row r="265" spans="3:8" ht="106.5">
+    <row r="265" spans="3:8" ht="112" x14ac:dyDescent="0.2">
       <c r="C265" s="1" t="s">
         <v>826</v>
       </c>
@@ -20331,7 +20330,7 @@
         <v>44752.804618055554</v>
       </c>
     </row>
-    <row r="266" spans="3:8" ht="167.25">
+    <row r="266" spans="3:8" ht="160" x14ac:dyDescent="0.2">
       <c r="C266" s="1" t="s">
         <v>829</v>
       </c>
@@ -20349,7 +20348,7 @@
         <v>44752.89466435185</v>
       </c>
     </row>
-    <row r="267" spans="3:8" ht="76.5">
+    <row r="267" spans="3:8" ht="80" x14ac:dyDescent="0.2">
       <c r="C267" s="1" t="s">
         <v>832</v>
       </c>
@@ -20367,7 +20366,7 @@
         <v>44752.909166666665</v>
       </c>
     </row>
-    <row r="268" spans="3:8" ht="351">
+    <row r="268" spans="3:8" ht="335" x14ac:dyDescent="0.2">
       <c r="C268" s="1" t="s">
         <v>834</v>
       </c>
@@ -20385,7 +20384,7 @@
         <v>44752.960497685184</v>
       </c>
     </row>
-    <row r="269" spans="3:8" ht="409.6">
+    <row r="269" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C269" s="1" t="s">
         <v>836</v>
       </c>
@@ -20403,7 +20402,7 @@
         <v>44752.968657407408</v>
       </c>
     </row>
-    <row r="270" spans="3:8" ht="45.75">
+    <row r="270" spans="3:8" ht="48" x14ac:dyDescent="0.2">
       <c r="C270" s="1" t="s">
         <v>839</v>
       </c>
@@ -20421,7 +20420,7 @@
         <v>44753.062777777777</v>
       </c>
     </row>
-    <row r="271" spans="3:8">
+    <row r="271" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C271" t="s">
         <v>842</v>
       </c>
@@ -20438,7 +20437,7 @@
         <v>44753.209166666667</v>
       </c>
     </row>
-    <row r="272" spans="3:8" ht="167.25">
+    <row r="272" spans="3:8" ht="176" x14ac:dyDescent="0.2">
       <c r="C272" s="1" t="s">
         <v>844</v>
       </c>
@@ -20456,7 +20455,7 @@
         <v>44753.223333333335</v>
       </c>
     </row>
-    <row r="273" spans="3:8" ht="213">
+    <row r="273" spans="3:8" ht="192" x14ac:dyDescent="0.2">
       <c r="C273" s="1" t="s">
         <v>847</v>
       </c>
@@ -20474,7 +20473,7 @@
         <v>44753.253275462965</v>
       </c>
     </row>
-    <row r="274" spans="3:8" ht="183">
+    <row r="274" spans="3:8" ht="176" x14ac:dyDescent="0.2">
       <c r="C274" s="1" t="s">
         <v>849</v>
       </c>
@@ -20492,7 +20491,7 @@
         <v>44753.264884259261</v>
       </c>
     </row>
-    <row r="275" spans="3:8" ht="381.75">
+    <row r="275" spans="3:8" ht="365" x14ac:dyDescent="0.2">
       <c r="C275" s="1" t="s">
         <v>852</v>
       </c>
@@ -20510,7 +20509,7 @@
         <v>44753.31177083333</v>
       </c>
     </row>
-    <row r="276" spans="3:8" ht="409.6">
+    <row r="276" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C276" s="1" t="s">
         <v>855</v>
       </c>
@@ -20528,7 +20527,7 @@
         <v>44753.327685185184</v>
       </c>
     </row>
-    <row r="277" spans="3:8" ht="137.25">
+    <row r="277" spans="3:8" ht="128" x14ac:dyDescent="0.2">
       <c r="C277" s="1" t="s">
         <v>857</v>
       </c>
@@ -20546,7 +20545,7 @@
         <v>44753.336099537039</v>
       </c>
     </row>
-    <row r="278" spans="3:8">
+    <row r="278" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C278" t="s">
         <v>842</v>
       </c>
@@ -20563,7 +20562,7 @@
         <v>44753.353761574072</v>
       </c>
     </row>
-    <row r="279" spans="3:8" ht="76.5">
+    <row r="279" spans="3:8" ht="64" x14ac:dyDescent="0.2">
       <c r="C279" s="1" t="s">
         <v>861</v>
       </c>
@@ -20581,7 +20580,7 @@
         <v>44753.376261574071</v>
       </c>
     </row>
-    <row r="280" spans="3:8" ht="409.6">
+    <row r="280" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C280" s="1" t="s">
         <v>864</v>
       </c>
@@ -20599,7 +20598,7 @@
         <v>44753.379270833335</v>
       </c>
     </row>
-    <row r="281" spans="3:8">
+    <row r="281" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C281" t="s">
         <v>867</v>
       </c>
@@ -20616,7 +20615,7 @@
         <v>44753.380624999998</v>
       </c>
     </row>
-    <row r="282" spans="3:8">
+    <row r="282" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C282" t="s">
         <v>870</v>
       </c>
@@ -20633,7 +20632,7 @@
         <v>44753.381585648145</v>
       </c>
     </row>
-    <row r="283" spans="3:8" ht="167.25">
+    <row r="283" spans="3:8" ht="176" x14ac:dyDescent="0.2">
       <c r="C283" s="1" t="s">
         <v>873</v>
       </c>
@@ -20651,7 +20650,7 @@
         <v>44753.387199074074</v>
       </c>
     </row>
-    <row r="284" spans="3:8" ht="259.5">
+    <row r="284" spans="3:8" ht="256" x14ac:dyDescent="0.2">
       <c r="C284" s="1" t="s">
         <v>875</v>
       </c>
@@ -20669,7 +20668,7 @@
         <v>44753.402141203704</v>
       </c>
     </row>
-    <row r="285" spans="3:8" ht="409.6">
+    <row r="285" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C285" s="1" t="s">
         <v>877</v>
       </c>
@@ -20687,7 +20686,7 @@
         <v>44753.411666666667</v>
       </c>
     </row>
-    <row r="286" spans="3:8" ht="409.6">
+    <row r="286" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C286" s="1" t="s">
         <v>879</v>
       </c>
@@ -20705,7 +20704,7 @@
         <v>44753.459039351852</v>
       </c>
     </row>
-    <row r="287" spans="3:8" ht="409.6">
+    <row r="287" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C287" s="1" t="s">
         <v>882</v>
       </c>
@@ -20723,7 +20722,7 @@
         <v>44753.527233796296</v>
       </c>
     </row>
-    <row r="288" spans="3:8" ht="198">
+    <row r="288" spans="3:8" ht="208" x14ac:dyDescent="0.2">
       <c r="C288" s="1" t="s">
         <v>884</v>
       </c>
@@ -20741,7 +20740,7 @@
         <v>44753.539780092593</v>
       </c>
     </row>
-    <row r="289" spans="3:8" ht="229.5">
+    <row r="289" spans="3:8" ht="192" x14ac:dyDescent="0.2">
       <c r="C289" s="1" t="s">
         <v>887</v>
       </c>
@@ -20759,7 +20758,7 @@
         <v>44753.582418981481</v>
       </c>
     </row>
-    <row r="290" spans="3:8" ht="275.25">
+    <row r="290" spans="3:8" ht="288" x14ac:dyDescent="0.2">
       <c r="C290" s="1" t="s">
         <v>890</v>
       </c>
@@ -20777,7 +20776,7 @@
         <v>44753.70380787037</v>
       </c>
     </row>
-    <row r="291" spans="3:8" ht="409.6">
+    <row r="291" spans="3:8" ht="380" x14ac:dyDescent="0.2">
       <c r="C291" s="1" t="s">
         <v>892</v>
       </c>
@@ -20795,7 +20794,7 @@
         <v>44753.708958333336</v>
       </c>
     </row>
-    <row r="292" spans="3:8" ht="409.6">
+    <row r="292" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C292" s="1" t="s">
         <v>894</v>
       </c>
@@ -20813,7 +20812,7 @@
         <v>44753.731574074074</v>
       </c>
     </row>
-    <row r="293" spans="3:8" ht="137.25">
+    <row r="293" spans="3:8" ht="144" x14ac:dyDescent="0.2">
       <c r="C293" s="1" t="s">
         <v>896</v>
       </c>
@@ -20831,7 +20830,7 @@
         <v>44753.736747685187</v>
       </c>
     </row>
-    <row r="294" spans="3:8" ht="183">
+    <row r="294" spans="3:8" ht="176" x14ac:dyDescent="0.2">
       <c r="C294" s="1" t="s">
         <v>898</v>
       </c>
@@ -20849,7 +20848,7 @@
         <v>44753.745370370372</v>
       </c>
     </row>
-    <row r="295" spans="3:8" ht="305.25">
+    <row r="295" spans="3:8" ht="288" x14ac:dyDescent="0.2">
       <c r="C295" s="1" t="s">
         <v>900</v>
       </c>
@@ -20867,7 +20866,7 @@
         <v>44753.747488425928</v>
       </c>
     </row>
-    <row r="296" spans="3:8" ht="396.75">
+    <row r="296" spans="3:8" ht="365" x14ac:dyDescent="0.2">
       <c r="C296" s="1" t="s">
         <v>903</v>
       </c>
@@ -20885,7 +20884,7 @@
         <v>44753.77851851852</v>
       </c>
     </row>
-    <row r="297" spans="3:8" ht="167.25">
+    <row r="297" spans="3:8" ht="160" x14ac:dyDescent="0.2">
       <c r="C297" s="1" t="s">
         <v>905</v>
       </c>
@@ -20903,7 +20902,7 @@
         <v>44753.815393518518</v>
       </c>
     </row>
-    <row r="298" spans="3:8" ht="409.6">
+    <row r="298" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C298" s="1" t="s">
         <v>908</v>
       </c>
@@ -20921,7 +20920,7 @@
         <v>44753.831192129626</v>
       </c>
     </row>
-    <row r="299" spans="3:8" ht="290.25">
+    <row r="299" spans="3:8" ht="288" x14ac:dyDescent="0.2">
       <c r="C299" s="1" t="s">
         <v>911</v>
       </c>
@@ -20939,7 +20938,7 @@
         <v>44753.880520833336</v>
       </c>
     </row>
-    <row r="300" spans="3:8" ht="409.6">
+    <row r="300" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C300" s="1" t="s">
         <v>913</v>
       </c>
@@ -20957,7 +20956,7 @@
         <v>44753.894780092596</v>
       </c>
     </row>
-    <row r="301" spans="3:8">
+    <row r="301" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C301" t="s">
         <v>915</v>
       </c>
@@ -20974,7 +20973,7 @@
         <v>44753.901192129626</v>
       </c>
     </row>
-    <row r="302" spans="3:8" ht="106.5">
+    <row r="302" spans="3:8" ht="96" x14ac:dyDescent="0.2">
       <c r="C302" s="1" t="s">
         <v>918</v>
       </c>
@@ -20992,7 +20991,7 @@
         <v>44753.912280092591</v>
       </c>
     </row>
-    <row r="303" spans="3:8" ht="167.25">
+    <row r="303" spans="3:8" ht="176" x14ac:dyDescent="0.2">
       <c r="C303" s="1" t="s">
         <v>921</v>
       </c>
@@ -21010,7 +21009,7 @@
         <v>44754.063784722224</v>
       </c>
     </row>
-    <row r="304" spans="3:8" ht="409.6">
+    <row r="304" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C304" s="1" t="s">
         <v>923</v>
       </c>
@@ -21028,7 +21027,7 @@
         <v>44754.064421296294</v>
       </c>
     </row>
-    <row r="305" spans="3:8" ht="409.6">
+    <row r="305" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C305" s="1" t="s">
         <v>925</v>
       </c>
@@ -21046,7 +21045,7 @@
         <v>44754.080497685187</v>
       </c>
     </row>
-    <row r="306" spans="3:8" ht="409.6">
+    <row r="306" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C306" s="1" t="s">
         <v>927</v>
       </c>
@@ -21064,7 +21063,7 @@
         <v>44754.098900462966</v>
       </c>
     </row>
-    <row r="307" spans="3:8" ht="409.6">
+    <row r="307" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C307" s="1" t="s">
         <v>930</v>
       </c>
@@ -21082,7 +21081,7 @@
         <v>44754.12027777778</v>
       </c>
     </row>
-    <row r="308" spans="3:8" ht="305.25">
+    <row r="308" spans="3:8" ht="288" x14ac:dyDescent="0.2">
       <c r="C308" s="1" t="s">
         <v>932</v>
       </c>
@@ -21100,7 +21099,7 @@
         <v>44754.122442129628</v>
       </c>
     </row>
-    <row r="309" spans="3:8" ht="336">
+    <row r="309" spans="3:8" ht="335" x14ac:dyDescent="0.2">
       <c r="C309" s="1" t="s">
         <v>935</v>
       </c>
@@ -21118,7 +21117,7 @@
         <v>44754.158090277779</v>
       </c>
     </row>
-    <row r="310" spans="3:8" ht="121.5">
+    <row r="310" spans="3:8" ht="128" x14ac:dyDescent="0.2">
       <c r="C310" s="1" t="s">
         <v>938</v>
       </c>
@@ -21136,7 +21135,7 @@
         <v>44754.182384259257</v>
       </c>
     </row>
-    <row r="311" spans="3:8" ht="275.25">
+    <row r="311" spans="3:8" ht="272" x14ac:dyDescent="0.2">
       <c r="C311" s="1" t="s">
         <v>941</v>
       </c>
@@ -21154,7 +21153,7 @@
         <v>44754.248692129629</v>
       </c>
     </row>
-    <row r="312" spans="3:8" ht="275.25">
+    <row r="312" spans="3:8" ht="256" x14ac:dyDescent="0.2">
       <c r="C312" s="1" t="s">
         <v>944</v>
       </c>
@@ -21172,7 +21171,7 @@
         <v>44754.323113425926</v>
       </c>
     </row>
-    <row r="313" spans="3:8" ht="244.5">
+    <row r="313" spans="3:8" ht="208" x14ac:dyDescent="0.2">
       <c r="C313" s="1" t="s">
         <v>947</v>
       </c>
@@ -21190,7 +21189,7 @@
         <v>44754.36986111111</v>
       </c>
     </row>
-    <row r="314" spans="3:8" ht="167.25">
+    <row r="314" spans="3:8" ht="160" x14ac:dyDescent="0.2">
       <c r="C314" s="1" t="s">
         <v>949</v>
       </c>
@@ -21208,7 +21207,7 @@
         <v>44754.391932870371</v>
       </c>
     </row>
-    <row r="315" spans="3:8" ht="305.25">
+    <row r="315" spans="3:8" ht="304" x14ac:dyDescent="0.2">
       <c r="C315" s="1" t="s">
         <v>951</v>
       </c>
@@ -21226,7 +21225,7 @@
         <v>44754.420439814814</v>
       </c>
     </row>
-    <row r="316" spans="3:8" ht="91.5">
+    <row r="316" spans="3:8" ht="80" x14ac:dyDescent="0.2">
       <c r="C316" s="1" t="s">
         <v>954</v>
       </c>
@@ -21244,7 +21243,7 @@
         <v>44754.424479166664</v>
       </c>
     </row>
-    <row r="317" spans="3:8" ht="91.5">
+    <row r="317" spans="3:8" ht="80" x14ac:dyDescent="0.2">
       <c r="C317" s="1" t="s">
         <v>956</v>
       </c>
@@ -21262,7 +21261,7 @@
         <v>44754.449594907404</v>
       </c>
     </row>
-    <row r="318" spans="3:8">
+    <row r="318" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C318" t="s">
         <v>72</v>
       </c>
@@ -21279,7 +21278,7 @@
         <v>44754.450671296298</v>
       </c>
     </row>
-    <row r="319" spans="3:8" ht="366">
+    <row r="319" spans="3:8" ht="365" x14ac:dyDescent="0.2">
       <c r="C319" s="1" t="s">
         <v>959</v>
       </c>
@@ -21297,7 +21296,7 @@
         <v>44754.450787037036</v>
       </c>
     </row>
-    <row r="320" spans="3:8" ht="137.25">
+    <row r="320" spans="3:8" ht="144" x14ac:dyDescent="0.2">
       <c r="C320" s="1" t="s">
         <v>961</v>
       </c>
@@ -21315,7 +21314,7 @@
         <v>44754.459016203706</v>
       </c>
     </row>
-    <row r="321" spans="3:8" ht="336">
+    <row r="321" spans="3:8" ht="320" x14ac:dyDescent="0.2">
       <c r="C321" s="1" t="s">
         <v>963</v>
       </c>
@@ -21333,7 +21332,7 @@
         <v>44754.474675925929</v>
       </c>
     </row>
-    <row r="322" spans="3:8" ht="259.5">
+    <row r="322" spans="3:8" ht="272" x14ac:dyDescent="0.2">
       <c r="C322" s="1" t="s">
         <v>966</v>
       </c>
@@ -21351,7 +21350,7 @@
         <v>44754.477731481478</v>
       </c>
     </row>
-    <row r="323" spans="3:8" ht="409.6">
+    <row r="323" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C323" s="1" t="s">
         <v>969</v>
       </c>
@@ -21369,7 +21368,7 @@
         <v>44754.481469907405</v>
       </c>
     </row>
-    <row r="324" spans="3:8" ht="106.5">
+    <row r="324" spans="3:8" ht="112" x14ac:dyDescent="0.2">
       <c r="C324" s="1" t="s">
         <v>972</v>
       </c>
@@ -21387,7 +21386,7 @@
         <v>44754.491400462961</v>
       </c>
     </row>
-    <row r="325" spans="3:8" ht="198">
+    <row r="325" spans="3:8" ht="176" x14ac:dyDescent="0.2">
       <c r="C325" s="1" t="s">
         <v>975</v>
       </c>
@@ -21405,7 +21404,7 @@
         <v>44754.517800925925</v>
       </c>
     </row>
-    <row r="326" spans="3:8" ht="336">
+    <row r="326" spans="3:8" ht="320" x14ac:dyDescent="0.2">
       <c r="C326" s="1" t="s">
         <v>978</v>
       </c>
@@ -21423,7 +21422,7 @@
         <v>44754.525995370372</v>
       </c>
     </row>
-    <row r="327" spans="3:8" ht="121.5">
+    <row r="327" spans="3:8" ht="128" x14ac:dyDescent="0.2">
       <c r="C327" s="1" t="s">
         <v>980</v>
       </c>
@@ -21441,7 +21440,7 @@
         <v>44754.52752314815</v>
       </c>
     </row>
-    <row r="328" spans="3:8" ht="409.6">
+    <row r="328" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C328" s="1" t="s">
         <v>983</v>
       </c>
@@ -21459,7 +21458,7 @@
         <v>44754.527858796297</v>
       </c>
     </row>
-    <row r="329" spans="3:8" ht="409.6">
+    <row r="329" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C329" s="1" t="s">
         <v>986</v>
       </c>
@@ -21477,7 +21476,7 @@
         <v>44754.550370370373</v>
       </c>
     </row>
-    <row r="330" spans="3:8" ht="229.5">
+    <row r="330" spans="3:8" ht="224" x14ac:dyDescent="0.2">
       <c r="C330" s="1" t="s">
         <v>989</v>
       </c>
@@ -21495,7 +21494,7 @@
         <v>44754.570972222224</v>
       </c>
     </row>
-    <row r="331" spans="3:8" ht="259.5">
+    <row r="331" spans="3:8" ht="256" x14ac:dyDescent="0.2">
       <c r="C331" s="1" t="s">
         <v>991</v>
       </c>
@@ -21513,7 +21512,7 @@
         <v>44754.578923611109</v>
       </c>
     </row>
-    <row r="332" spans="3:8" ht="121.5">
+    <row r="332" spans="3:8" ht="112" x14ac:dyDescent="0.2">
       <c r="C332" s="1" t="s">
         <v>994</v>
       </c>
@@ -21531,7 +21530,7 @@
         <v>44754.589641203704</v>
       </c>
     </row>
-    <row r="333" spans="3:8" ht="409.6">
+    <row r="333" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C333" s="1" t="s">
         <v>996</v>
       </c>
@@ -21549,7 +21548,7 @@
         <v>44754.591215277775</v>
       </c>
     </row>
-    <row r="334" spans="3:8" ht="321">
+    <row r="334" spans="3:8" ht="320" x14ac:dyDescent="0.2">
       <c r="C334" s="1" t="s">
         <v>999</v>
       </c>
@@ -21567,7 +21566,7 @@
         <v>44754.70108796296</v>
       </c>
     </row>
-    <row r="335" spans="3:8" ht="396.75">
+    <row r="335" spans="3:8" ht="395" x14ac:dyDescent="0.2">
       <c r="C335" s="1" t="s">
         <v>1001</v>
       </c>
@@ -21585,7 +21584,7 @@
         <v>44754.712164351855</v>
       </c>
     </row>
-    <row r="336" spans="3:8" ht="409.6">
+    <row r="336" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C336" s="1" t="s">
         <v>1004</v>
       </c>
@@ -21603,7 +21602,7 @@
         <v>44754.714317129627</v>
       </c>
     </row>
-    <row r="337" spans="3:8" ht="409.6">
+    <row r="337" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C337" s="1" t="s">
         <v>1007</v>
       </c>
@@ -21621,7 +21620,7 @@
         <v>44754.722604166665</v>
       </c>
     </row>
-    <row r="338" spans="3:8" ht="409.6">
+    <row r="338" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C338" s="1" t="s">
         <v>1010</v>
       </c>
@@ -21639,7 +21638,7 @@
         <v>44754.826122685183</v>
       </c>
     </row>
-    <row r="339" spans="3:8" ht="409.6">
+    <row r="339" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C339" s="1" t="s">
         <v>1013</v>
       </c>
@@ -21657,7 +21656,7 @@
         <v>44754.93440972222</v>
       </c>
     </row>
-    <row r="340" spans="3:8">
+    <row r="340" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C340" t="s">
         <v>1016</v>
       </c>
@@ -21674,7 +21673,7 @@
         <v>44755.037685185183</v>
       </c>
     </row>
-    <row r="341" spans="3:8" ht="183">
+    <row r="341" spans="3:8" ht="176" x14ac:dyDescent="0.2">
       <c r="C341" s="1" t="s">
         <v>1019</v>
       </c>
@@ -21692,7 +21691,7 @@
         <v>44755.076192129629</v>
       </c>
     </row>
-    <row r="342" spans="3:8">
+    <row r="342" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C342" t="s">
         <v>1022</v>
       </c>
@@ -21709,7 +21708,7 @@
         <v>44755.085439814815</v>
       </c>
     </row>
-    <row r="343" spans="3:8" ht="152.25">
+    <row r="343" spans="3:8" ht="128" x14ac:dyDescent="0.2">
       <c r="C343" s="1" t="s">
         <v>1024</v>
       </c>
@@ -21727,7 +21726,7 @@
         <v>44755.088553240741</v>
       </c>
     </row>
-    <row r="344" spans="3:8" ht="229.5">
+    <row r="344" spans="3:8" ht="224" x14ac:dyDescent="0.2">
       <c r="C344" s="1" t="s">
         <v>1027</v>
       </c>
@@ -21745,7 +21744,7 @@
         <v>44755.124861111108</v>
       </c>
     </row>
-    <row r="345" spans="3:8" ht="137.25">
+    <row r="345" spans="3:8" ht="112" x14ac:dyDescent="0.2">
       <c r="C345" s="1" t="s">
         <v>1030</v>
       </c>
@@ -21763,7 +21762,7 @@
         <v>44755.159039351849</v>
       </c>
     </row>
-    <row r="346" spans="3:8" ht="244.5">
+    <row r="346" spans="3:8" ht="240" x14ac:dyDescent="0.2">
       <c r="C346" s="1" t="s">
         <v>1032</v>
       </c>
@@ -21781,7 +21780,7 @@
         <v>44755.180914351855</v>
       </c>
     </row>
-    <row r="347" spans="3:8" ht="409.6">
+    <row r="347" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C347" s="1" t="s">
         <v>1035</v>
       </c>
@@ -21799,7 +21798,7 @@
         <v>44755.240393518521</v>
       </c>
     </row>
-    <row r="348" spans="3:8" ht="321">
+    <row r="348" spans="3:8" ht="320" x14ac:dyDescent="0.2">
       <c r="C348" s="1" t="s">
         <v>1038</v>
       </c>
@@ -21817,7 +21816,7 @@
         <v>44755.243425925924</v>
       </c>
     </row>
-    <row r="349" spans="3:8" ht="409.6">
+    <row r="349" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C349" s="1" t="s">
         <v>1041</v>
       </c>
@@ -21835,7 +21834,7 @@
         <v>44755.297500000001</v>
       </c>
     </row>
-    <row r="350" spans="3:8" ht="275.25">
+    <row r="350" spans="3:8" ht="272" x14ac:dyDescent="0.2">
       <c r="C350" s="1" t="s">
         <v>1044</v>
       </c>
@@ -21853,7 +21852,7 @@
         <v>44755.390104166669</v>
       </c>
     </row>
-    <row r="351" spans="3:8">
+    <row r="351" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C351" t="s">
         <v>1047</v>
       </c>
@@ -21870,7 +21869,7 @@
         <v>44755.415034722224</v>
       </c>
     </row>
-    <row r="352" spans="3:8" ht="183">
+    <row r="352" spans="3:8" ht="192" x14ac:dyDescent="0.2">
       <c r="C352" s="1" t="s">
         <v>1050</v>
       </c>
@@ -21888,7 +21887,7 @@
         <v>44755.419062499997</v>
       </c>
     </row>
-    <row r="353" spans="3:8">
+    <row r="353" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C353" t="s">
         <v>1053</v>
       </c>
@@ -21905,7 +21904,7 @@
         <v>44755.423715277779</v>
       </c>
     </row>
-    <row r="354" spans="3:8" ht="121.5">
+    <row r="354" spans="3:8" ht="112" x14ac:dyDescent="0.2">
       <c r="C354" s="1" t="s">
         <v>1056</v>
       </c>
@@ -21923,7 +21922,7 @@
         <v>44755.428993055553</v>
       </c>
     </row>
-    <row r="355" spans="3:8">
+    <row r="355" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C355" t="s">
         <v>1059</v>
       </c>
@@ -21940,7 +21939,7 @@
         <v>44755.433182870373</v>
       </c>
     </row>
-    <row r="356" spans="3:8">
+    <row r="356" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C356" t="s">
         <v>1062</v>
       </c>
@@ -21957,7 +21956,7 @@
         <v>44755.445949074077</v>
       </c>
     </row>
-    <row r="357" spans="3:8" ht="213">
+    <row r="357" spans="3:8" ht="208" x14ac:dyDescent="0.2">
       <c r="C357" s="1" t="s">
         <v>1065</v>
       </c>
@@ -21975,7 +21974,7 @@
         <v>44755.453923611109</v>
       </c>
     </row>
-    <row r="358" spans="3:8" ht="366">
+    <row r="358" spans="3:8" ht="365" x14ac:dyDescent="0.2">
       <c r="C358" s="1" t="s">
         <v>1067</v>
       </c>
@@ -21993,7 +21992,7 @@
         <v>44755.454432870371</v>
       </c>
     </row>
-    <row r="359" spans="3:8">
+    <row r="359" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C359" t="s">
         <v>1070</v>
       </c>
@@ -22010,7 +22009,7 @@
         <v>44755.45952546296</v>
       </c>
     </row>
-    <row r="360" spans="3:8" ht="409.6">
+    <row r="360" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C360" s="1" t="s">
         <v>1073</v>
       </c>
@@ -22028,7 +22027,7 @@
         <v>44755.470671296294</v>
       </c>
     </row>
-    <row r="361" spans="3:8" ht="409.6">
+    <row r="361" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C361" s="1" t="s">
         <v>1075</v>
       </c>
@@ -22046,7 +22045,7 @@
         <v>44755.471909722219</v>
       </c>
     </row>
-    <row r="362" spans="3:8" ht="275.25">
+    <row r="362" spans="3:8" ht="256" x14ac:dyDescent="0.2">
       <c r="C362" s="1" t="s">
         <v>1078</v>
       </c>
@@ -22064,7 +22063,7 @@
         <v>44755.473865740743</v>
       </c>
     </row>
-    <row r="363" spans="3:8">
+    <row r="363" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C363" t="s">
         <v>1081</v>
       </c>
@@ -22081,7 +22080,7 @@
         <v>44755.48064814815</v>
       </c>
     </row>
-    <row r="364" spans="3:8" ht="152.25">
+    <row r="364" spans="3:8" ht="144" x14ac:dyDescent="0.2">
       <c r="C364" s="1" t="s">
         <v>1083</v>
       </c>
@@ -22099,7 +22098,7 @@
         <v>44755.484895833331</v>
       </c>
     </row>
-    <row r="365" spans="3:8" ht="275.25">
+    <row r="365" spans="3:8" ht="240" x14ac:dyDescent="0.2">
       <c r="C365" s="1" t="s">
         <v>1086</v>
       </c>
@@ -22117,7 +22116,7 @@
         <v>44755.492476851854</v>
       </c>
     </row>
-    <row r="366" spans="3:8" ht="198">
+    <row r="366" spans="3:8" ht="192" x14ac:dyDescent="0.2">
       <c r="C366" s="1" t="s">
         <v>1089</v>
       </c>
@@ -22135,7 +22134,7 @@
         <v>44755.504259259258</v>
       </c>
     </row>
-    <row r="367" spans="3:8" ht="409.6">
+    <row r="367" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C367" s="1" t="s">
         <v>1092</v>
       </c>
@@ -22153,7 +22152,7 @@
         <v>44755.504641203705</v>
       </c>
     </row>
-    <row r="368" spans="3:8" ht="409.6">
+    <row r="368" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C368" s="1" t="s">
         <v>1095</v>
       </c>
@@ -22171,7 +22170,7 @@
         <v>44755.531539351854</v>
       </c>
     </row>
-    <row r="369" spans="3:8" ht="409.6">
+    <row r="369" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C369" s="1" t="s">
         <v>1098</v>
       </c>
@@ -22189,7 +22188,7 @@
         <v>44755.622337962966</v>
       </c>
     </row>
-    <row r="370" spans="3:8" ht="183">
+    <row r="370" spans="3:8" ht="192" x14ac:dyDescent="0.2">
       <c r="C370" s="1" t="s">
         <v>1101</v>
       </c>
@@ -22207,7 +22206,7 @@
         <v>44755.67895833333</v>
       </c>
     </row>
-    <row r="371" spans="3:8" ht="409.6">
+    <row r="371" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C371" s="1" t="s">
         <v>1103</v>
       </c>
@@ -22225,7 +22224,7 @@
         <v>44755.769479166665</v>
       </c>
     </row>
-    <row r="372" spans="3:8" ht="137.25">
+    <row r="372" spans="3:8" ht="128" x14ac:dyDescent="0.2">
       <c r="C372" s="1" t="s">
         <v>1106</v>
       </c>
@@ -22243,7 +22242,7 @@
         <v>44755.782847222225</v>
       </c>
     </row>
-    <row r="373" spans="3:8" ht="409.6">
+    <row r="373" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C373" s="1" t="s">
         <v>1109</v>
       </c>
@@ -22261,7 +22260,7 @@
         <v>44755.790219907409</v>
       </c>
     </row>
-    <row r="374" spans="3:8" ht="409.6">
+    <row r="374" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C374" s="1" t="s">
         <v>1111</v>
       </c>
@@ -22279,7 +22278,7 @@
         <v>44755.822175925925</v>
       </c>
     </row>
-    <row r="375" spans="3:8" ht="409.6">
+    <row r="375" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C375" s="1" t="s">
         <v>1114</v>
       </c>
@@ -22297,7 +22296,7 @@
         <v>44755.934641203705</v>
       </c>
     </row>
-    <row r="376" spans="3:8" ht="409.6">
+    <row r="376" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C376" s="1" t="s">
         <v>1116</v>
       </c>
@@ -22315,7 +22314,7 @@
         <v>44755.981759259259</v>
       </c>
     </row>
-    <row r="377" spans="3:8" ht="351">
+    <row r="377" spans="3:8" ht="350" x14ac:dyDescent="0.2">
       <c r="C377" s="1" t="s">
         <v>1119</v>
       </c>
@@ -22333,7 +22332,7 @@
         <v>44756.130636574075</v>
       </c>
     </row>
-    <row r="378" spans="3:8" ht="213">
+    <row r="378" spans="3:8" ht="208" x14ac:dyDescent="0.2">
       <c r="C378" s="1" t="s">
         <v>1122</v>
       </c>
@@ -22351,7 +22350,7 @@
         <v>44756.219861111109</v>
       </c>
     </row>
-    <row r="379" spans="3:8" ht="409.6">
+    <row r="379" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C379" s="1" t="s">
         <v>1124</v>
       </c>
@@ -22369,7 +22368,7 @@
         <v>44756.289722222224</v>
       </c>
     </row>
-    <row r="380" spans="3:8" ht="409.6">
+    <row r="380" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C380" s="1" t="s">
         <v>1126</v>
       </c>
@@ -22387,7 +22386,7 @@
         <v>44756.311018518521</v>
       </c>
     </row>
-    <row r="381" spans="3:8" ht="167.25">
+    <row r="381" spans="3:8" ht="144" x14ac:dyDescent="0.2">
       <c r="C381" s="1" t="s">
         <v>1129</v>
       </c>
@@ -22405,7 +22404,7 @@
         <v>44756.325011574074</v>
       </c>
     </row>
-    <row r="382" spans="3:8" ht="152.25">
+    <row r="382" spans="3:8" ht="160" x14ac:dyDescent="0.2">
       <c r="C382" s="1" t="s">
         <v>1132</v>
       </c>
@@ -22423,7 +22422,7 @@
         <v>44756.398530092592</v>
       </c>
     </row>
-    <row r="383" spans="3:8" ht="198">
+    <row r="383" spans="3:8" ht="176" x14ac:dyDescent="0.2">
       <c r="C383" s="1" t="s">
         <v>1135</v>
       </c>
@@ -22441,7 +22440,7 @@
         <v>44756.469375000001</v>
       </c>
     </row>
-    <row r="384" spans="3:8" ht="409.6">
+    <row r="384" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C384" s="1" t="s">
         <v>1138</v>
       </c>
@@ -22459,7 +22458,7 @@
         <v>44756.477094907408</v>
       </c>
     </row>
-    <row r="385" spans="3:8" ht="396.75">
+    <row r="385" spans="3:8" ht="380" x14ac:dyDescent="0.2">
       <c r="C385" s="1" t="s">
         <v>1141</v>
       </c>
@@ -22477,7 +22476,7 @@
         <v>44756.481319444443</v>
       </c>
     </row>
-    <row r="386" spans="3:8" ht="60.75">
+    <row r="386" spans="3:8" ht="48" x14ac:dyDescent="0.2">
       <c r="C386" s="1" t="s">
         <v>1143</v>
       </c>
@@ -22495,7 +22494,7 @@
         <v>44756.495000000003</v>
       </c>
     </row>
-    <row r="387" spans="3:8" ht="137.25">
+    <row r="387" spans="3:8" ht="144" x14ac:dyDescent="0.2">
       <c r="C387" s="1" t="s">
         <v>1146</v>
       </c>
@@ -22513,7 +22512,7 @@
         <v>44756.495347222219</v>
       </c>
     </row>
-    <row r="388" spans="3:8" ht="76.5">
+    <row r="388" spans="3:8" ht="80" x14ac:dyDescent="0.2">
       <c r="C388" s="1" t="s">
         <v>1149</v>
       </c>
@@ -22531,7 +22530,7 @@
         <v>44756.506192129629</v>
       </c>
     </row>
-    <row r="389" spans="3:8">
+    <row r="389" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C389" t="s">
         <v>1152</v>
       </c>
@@ -22548,7 +22547,7 @@
         <v>44756.526979166665</v>
       </c>
     </row>
-    <row r="390" spans="3:8" ht="137.25">
+    <row r="390" spans="3:8" ht="112" x14ac:dyDescent="0.2">
       <c r="C390" s="1" t="s">
         <v>1155</v>
       </c>
@@ -22566,7 +22565,7 @@
         <v>44756.531956018516</v>
       </c>
     </row>
-    <row r="391" spans="3:8" ht="321">
+    <row r="391" spans="3:8" ht="320" x14ac:dyDescent="0.2">
       <c r="C391" s="1" t="s">
         <v>1158</v>
       </c>
@@ -22584,7 +22583,7 @@
         <v>44756.53597222222</v>
       </c>
     </row>
-    <row r="392" spans="3:8" ht="321">
+    <row r="392" spans="3:8" ht="304" x14ac:dyDescent="0.2">
       <c r="C392" s="1" t="s">
         <v>1160</v>
       </c>
@@ -22602,7 +22601,7 @@
         <v>44756.588807870372</v>
       </c>
     </row>
-    <row r="393" spans="3:8" ht="305.25">
+    <row r="393" spans="3:8" ht="304" x14ac:dyDescent="0.2">
       <c r="C393" s="1" t="s">
         <v>1163</v>
       </c>
@@ -22620,7 +22619,7 @@
         <v>44756.590844907405</v>
       </c>
     </row>
-    <row r="394" spans="3:8">
+    <row r="394" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C394" t="s">
         <v>1166</v>
       </c>
@@ -22637,7 +22636,7 @@
         <v>44756.594293981485</v>
       </c>
     </row>
-    <row r="395" spans="3:8" ht="137.25">
+    <row r="395" spans="3:8" ht="128" x14ac:dyDescent="0.2">
       <c r="C395" s="1" t="s">
         <v>1169</v>
       </c>
@@ -22655,7 +22654,7 @@
         <v>44756.59578703704</v>
       </c>
     </row>
-    <row r="396" spans="3:8">
+    <row r="396" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C396" t="s">
         <v>1171</v>
       </c>
@@ -22672,7 +22671,7 @@
         <v>44756.714062500003</v>
       </c>
     </row>
-    <row r="397" spans="3:8" ht="366">
+    <row r="397" spans="3:8" ht="380" x14ac:dyDescent="0.2">
       <c r="C397" s="1" t="s">
         <v>1174</v>
       </c>
@@ -22690,7 +22689,7 @@
         <v>44756.947106481479</v>
       </c>
     </row>
-    <row r="398" spans="3:8" ht="106.5">
+    <row r="398" spans="3:8" ht="112" x14ac:dyDescent="0.2">
       <c r="C398" s="1" t="s">
         <v>1177</v>
       </c>
@@ -22708,7 +22707,7 @@
         <v>44757.142766203702</v>
       </c>
     </row>
-    <row r="399" spans="3:8" ht="351">
+    <row r="399" spans="3:8" ht="320" x14ac:dyDescent="0.2">
       <c r="C399" s="1" t="s">
         <v>1180</v>
       </c>
@@ -22726,7 +22725,7 @@
         <v>44757.250173611108</v>
       </c>
     </row>
-    <row r="400" spans="3:8" ht="409.6">
+    <row r="400" spans="3:8" ht="395" x14ac:dyDescent="0.2">
       <c r="C400" s="1" t="s">
         <v>1183</v>
       </c>
@@ -22744,7 +22743,7 @@
         <v>44757.254699074074</v>
       </c>
     </row>
-    <row r="401" spans="3:8">
+    <row r="401" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C401" t="s">
         <v>1185</v>
       </c>
@@ -22761,7 +22760,7 @@
         <v>44757.281736111108</v>
       </c>
     </row>
-    <row r="402" spans="3:8" ht="137.25">
+    <row r="402" spans="3:8" ht="144" x14ac:dyDescent="0.2">
       <c r="C402" s="1" t="s">
         <v>1187</v>
       </c>
@@ -22779,7 +22778,7 @@
         <v>44757.304467592592</v>
       </c>
     </row>
-    <row r="403" spans="3:8" ht="409.6">
+    <row r="403" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C403" s="1" t="s">
         <v>1190</v>
       </c>
@@ -22797,7 +22796,7 @@
         <v>44757.305844907409</v>
       </c>
     </row>
-    <row r="404" spans="3:8">
+    <row r="404" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C404" t="s">
         <v>1192</v>
       </c>
@@ -22814,7 +22813,7 @@
         <v>44757.385277777779</v>
       </c>
     </row>
-    <row r="405" spans="3:8" ht="137.25">
+    <row r="405" spans="3:8" ht="128" x14ac:dyDescent="0.2">
       <c r="C405" s="1" t="s">
         <v>1195</v>
       </c>
@@ -22832,7 +22831,7 @@
         <v>44757.420995370368</v>
       </c>
     </row>
-    <row r="406" spans="3:8" ht="106.5">
+    <row r="406" spans="3:8" ht="80" x14ac:dyDescent="0.2">
       <c r="C406" s="1" t="s">
         <v>1197</v>
       </c>
@@ -22850,7 +22849,7 @@
         <v>44757.435914351852</v>
       </c>
     </row>
-    <row r="407" spans="3:8" ht="396.75">
+    <row r="407" spans="3:8" ht="380" x14ac:dyDescent="0.2">
       <c r="C407" s="1" t="s">
         <v>1200</v>
       </c>
@@ -22868,7 +22867,7 @@
         <v>44757.446562500001</v>
       </c>
     </row>
-    <row r="408" spans="3:8" ht="198">
+    <row r="408" spans="3:8" ht="208" x14ac:dyDescent="0.2">
       <c r="C408" s="1" t="s">
         <v>1203</v>
       </c>
@@ -22886,7 +22885,7 @@
         <v>44757.448182870372</v>
       </c>
     </row>
-    <row r="409" spans="3:8" ht="409.6">
+    <row r="409" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C409" s="1" t="s">
         <v>1206</v>
       </c>
@@ -22904,7 +22903,7 @@
         <v>44757.458252314813</v>
       </c>
     </row>
-    <row r="410" spans="3:8" ht="121.5">
+    <row r="410" spans="3:8" ht="128" x14ac:dyDescent="0.2">
       <c r="C410" s="1" t="s">
         <v>1208</v>
       </c>
@@ -22922,7 +22921,7 @@
         <v>44757.471967592595</v>
       </c>
     </row>
-    <row r="411" spans="3:8">
+    <row r="411" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C411" t="s">
         <v>842</v>
       </c>
@@ -22939,7 +22938,7 @@
         <v>44757.478726851848</v>
       </c>
     </row>
-    <row r="412" spans="3:8" ht="409.6">
+    <row r="412" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C412" s="1" t="s">
         <v>1212</v>
       </c>
@@ -22957,7 +22956,7 @@
         <v>44757.49181712963</v>
       </c>
     </row>
-    <row r="413" spans="3:8" ht="409.6">
+    <row r="413" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C413" s="1" t="s">
         <v>1214</v>
       </c>
@@ -22975,7 +22974,7 @@
         <v>44757.50409722222</v>
       </c>
     </row>
-    <row r="414" spans="3:8">
+    <row r="414" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C414" t="s">
         <v>1216</v>
       </c>
@@ -22992,7 +22991,7 @@
         <v>44757.597233796296</v>
       </c>
     </row>
-    <row r="415" spans="3:8" ht="409.6">
+    <row r="415" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C415" s="1" t="s">
         <v>1219</v>
       </c>
@@ -23010,7 +23009,7 @@
         <v>44757.609074074076</v>
       </c>
     </row>
-    <row r="416" spans="3:8" ht="409.6">
+    <row r="416" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C416" s="1" t="s">
         <v>1222</v>
       </c>
@@ -23028,7 +23027,7 @@
         <v>44757.678090277775</v>
       </c>
     </row>
-    <row r="417" spans="3:8" ht="167.25">
+    <row r="417" spans="3:8" ht="160" x14ac:dyDescent="0.2">
       <c r="C417" s="1" t="s">
         <v>1225</v>
       </c>
@@ -23046,7 +23045,7 @@
         <v>44758.17796296296</v>
       </c>
     </row>
-    <row r="418" spans="3:8">
+    <row r="418" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C418" t="s">
         <v>1228</v>
       </c>
@@ -23063,7 +23062,7 @@
         <v>44758.243460648147</v>
       </c>
     </row>
-    <row r="419" spans="3:8" ht="305.25">
+    <row r="419" spans="3:8" ht="272" x14ac:dyDescent="0.2">
       <c r="C419" s="1" t="s">
         <v>1231</v>
       </c>
@@ -23081,7 +23080,7 @@
         <v>44758.246527777781</v>
       </c>
     </row>
-    <row r="420" spans="3:8">
+    <row r="420" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C420" t="s">
         <v>1233</v>
       </c>
@@ -23098,7 +23097,7 @@
         <v>44758.247997685183</v>
       </c>
     </row>
-    <row r="421" spans="3:8" ht="409.6">
+    <row r="421" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C421" s="1" t="s">
         <v>1236</v>
       </c>
@@ -23116,7 +23115,7 @@
         <v>44758.255671296298</v>
       </c>
     </row>
-    <row r="422" spans="3:8" ht="76.5">
+    <row r="422" spans="3:8" ht="80" x14ac:dyDescent="0.2">
       <c r="C422" s="1" t="s">
         <v>248</v>
       </c>
@@ -23134,7 +23133,7 @@
         <v>44758.487858796296</v>
       </c>
     </row>
-    <row r="423" spans="3:8">
+    <row r="423" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C423" t="s">
         <v>1239</v>
       </c>
@@ -23151,7 +23150,7 @@
         <v>44758.607835648145</v>
       </c>
     </row>
-    <row r="424" spans="3:8" ht="137.25">
+    <row r="424" spans="3:8" ht="112" x14ac:dyDescent="0.2">
       <c r="C424" s="1" t="s">
         <v>1241</v>
       </c>
@@ -23169,7 +23168,7 @@
         <v>44758.61273148148</v>
       </c>
     </row>
-    <row r="425" spans="3:8" ht="409.6">
+    <row r="425" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C425" s="1" t="s">
         <v>1243</v>
       </c>
@@ -23187,7 +23186,7 @@
         <v>44758.613530092596</v>
       </c>
     </row>
-    <row r="426" spans="3:8" ht="137.25">
+    <row r="426" spans="3:8" ht="144" x14ac:dyDescent="0.2">
       <c r="C426" s="1" t="s">
         <v>1246</v>
       </c>
@@ -23205,7 +23204,7 @@
         <v>44758.639826388891</v>
       </c>
     </row>
-    <row r="427" spans="3:8">
+    <row r="427" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C427" t="s">
         <v>1249</v>
       </c>
@@ -23222,7 +23221,7 @@
         <v>44758.640844907408</v>
       </c>
     </row>
-    <row r="428" spans="3:8" ht="167.25">
+    <row r="428" spans="3:8" ht="160" x14ac:dyDescent="0.2">
       <c r="C428" s="1" t="s">
         <v>1252</v>
       </c>
@@ -23240,7 +23239,7 @@
         <v>44758.642060185186</v>
       </c>
     </row>
-    <row r="429" spans="3:8">
+    <row r="429" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C429" t="s">
         <v>1255</v>
       </c>
@@ -23257,7 +23256,7 @@
         <v>44758.64634259259</v>
       </c>
     </row>
-    <row r="430" spans="3:8" ht="409.6">
+    <row r="430" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C430" s="1" t="s">
         <v>1258</v>
       </c>
@@ -23275,7 +23274,7 @@
         <v>44758.648726851854</v>
       </c>
     </row>
-    <row r="431" spans="3:8" ht="213">
+    <row r="431" spans="3:8" ht="192" x14ac:dyDescent="0.2">
       <c r="C431" s="1" t="s">
         <v>1261</v>
       </c>
@@ -23293,7 +23292,7 @@
         <v>44758.650011574071</v>
       </c>
     </row>
-    <row r="432" spans="3:8" ht="213">
+    <row r="432" spans="3:8" ht="208" x14ac:dyDescent="0.2">
       <c r="C432" s="1" t="s">
         <v>1263</v>
       </c>
@@ -23311,7 +23310,7 @@
         <v>44758.654293981483</v>
       </c>
     </row>
-    <row r="433" spans="3:8" ht="183">
+    <row r="433" spans="3:8" ht="176" x14ac:dyDescent="0.2">
       <c r="C433" s="1" t="s">
         <v>1266</v>
       </c>
@@ -23329,7 +23328,7 @@
         <v>44758.672569444447</v>
       </c>
     </row>
-    <row r="434" spans="3:8" ht="259.5">
+    <row r="434" spans="3:8" ht="240" x14ac:dyDescent="0.2">
       <c r="C434" s="1" t="s">
         <v>1269</v>
       </c>
@@ -23347,7 +23346,7 @@
         <v>44758.784722222219</v>
       </c>
     </row>
-    <row r="435" spans="3:8" ht="183">
+    <row r="435" spans="3:8" ht="176" x14ac:dyDescent="0.2">
       <c r="C435" s="1" t="s">
         <v>1271</v>
       </c>
@@ -23365,7 +23364,7 @@
         <v>44758.824178240742</v>
       </c>
     </row>
-    <row r="436" spans="3:8" ht="167.25">
+    <row r="436" spans="3:8" ht="176" x14ac:dyDescent="0.2">
       <c r="C436" s="1" t="s">
         <v>1273</v>
       </c>
@@ -23383,7 +23382,7 @@
         <v>44759.152673611112</v>
       </c>
     </row>
-    <row r="437" spans="3:8" ht="290.25">
+    <row r="437" spans="3:8" ht="288" x14ac:dyDescent="0.2">
       <c r="C437" s="1" t="s">
         <v>1275</v>
       </c>
@@ -23401,7 +23400,7 @@
         <v>44759.186412037037</v>
       </c>
     </row>
-    <row r="438" spans="3:8" ht="259.5">
+    <row r="438" spans="3:8" ht="224" x14ac:dyDescent="0.2">
       <c r="C438" s="1" t="s">
         <v>1277</v>
       </c>
@@ -23419,7 +23418,7 @@
         <v>44759.187384259261</v>
       </c>
     </row>
-    <row r="439" spans="3:8" ht="275.25">
+    <row r="439" spans="3:8" ht="256" x14ac:dyDescent="0.2">
       <c r="C439" s="1" t="s">
         <v>1279</v>
       </c>
@@ -23437,7 +23436,7 @@
         <v>44759.189606481479</v>
       </c>
     </row>
-    <row r="440" spans="3:8" ht="198">
+    <row r="440" spans="3:8" ht="192" x14ac:dyDescent="0.2">
       <c r="C440" s="1" t="s">
         <v>1281</v>
       </c>
@@ -23455,7 +23454,7 @@
         <v>44759.191759259258</v>
       </c>
     </row>
-    <row r="441" spans="3:8" ht="381.75">
+    <row r="441" spans="3:8" ht="350" x14ac:dyDescent="0.2">
       <c r="C441" s="1" t="s">
         <v>1284</v>
       </c>
@@ -23473,7 +23472,7 @@
         <v>44759.194756944446</v>
       </c>
     </row>
-    <row r="442" spans="3:8" ht="409.6">
+    <row r="442" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C442" s="1" t="s">
         <v>1287</v>
       </c>
@@ -23491,7 +23490,7 @@
         <v>44759.199502314812</v>
       </c>
     </row>
-    <row r="443" spans="3:8" ht="275.25">
+    <row r="443" spans="3:8" ht="272" x14ac:dyDescent="0.2">
       <c r="C443" s="1" t="s">
         <v>1290</v>
       </c>
@@ -23509,7 +23508,7 @@
         <v>44759.200277777774</v>
       </c>
     </row>
-    <row r="444" spans="3:8" ht="409.6">
+    <row r="444" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C444" s="1" t="s">
         <v>1293</v>
       </c>
@@ -23527,7 +23526,7 @@
         <v>44759.237881944442</v>
       </c>
     </row>
-    <row r="445" spans="3:8" ht="76.5">
+    <row r="445" spans="3:8" ht="80" x14ac:dyDescent="0.2">
       <c r="C445" s="1" t="s">
         <v>1296</v>
       </c>
@@ -23545,7 +23544,7 @@
         <v>44759.356574074074</v>
       </c>
     </row>
-    <row r="446" spans="3:8" ht="409.6">
+    <row r="446" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C446" s="1" t="s">
         <v>1298</v>
       </c>
@@ -23563,7 +23562,7 @@
         <v>44759.414525462962</v>
       </c>
     </row>
-    <row r="447" spans="3:8" ht="409.6">
+    <row r="447" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C447" s="1" t="s">
         <v>1300</v>
       </c>
@@ -23581,7 +23580,7 @@
         <v>44759.434849537036</v>
       </c>
     </row>
-    <row r="448" spans="3:8" ht="409.6">
+    <row r="448" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C448" s="1" t="s">
         <v>1302</v>
       </c>
@@ -23599,7 +23598,7 @@
         <v>44759.492662037039</v>
       </c>
     </row>
-    <row r="449" spans="3:8" ht="409.6">
+    <row r="449" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C449" s="1" t="s">
         <v>1305</v>
       </c>
@@ -23617,7 +23616,7 @@
         <v>44759.498287037037</v>
       </c>
     </row>
-    <row r="450" spans="3:8" ht="409.6">
+    <row r="450" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C450" s="1" t="s">
         <v>1307</v>
       </c>
@@ -23635,7 +23634,7 @@
         <v>44759.523217592592</v>
       </c>
     </row>
-    <row r="451" spans="3:8" ht="152.25">
+    <row r="451" spans="3:8" ht="144" x14ac:dyDescent="0.2">
       <c r="C451" s="1" t="s">
         <v>1309</v>
       </c>
@@ -23653,7 +23652,7 @@
         <v>44759.544374999998</v>
       </c>
     </row>
-    <row r="452" spans="3:8" ht="409.6">
+    <row r="452" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C452" s="1" t="s">
         <v>1312</v>
       </c>
@@ -23671,7 +23670,7 @@
         <v>44759.547152777777</v>
       </c>
     </row>
-    <row r="453" spans="3:8" ht="409.6">
+    <row r="453" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C453" s="1" t="s">
         <v>1314</v>
       </c>
@@ -23689,7 +23688,7 @@
         <v>44759.563622685186</v>
       </c>
     </row>
-    <row r="454" spans="3:8" ht="91.5">
+    <row r="454" spans="3:8" ht="96" x14ac:dyDescent="0.2">
       <c r="C454" s="1" t="s">
         <v>1317</v>
       </c>
@@ -23707,7 +23706,7 @@
         <v>44759.590011574073</v>
       </c>
     </row>
-    <row r="455" spans="3:8" ht="409.6">
+    <row r="455" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C455" s="1" t="s">
         <v>1320</v>
       </c>
@@ -23725,7 +23724,7 @@
         <v>44759.672314814816</v>
       </c>
     </row>
-    <row r="456" spans="3:8">
+    <row r="456" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C456" t="s">
         <v>1323</v>
       </c>
@@ -23742,7 +23741,7 @@
         <v>44759.792060185187</v>
       </c>
     </row>
-    <row r="457" spans="3:8" ht="121.5">
+    <row r="457" spans="3:8" ht="112" x14ac:dyDescent="0.2">
       <c r="C457" s="1" t="s">
         <v>1325</v>
       </c>
@@ -23760,7 +23759,7 @@
         <v>44759.807534722226</v>
       </c>
     </row>
-    <row r="458" spans="3:8" ht="91.5">
+    <row r="458" spans="3:8" ht="96" x14ac:dyDescent="0.2">
       <c r="C458" s="1" t="s">
         <v>1328</v>
       </c>
@@ -23778,7 +23777,7 @@
         <v>44759.8672337963</v>
       </c>
     </row>
-    <row r="459" spans="3:8" ht="198">
+    <row r="459" spans="3:8" ht="192" x14ac:dyDescent="0.2">
       <c r="C459" s="1" t="s">
         <v>1331</v>
       </c>
@@ -23796,7 +23795,7 @@
         <v>44759.870671296296</v>
       </c>
     </row>
-    <row r="460" spans="3:8" ht="409.6">
+    <row r="460" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C460" s="1" t="s">
         <v>1334</v>
       </c>
@@ -23814,7 +23813,7 @@
         <v>44759.929583333331</v>
       </c>
     </row>
-    <row r="461" spans="3:8">
+    <row r="461" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C461" t="s">
         <v>1337</v>
       </c>
@@ -23831,7 +23830,7 @@
         <v>44759.929814814815</v>
       </c>
     </row>
-    <row r="462" spans="3:8" ht="409.6">
+    <row r="462" spans="3:8" ht="395" x14ac:dyDescent="0.2">
       <c r="C462" s="1" t="s">
         <v>1339</v>
       </c>
@@ -23849,7 +23848,7 @@
         <v>44759.995462962965</v>
       </c>
     </row>
-    <row r="463" spans="3:8" ht="167.25">
+    <row r="463" spans="3:8" ht="176" x14ac:dyDescent="0.2">
       <c r="C463" s="1" t="s">
         <v>1342</v>
       </c>
@@ -23867,7 +23866,7 @@
         <v>44760.052291666667</v>
       </c>
     </row>
-    <row r="464" spans="3:8" ht="152.25">
+    <row r="464" spans="3:8" ht="144" x14ac:dyDescent="0.2">
       <c r="C464" s="1" t="s">
         <v>1345</v>
       </c>
@@ -23885,7 +23884,7 @@
         <v>44760.0937962963</v>
       </c>
     </row>
-    <row r="465" spans="3:8" ht="336">
+    <row r="465" spans="3:8" ht="350" x14ac:dyDescent="0.2">
       <c r="C465" s="1" t="s">
         <v>1348</v>
       </c>
@@ -23903,7 +23902,7 @@
         <v>44760.255520833336</v>
       </c>
     </row>
-    <row r="466" spans="3:8" ht="396.75">
+    <row r="466" spans="3:8" ht="395" x14ac:dyDescent="0.2">
       <c r="C466" s="1" t="s">
         <v>1351</v>
       </c>
@@ -23921,7 +23920,7 @@
         <v>44760.282777777778</v>
       </c>
     </row>
-    <row r="467" spans="3:8" ht="409.6">
+    <row r="467" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C467" s="1" t="s">
         <v>1354</v>
       </c>
@@ -23939,7 +23938,7 @@
         <v>44760.348043981481</v>
       </c>
     </row>
-    <row r="468" spans="3:8" ht="152.25">
+    <row r="468" spans="3:8" ht="160" x14ac:dyDescent="0.2">
       <c r="C468" s="1" t="s">
         <v>1357</v>
       </c>
@@ -23957,7 +23956,7 @@
         <v>44760.415694444448</v>
       </c>
     </row>
-    <row r="469" spans="3:8" ht="381.75">
+    <row r="469" spans="3:8" ht="365" x14ac:dyDescent="0.2">
       <c r="C469" s="1" t="s">
         <v>1360</v>
       </c>
@@ -23975,7 +23974,7 @@
         <v>44760.416724537034</v>
       </c>
     </row>
-    <row r="470" spans="3:8" ht="409.6">
+    <row r="470" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C470" s="1" t="s">
         <v>1363</v>
       </c>
@@ -23993,7 +23992,7 @@
         <v>44760.436342592591</v>
       </c>
     </row>
-    <row r="471" spans="3:8" ht="321">
+    <row r="471" spans="3:8" ht="288" x14ac:dyDescent="0.2">
       <c r="C471" s="1" t="s">
         <v>1366</v>
       </c>
@@ -24011,7 +24010,7 @@
         <v>44760.448842592596</v>
       </c>
     </row>
-    <row r="472" spans="3:8">
+    <row r="472" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C472" t="s">
         <v>1369</v>
       </c>
@@ -24028,7 +24027,7 @@
         <v>44760.517754629633</v>
       </c>
     </row>
-    <row r="473" spans="3:8" ht="244.5">
+    <row r="473" spans="3:8" ht="240" x14ac:dyDescent="0.2">
       <c r="C473" s="1" t="s">
         <v>1372</v>
       </c>
@@ -24046,7 +24045,7 @@
         <v>44760.52888888889</v>
       </c>
     </row>
-    <row r="474" spans="3:8">
+    <row r="474" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C474" t="s">
         <v>1374</v>
       </c>
@@ -24063,7 +24062,7 @@
         <v>44760.544918981483</v>
       </c>
     </row>
-    <row r="475" spans="3:8" ht="259.5">
+    <row r="475" spans="3:8" ht="272" x14ac:dyDescent="0.2">
       <c r="C475" s="1" t="s">
         <v>1377</v>
       </c>
@@ -24081,7 +24080,7 @@
         <v>44760.549108796295</v>
       </c>
     </row>
-    <row r="476" spans="3:8" ht="409.6">
+    <row r="476" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C476" s="1" t="s">
         <v>1380</v>
       </c>
@@ -24099,7 +24098,7 @@
         <v>44760.554432870369</v>
       </c>
     </row>
-    <row r="477" spans="3:8" ht="409.6">
+    <row r="477" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C477" s="1" t="s">
         <v>1382</v>
       </c>
@@ -24117,7 +24116,7 @@
         <v>44760.555648148147</v>
       </c>
     </row>
-    <row r="478" spans="3:8" ht="259.5">
+    <row r="478" spans="3:8" ht="240" x14ac:dyDescent="0.2">
       <c r="C478" s="1" t="s">
         <v>1385</v>
       </c>
@@ -24135,7 +24134,7 @@
         <v>44760.562245370369</v>
       </c>
     </row>
-    <row r="479" spans="3:8" ht="106.5">
+    <row r="479" spans="3:8" ht="112" x14ac:dyDescent="0.2">
       <c r="C479" s="1" t="s">
         <v>1388</v>
       </c>
@@ -24153,7 +24152,7 @@
         <v>44760.56386574074</v>
       </c>
     </row>
-    <row r="480" spans="3:8" ht="259.5">
+    <row r="480" spans="3:8" ht="240" x14ac:dyDescent="0.2">
       <c r="C480" s="1" t="s">
         <v>1391</v>
       </c>
@@ -24171,7 +24170,7 @@
         <v>44760.585775462961</v>
       </c>
     </row>
-    <row r="481" spans="3:8" ht="183">
+    <row r="481" spans="3:8" ht="176" x14ac:dyDescent="0.2">
       <c r="C481" s="1" t="s">
         <v>1394</v>
       </c>
@@ -24189,7 +24188,7 @@
         <v>44760.591817129629</v>
       </c>
     </row>
-    <row r="482" spans="3:8" ht="409.6">
+    <row r="482" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C482" s="1" t="s">
         <v>1397</v>
       </c>
@@ -24207,7 +24206,7 @@
         <v>44760.592442129629</v>
       </c>
     </row>
-    <row r="483" spans="3:8" ht="106.5">
+    <row r="483" spans="3:8" ht="80" x14ac:dyDescent="0.2">
       <c r="C483" s="1" t="s">
         <v>1400</v>
       </c>
@@ -24225,7 +24224,7 @@
         <v>44760.604189814818</v>
       </c>
     </row>
-    <row r="484" spans="3:8">
+    <row r="484" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C484" t="s">
         <v>1403</v>
       </c>
@@ -24242,7 +24241,7 @@
         <v>44760.624108796299</v>
       </c>
     </row>
-    <row r="485" spans="3:8" ht="409.6">
+    <row r="485" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C485" s="1" t="s">
         <v>1405</v>
       </c>
@@ -24260,7 +24259,7 @@
         <v>44760.634652777779</v>
       </c>
     </row>
-    <row r="486" spans="3:8" ht="409.6">
+    <row r="486" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C486" s="1" t="s">
         <v>1407</v>
       </c>
@@ -24278,7 +24277,7 @@
         <v>44760.648136574076</v>
       </c>
     </row>
-    <row r="487" spans="3:8" ht="213">
+    <row r="487" spans="3:8" ht="224" x14ac:dyDescent="0.2">
       <c r="C487" s="1" t="s">
         <v>1410</v>
       </c>
@@ -24296,7 +24295,7 @@
         <v>44760.676655092589</v>
       </c>
     </row>
-    <row r="488" spans="3:8" ht="409.6">
+    <row r="488" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C488" s="1" t="s">
         <v>1413</v>
       </c>
@@ -24314,7 +24313,7 @@
         <v>44760.708657407406</v>
       </c>
     </row>
-    <row r="489" spans="3:8" ht="409.6">
+    <row r="489" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C489" s="1" t="s">
         <v>1415</v>
       </c>
@@ -24332,7 +24331,7 @@
         <v>44760.732766203706</v>
       </c>
     </row>
-    <row r="490" spans="3:8" ht="381.75">
+    <row r="490" spans="3:8" ht="395" x14ac:dyDescent="0.2">
       <c r="C490" s="1" t="s">
         <v>1418</v>
       </c>
@@ -24350,7 +24349,7 @@
         <v>44760.735289351855</v>
       </c>
     </row>
-    <row r="491" spans="3:8">
+    <row r="491" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C491" t="s">
         <v>1421</v>
       </c>
@@ -24367,7 +24366,7 @@
         <v>44760.756539351853</v>
       </c>
     </row>
-    <row r="492" spans="3:8">
+    <row r="492" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C492" t="s">
         <v>1424</v>
       </c>
@@ -24384,7 +24383,7 @@
         <v>44760.756620370368</v>
       </c>
     </row>
-    <row r="493" spans="3:8" ht="121.5">
+    <row r="493" spans="3:8" ht="112" x14ac:dyDescent="0.2">
       <c r="C493" s="1" t="s">
         <v>1427</v>
       </c>
@@ -24402,7 +24401,7 @@
         <v>44760.771944444445</v>
       </c>
     </row>
-    <row r="494" spans="3:8" ht="198">
+    <row r="494" spans="3:8" ht="192" x14ac:dyDescent="0.2">
       <c r="C494" s="1" t="s">
         <v>1429</v>
       </c>
@@ -24420,7 +24419,7 @@
         <v>44760.785277777781</v>
       </c>
     </row>
-    <row r="495" spans="3:8" ht="409.6">
+    <row r="495" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C495" s="1" t="s">
         <v>1432</v>
       </c>
@@ -24438,7 +24437,7 @@
         <v>44760.790219907409</v>
       </c>
     </row>
-    <row r="496" spans="3:8" ht="91.5">
+    <row r="496" spans="3:8" ht="80" x14ac:dyDescent="0.2">
       <c r="C496" s="1" t="s">
         <v>1434</v>
       </c>
@@ -24456,7 +24455,7 @@
         <v>44760.795289351852</v>
       </c>
     </row>
-    <row r="497" spans="3:8">
+    <row r="497" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C497" t="s">
         <v>1436</v>
       </c>
@@ -24473,7 +24472,7 @@
         <v>44760.799328703702</v>
       </c>
     </row>
-    <row r="498" spans="3:8" ht="198">
+    <row r="498" spans="3:8" ht="192" x14ac:dyDescent="0.2">
       <c r="C498" s="1" t="s">
         <v>1438</v>
       </c>
@@ -24491,7 +24490,7 @@
         <v>44760.808055555557</v>
       </c>
     </row>
-    <row r="499" spans="3:8" ht="213">
+    <row r="499" spans="3:8" ht="192" x14ac:dyDescent="0.2">
       <c r="C499" s="1" t="s">
         <v>1441</v>
       </c>
@@ -24509,7 +24508,7 @@
         <v>44760.821782407409</v>
       </c>
     </row>
-    <row r="500" spans="3:8" ht="121.5">
+    <row r="500" spans="3:8" ht="128" x14ac:dyDescent="0.2">
       <c r="C500" s="1" t="s">
         <v>1443</v>
       </c>
@@ -24527,7 +24526,7 @@
         <v>44760.830092592594</v>
       </c>
     </row>
-    <row r="501" spans="3:8" ht="409.6">
+    <row r="501" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C501" s="1" t="s">
         <v>1445</v>
       </c>
@@ -24545,7 +24544,7 @@
         <v>44760.837511574071</v>
       </c>
     </row>
-    <row r="502" spans="3:8" ht="152.25">
+    <row r="502" spans="3:8" ht="144" x14ac:dyDescent="0.2">
       <c r="C502" s="1" t="s">
         <v>1447</v>
       </c>
@@ -24563,7 +24562,7 @@
         <v>44760.845578703702</v>
       </c>
     </row>
-    <row r="503" spans="3:8" ht="409.6">
+    <row r="503" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C503" s="1" t="s">
         <v>1450</v>
       </c>
@@ -24581,7 +24580,7 @@
         <v>44760.867881944447</v>
       </c>
     </row>
-    <row r="504" spans="3:8" ht="409.6">
+    <row r="504" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C504" s="1" t="s">
         <v>1453</v>
       </c>
@@ -24599,7 +24598,7 @@
         <v>44760.887650462966</v>
       </c>
     </row>
-    <row r="505" spans="3:8" ht="167.25">
+    <row r="505" spans="3:8" ht="160" x14ac:dyDescent="0.2">
       <c r="C505" s="1" t="s">
         <v>1456</v>
       </c>
@@ -24617,7 +24616,7 @@
         <v>44760.890543981484</v>
       </c>
     </row>
-    <row r="506" spans="3:8" ht="396.75">
+    <row r="506" spans="3:8" ht="395" x14ac:dyDescent="0.2">
       <c r="C506" s="1" t="s">
         <v>1459</v>
       </c>
@@ -24635,7 +24634,7 @@
         <v>44760.91170138889</v>
       </c>
     </row>
-    <row r="507" spans="3:8" ht="91.5">
+    <row r="507" spans="3:8" ht="96" x14ac:dyDescent="0.2">
       <c r="C507" s="1" t="s">
         <v>1462</v>
       </c>
@@ -24653,7 +24652,7 @@
         <v>44760.96435185185</v>
       </c>
     </row>
-    <row r="508" spans="3:8" ht="183">
+    <row r="508" spans="3:8" ht="192" x14ac:dyDescent="0.2">
       <c r="C508" s="1" t="s">
         <v>1465</v>
       </c>
@@ -24671,7 +24670,7 @@
         <v>44760.965462962966</v>
       </c>
     </row>
-    <row r="509" spans="3:8">
+    <row r="509" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C509" t="s">
         <v>1468</v>
       </c>
@@ -24688,7 +24687,7 @@
         <v>44760.995648148149</v>
       </c>
     </row>
-    <row r="510" spans="3:8" ht="409.6">
+    <row r="510" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C510" s="1" t="s">
         <v>1470</v>
       </c>
@@ -24706,7 +24705,7 @@
         <v>44761.071620370371</v>
       </c>
     </row>
-    <row r="511" spans="3:8" ht="76.5">
+    <row r="511" spans="3:8" ht="80" x14ac:dyDescent="0.2">
       <c r="C511" s="1" t="s">
         <v>1473</v>
       </c>
@@ -24724,7 +24723,7 @@
         <v>44761.139918981484</v>
       </c>
     </row>
-    <row r="512" spans="3:8" ht="60.75">
+    <row r="512" spans="3:8" ht="64" x14ac:dyDescent="0.2">
       <c r="C512" s="1" t="s">
         <v>1476</v>
       </c>
@@ -24742,7 +24741,7 @@
         <v>44761.283078703702</v>
       </c>
     </row>
-    <row r="513" spans="3:8">
+    <row r="513" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C513" t="s">
         <v>842</v>
       </c>
@@ -24759,7 +24758,7 @@
         <v>44761.289699074077</v>
       </c>
     </row>
-    <row r="514" spans="3:8" ht="275.25">
+    <row r="514" spans="3:8" ht="240" x14ac:dyDescent="0.2">
       <c r="C514" s="1" t="s">
         <v>1479</v>
       </c>
@@ -24777,7 +24776,7 @@
         <v>44761.298680555556</v>
       </c>
     </row>
-    <row r="515" spans="3:8" ht="229.5">
+    <row r="515" spans="3:8" ht="224" x14ac:dyDescent="0.2">
       <c r="C515" s="1" t="s">
         <v>1482</v>
       </c>
@@ -24795,7 +24794,7 @@
         <v>44761.302708333336</v>
       </c>
     </row>
-    <row r="516" spans="3:8" ht="91.5">
+    <row r="516" spans="3:8" ht="96" x14ac:dyDescent="0.2">
       <c r="C516" s="1" t="s">
         <v>1484</v>
       </c>
@@ -24813,7 +24812,7 @@
         <v>44761.317418981482</v>
       </c>
     </row>
-    <row r="517" spans="3:8">
+    <row r="517" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C517" t="s">
         <v>1486</v>
       </c>
@@ -24830,7 +24829,7 @@
         <v>44761.317511574074</v>
       </c>
     </row>
-    <row r="518" spans="3:8" ht="183">
+    <row r="518" spans="3:8" ht="176" x14ac:dyDescent="0.2">
       <c r="C518" s="1" t="s">
         <v>1488</v>
       </c>
@@ -24848,7 +24847,7 @@
         <v>44761.327002314814</v>
       </c>
     </row>
-    <row r="519" spans="3:8" ht="396.75">
+    <row r="519" spans="3:8" ht="365" x14ac:dyDescent="0.2">
       <c r="C519" s="1" t="s">
         <v>1490</v>
       </c>
@@ -24866,7 +24865,7 @@
         <v>44761.335590277777</v>
       </c>
     </row>
-    <row r="520" spans="3:8" ht="60.75">
+    <row r="520" spans="3:8" ht="64" x14ac:dyDescent="0.2">
       <c r="C520" s="1" t="s">
         <v>1493</v>
       </c>
@@ -24884,7 +24883,7 @@
         <v>44761.359282407408</v>
       </c>
     </row>
-    <row r="521" spans="3:8" ht="409.6">
+    <row r="521" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C521" s="1" t="s">
         <v>1496</v>
       </c>
@@ -24902,7 +24901,7 @@
         <v>44761.360821759263</v>
       </c>
     </row>
-    <row r="522" spans="3:8" ht="167.25">
+    <row r="522" spans="3:8" ht="144" x14ac:dyDescent="0.2">
       <c r="C522" s="1" t="s">
         <v>1498</v>
       </c>
@@ -24920,7 +24919,7 @@
         <v>44761.375960648147</v>
       </c>
     </row>
-    <row r="523" spans="3:8" ht="137.25">
+    <row r="523" spans="3:8" ht="128" x14ac:dyDescent="0.2">
       <c r="C523" s="1" t="s">
         <v>1501</v>
       </c>
@@ -24938,7 +24937,7 @@
         <v>44761.40724537037</v>
       </c>
     </row>
-    <row r="524" spans="3:8" ht="409.6">
+    <row r="524" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C524" s="1" t="s">
         <v>1504</v>
       </c>
@@ -24956,7 +24955,7 @@
         <v>44761.408229166664</v>
       </c>
     </row>
-    <row r="525" spans="3:8" ht="91.5">
+    <row r="525" spans="3:8" ht="96" x14ac:dyDescent="0.2">
       <c r="C525" s="1" t="s">
         <v>1507</v>
       </c>
@@ -24974,7 +24973,7 @@
         <v>44761.413831018515</v>
       </c>
     </row>
-    <row r="526" spans="3:8">
+    <row r="526" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C526" t="s">
         <v>1510</v>
       </c>
@@ -24991,7 +24990,7 @@
         <v>44761.440740740742</v>
       </c>
     </row>
-    <row r="527" spans="3:8" ht="121.5">
+    <row r="527" spans="3:8" ht="128" x14ac:dyDescent="0.2">
       <c r="C527" s="1" t="s">
         <v>1513</v>
       </c>
@@ -25009,7 +25008,7 @@
         <v>44761.510127314818</v>
       </c>
     </row>
-    <row r="528" spans="3:8" ht="409.6">
+    <row r="528" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C528" s="1" t="s">
         <v>1515</v>
       </c>
@@ -25027,7 +25026,7 @@
         <v>44761.54283564815</v>
       </c>
     </row>
-    <row r="529" spans="3:8" ht="366">
+    <row r="529" spans="3:8" ht="335" x14ac:dyDescent="0.2">
       <c r="C529" s="1" t="s">
         <v>1517</v>
       </c>
@@ -25045,7 +25044,7 @@
         <v>44761.554594907408</v>
       </c>
     </row>
-    <row r="530" spans="3:8" ht="290.25">
+    <row r="530" spans="3:8" ht="272" x14ac:dyDescent="0.2">
       <c r="C530" s="1" t="s">
         <v>1519</v>
       </c>
@@ -25063,7 +25062,7 @@
         <v>44761.576527777775</v>
       </c>
     </row>
-    <row r="531" spans="3:8" ht="409.6">
+    <row r="531" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C531" s="1" t="s">
         <v>1521</v>
       </c>
@@ -25081,7 +25080,7 @@
         <v>44761.59479166667</v>
       </c>
     </row>
-    <row r="532" spans="3:8" ht="409.6">
+    <row r="532" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C532" s="1" t="s">
         <v>1523</v>
       </c>
@@ -25099,7 +25098,7 @@
         <v>44761.602858796294</v>
       </c>
     </row>
-    <row r="533" spans="3:8">
+    <row r="533" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C533" t="s">
         <v>842</v>
       </c>
@@ -25116,7 +25115,7 @@
         <v>44761.606990740744</v>
       </c>
     </row>
-    <row r="534" spans="3:8" ht="409.6">
+    <row r="534" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C534" s="1" t="s">
         <v>1526</v>
       </c>
@@ -25134,7 +25133,7 @@
         <v>44761.609479166669</v>
       </c>
     </row>
-    <row r="535" spans="3:8" ht="366">
+    <row r="535" spans="3:8" ht="365" x14ac:dyDescent="0.2">
       <c r="C535" s="1" t="s">
         <v>1528</v>
       </c>
@@ -25152,7 +25151,7 @@
         <v>44761.612638888888</v>
       </c>
     </row>
-    <row r="536" spans="3:8" ht="409.6">
+    <row r="536" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C536" s="1" t="s">
         <v>1531</v>
       </c>
@@ -25170,7 +25169,7 @@
         <v>44761.61550925926</v>
       </c>
     </row>
-    <row r="537" spans="3:8" ht="198">
+    <row r="537" spans="3:8" ht="208" x14ac:dyDescent="0.2">
       <c r="C537" s="1" t="s">
         <v>1533</v>
       </c>
@@ -25188,7 +25187,7 @@
         <v>44761.61787037037</v>
       </c>
     </row>
-    <row r="538" spans="3:8" ht="366">
+    <row r="538" spans="3:8" ht="350" x14ac:dyDescent="0.2">
       <c r="C538" s="1" t="s">
         <v>1536</v>
       </c>
@@ -25206,7 +25205,7 @@
         <v>44761.619444444441</v>
       </c>
     </row>
-    <row r="539" spans="3:8" ht="409.6">
+    <row r="539" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C539" s="1" t="s">
         <v>1539</v>
       </c>
@@ -25224,7 +25223,7 @@
         <v>44761.634027777778</v>
       </c>
     </row>
-    <row r="540" spans="3:8" ht="409.6">
+    <row r="540" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C540" s="1" t="s">
         <v>1541</v>
       </c>
@@ -25242,7 +25241,7 @@
         <v>44761.642858796295</v>
       </c>
     </row>
-    <row r="541" spans="3:8" ht="152.25">
+    <row r="541" spans="3:8" ht="128" x14ac:dyDescent="0.2">
       <c r="C541" s="1" t="s">
         <v>1543</v>
       </c>
@@ -25260,7 +25259,7 @@
         <v>44761.651886574073</v>
       </c>
     </row>
-    <row r="542" spans="3:8">
+    <row r="542" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C542" t="s">
         <v>1546</v>
       </c>
@@ -25277,7 +25276,7 @@
         <v>44761.658622685187</v>
       </c>
     </row>
-    <row r="543" spans="3:8" ht="351">
+    <row r="543" spans="3:8" ht="320" x14ac:dyDescent="0.2">
       <c r="C543" s="1" t="s">
         <v>1549</v>
       </c>
@@ -25295,7 +25294,7 @@
         <v>44761.682569444441</v>
       </c>
     </row>
-    <row r="544" spans="3:8" ht="76.5">
+    <row r="544" spans="3:8" ht="64" x14ac:dyDescent="0.2">
       <c r="C544" s="1" t="s">
         <v>1551</v>
       </c>
@@ -25313,7 +25312,7 @@
         <v>44761.682581018518</v>
       </c>
     </row>
-    <row r="545" spans="3:8" ht="137.25">
+    <row r="545" spans="3:8" ht="144" x14ac:dyDescent="0.2">
       <c r="C545" s="1" t="s">
         <v>1554</v>
       </c>
@@ -25331,7 +25330,7 @@
         <v>44761.691250000003</v>
       </c>
     </row>
-    <row r="546" spans="3:8" ht="409.6">
+    <row r="546" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C546" s="1" t="s">
         <v>1557</v>
       </c>
@@ -25349,7 +25348,7 @@
         <v>44761.696875000001</v>
       </c>
     </row>
-    <row r="547" spans="3:8" ht="409.6">
+    <row r="547" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C547" s="1" t="s">
         <v>1560</v>
       </c>
@@ -25367,7 +25366,7 @@
         <v>44761.702280092592</v>
       </c>
     </row>
-    <row r="548" spans="3:8" ht="121.5">
+    <row r="548" spans="3:8" ht="128" x14ac:dyDescent="0.2">
       <c r="C548" s="1" t="s">
         <v>1562</v>
       </c>
@@ -25385,7 +25384,7 @@
         <v>44761.75068287037</v>
       </c>
     </row>
-    <row r="549" spans="3:8" ht="106.5">
+    <row r="549" spans="3:8" ht="112" x14ac:dyDescent="0.2">
       <c r="C549" s="1" t="s">
         <v>1564</v>
       </c>
@@ -25403,7 +25402,7 @@
         <v>44761.789606481485</v>
       </c>
     </row>
-    <row r="550" spans="3:8" ht="198">
+    <row r="550" spans="3:8" ht="208" x14ac:dyDescent="0.2">
       <c r="C550" s="1" t="s">
         <v>1567</v>
       </c>
@@ -25421,7 +25420,7 @@
         <v>44761.892893518518</v>
       </c>
     </row>
-    <row r="551" spans="3:8" ht="409.6">
+    <row r="551" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C551" s="1" t="s">
         <v>1570</v>
       </c>
@@ -25439,7 +25438,7 @@
         <v>44761.994606481479</v>
       </c>
     </row>
-    <row r="552" spans="3:8" ht="229.5">
+    <row r="552" spans="3:8" ht="208" x14ac:dyDescent="0.2">
       <c r="C552" s="1" t="s">
         <v>1572</v>
       </c>
@@ -25457,7 +25456,7 @@
         <v>44762.110949074071</v>
       </c>
     </row>
-    <row r="553" spans="3:8" ht="409.6">
+    <row r="553" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C553" s="1" t="s">
         <v>1575</v>
       </c>
@@ -25475,7 +25474,7 @@
         <v>44762.347962962966</v>
       </c>
     </row>
-    <row r="554" spans="3:8" ht="275.25">
+    <row r="554" spans="3:8" ht="272" x14ac:dyDescent="0.2">
       <c r="C554" s="1" t="s">
         <v>1578</v>
       </c>
@@ -25493,7 +25492,7 @@
         <v>44762.418634259258</v>
       </c>
     </row>
-    <row r="555" spans="3:8" ht="91.5">
+    <row r="555" spans="3:8" ht="96" x14ac:dyDescent="0.2">
       <c r="C555" s="1" t="s">
         <v>1581</v>
       </c>
@@ -25511,7 +25510,7 @@
         <v>44762.419525462959</v>
       </c>
     </row>
-    <row r="556" spans="3:8">
+    <row r="556" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C556" t="s">
         <v>1583</v>
       </c>
@@ -25528,7 +25527,7 @@
         <v>44762.420474537037</v>
       </c>
     </row>
-    <row r="557" spans="3:8" ht="396.75">
+    <row r="557" spans="3:8" ht="365" x14ac:dyDescent="0.2">
       <c r="C557" s="1" t="s">
         <v>1586</v>
       </c>
@@ -25546,7 +25545,7 @@
         <v>44762.421585648146</v>
       </c>
     </row>
-    <row r="558" spans="3:8" ht="229.5">
+    <row r="558" spans="3:8" ht="240" x14ac:dyDescent="0.2">
       <c r="C558" s="1" t="s">
         <v>1589</v>
       </c>
@@ -25564,7 +25563,7 @@
         <v>44762.425347222219</v>
       </c>
     </row>
-    <row r="559" spans="3:8" ht="198">
+    <row r="559" spans="3:8" ht="192" x14ac:dyDescent="0.2">
       <c r="C559" s="1" t="s">
         <v>1591</v>
       </c>
@@ -25582,7 +25581,7 @@
         <v>44762.425405092596</v>
       </c>
     </row>
-    <row r="560" spans="3:8" ht="351">
+    <row r="560" spans="3:8" ht="335" x14ac:dyDescent="0.2">
       <c r="C560" s="1" t="s">
         <v>1594</v>
       </c>
@@ -25600,7 +25599,7 @@
         <v>44762.45821759259</v>
       </c>
     </row>
-    <row r="561" spans="3:8" ht="91.5">
+    <row r="561" spans="3:8" ht="96" x14ac:dyDescent="0.2">
       <c r="C561" s="1" t="s">
         <v>1596</v>
       </c>
@@ -25618,7 +25617,7 @@
         <v>44762.488078703704</v>
       </c>
     </row>
-    <row r="562" spans="3:8">
+    <row r="562" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C562" t="s">
         <v>842</v>
       </c>
@@ -25635,7 +25634,7 @@
         <v>44762.502523148149</v>
       </c>
     </row>
-    <row r="563" spans="3:8" ht="76.5">
+    <row r="563" spans="3:8" ht="80" x14ac:dyDescent="0.2">
       <c r="C563" s="1" t="s">
         <v>1600</v>
       </c>
@@ -25653,7 +25652,7 @@
         <v>44762.523657407408</v>
       </c>
     </row>
-    <row r="564" spans="3:8" ht="396.75">
+    <row r="564" spans="3:8" ht="365" x14ac:dyDescent="0.2">
       <c r="C564" s="1" t="s">
         <v>1602</v>
       </c>
@@ -25671,7 +25670,7 @@
         <v>44762.569062499999</v>
       </c>
     </row>
-    <row r="565" spans="3:8" ht="409.6">
+    <row r="565" spans="3:8" ht="395" x14ac:dyDescent="0.2">
       <c r="C565" s="1" t="s">
         <v>1604</v>
       </c>
@@ -25689,7 +25688,7 @@
         <v>44762.605983796297</v>
       </c>
     </row>
-    <row r="566" spans="3:8" ht="409.6">
+    <row r="566" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C566" s="1" t="s">
         <v>1607</v>
       </c>
@@ -25707,7 +25706,7 @@
         <v>44762.624641203707</v>
       </c>
     </row>
-    <row r="567" spans="3:8" ht="106.5">
+    <row r="567" spans="3:8" ht="112" x14ac:dyDescent="0.2">
       <c r="C567" s="1" t="s">
         <v>1610</v>
       </c>
@@ -25725,7 +25724,7 @@
         <v>44762.645324074074</v>
       </c>
     </row>
-    <row r="568" spans="3:8" ht="409.6">
+    <row r="568" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C568" s="1" t="s">
         <v>1613</v>
       </c>
@@ -25743,7 +25742,7 @@
         <v>44762.660787037035</v>
       </c>
     </row>
-    <row r="569" spans="3:8">
+    <row r="569" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C569" t="s">
         <v>1616</v>
       </c>
@@ -25760,7 +25759,7 @@
         <v>44762.704618055555</v>
       </c>
     </row>
-    <row r="570" spans="3:8" ht="106.5">
+    <row r="570" spans="3:8" ht="96" x14ac:dyDescent="0.2">
       <c r="C570" s="1" t="s">
         <v>1619</v>
       </c>
@@ -25778,7 +25777,7 @@
         <v>44762.716354166667</v>
       </c>
     </row>
-    <row r="571" spans="3:8" ht="409.6">
+    <row r="571" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C571" s="1" t="s">
         <v>1622</v>
       </c>
@@ -25796,7 +25795,7 @@
         <v>44762.720995370371</v>
       </c>
     </row>
-    <row r="572" spans="3:8" ht="409.6">
+    <row r="572" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C572" s="1" t="s">
         <v>1624</v>
       </c>
@@ -25814,7 +25813,7 @@
         <v>44762.751493055555</v>
       </c>
     </row>
-    <row r="573" spans="3:8">
+    <row r="573" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C573" t="s">
         <v>72</v>
       </c>
@@ -25831,7 +25830,7 @@
         <v>44762.761574074073</v>
       </c>
     </row>
-    <row r="574" spans="3:8" ht="409.6">
+    <row r="574" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C574" s="1" t="s">
         <v>1628</v>
       </c>
@@ -25849,7 +25848,7 @@
         <v>44762.800555555557</v>
       </c>
     </row>
-    <row r="575" spans="3:8">
+    <row r="575" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C575" t="s">
         <v>1630</v>
       </c>
@@ -25866,7 +25865,7 @@
         <v>44762.815196759257</v>
       </c>
     </row>
-    <row r="576" spans="3:8" ht="409.6">
+    <row r="576" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C576" s="1" t="s">
         <v>1633</v>
       </c>
@@ -25884,7 +25883,7 @@
         <v>44762.866296296299</v>
       </c>
     </row>
-    <row r="577" spans="3:8" ht="244.5">
+    <row r="577" spans="3:8" ht="240" x14ac:dyDescent="0.2">
       <c r="C577" s="1" t="s">
         <v>1635</v>
       </c>
@@ -25902,7 +25901,7 @@
         <v>44762.967106481483</v>
       </c>
     </row>
-    <row r="578" spans="3:8">
+    <row r="578" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C578" t="s">
         <v>1637</v>
       </c>
@@ -25919,7 +25918,7 @@
         <v>44762.98542824074</v>
       </c>
     </row>
-    <row r="579" spans="3:8" ht="76.5">
+    <row r="579" spans="3:8" ht="64" x14ac:dyDescent="0.2">
       <c r="C579" s="1" t="s">
         <v>1640</v>
       </c>
@@ -25937,7 +25936,7 @@
         <v>44763.105937499997</v>
       </c>
     </row>
-    <row r="580" spans="3:8" ht="183">
+    <row r="580" spans="3:8" ht="192" x14ac:dyDescent="0.2">
       <c r="C580" s="1" t="s">
         <v>1643</v>
       </c>
@@ -25955,7 +25954,7 @@
         <v>44763.106365740743</v>
       </c>
     </row>
-    <row r="581" spans="3:8" ht="76.5">
+    <row r="581" spans="3:8" ht="64" x14ac:dyDescent="0.2">
       <c r="C581" s="1" t="s">
         <v>1645</v>
       </c>
@@ -25973,7 +25972,7 @@
         <v>44763.108391203707</v>
       </c>
     </row>
-    <row r="582" spans="3:8" ht="396.75">
+    <row r="582" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C582" s="1" t="s">
         <v>1648</v>
       </c>
@@ -25991,7 +25990,7 @@
         <v>44763.113518518519</v>
       </c>
     </row>
-    <row r="583" spans="3:8" ht="409.6">
+    <row r="583" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C583" s="1" t="s">
         <v>1650</v>
       </c>
@@ -26009,7 +26008,7 @@
         <v>44763.200613425928</v>
       </c>
     </row>
-    <row r="584" spans="3:8" ht="275.25">
+    <row r="584" spans="3:8" ht="272" x14ac:dyDescent="0.2">
       <c r="C584" s="1" t="s">
         <v>1653</v>
       </c>
@@ -26027,7 +26026,7 @@
         <v>44763.252442129633</v>
       </c>
     </row>
-    <row r="585" spans="3:8" ht="409.6">
+    <row r="585" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C585" s="1" t="s">
         <v>1656</v>
       </c>
@@ -26045,7 +26044,7 @@
         <v>44763.27144675926</v>
       </c>
     </row>
-    <row r="586" spans="3:8" ht="121.5">
+    <row r="586" spans="3:8" ht="128" x14ac:dyDescent="0.2">
       <c r="C586" s="1" t="s">
         <v>1658</v>
       </c>
@@ -26063,7 +26062,7 @@
         <v>44763.288865740738</v>
       </c>
     </row>
-    <row r="587" spans="3:8" ht="409.6">
+    <row r="587" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C587" s="1" t="s">
         <v>1661</v>
       </c>
@@ -26081,7 +26080,7 @@
         <v>44763.30196759259</v>
       </c>
     </row>
-    <row r="588" spans="3:8" ht="409.6">
+    <row r="588" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C588" s="1" t="s">
         <v>1663</v>
       </c>
@@ -26099,7 +26098,7 @@
         <v>44763.334930555553</v>
       </c>
     </row>
-    <row r="589" spans="3:8">
+    <row r="589" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C589" t="s">
         <v>1666</v>
       </c>
@@ -26116,7 +26115,7 @@
         <v>44763.348981481482</v>
       </c>
     </row>
-    <row r="590" spans="3:8">
+    <row r="590" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C590" t="s">
         <v>1669</v>
       </c>
@@ -26133,7 +26132,7 @@
         <v>44763.353333333333</v>
       </c>
     </row>
-    <row r="591" spans="3:8">
+    <row r="591" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C591" t="s">
         <v>1671</v>
       </c>
@@ -26150,7 +26149,7 @@
         <v>44763.353888888887</v>
       </c>
     </row>
-    <row r="592" spans="3:8" ht="91.5">
+    <row r="592" spans="3:8" ht="80" x14ac:dyDescent="0.2">
       <c r="C592" s="1" t="s">
         <v>1674</v>
       </c>
@@ -26168,7 +26167,7 @@
         <v>44763.355266203704</v>
       </c>
     </row>
-    <row r="593" spans="3:8" ht="366">
+    <row r="593" spans="3:8" ht="365" x14ac:dyDescent="0.2">
       <c r="C593" s="1" t="s">
         <v>1676</v>
       </c>
@@ -26186,7 +26185,7 @@
         <v>44763.38071759259</v>
       </c>
     </row>
-    <row r="594" spans="3:8" ht="409.6">
+    <row r="594" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C594" s="1" t="s">
         <v>1678</v>
       </c>
@@ -26204,7 +26203,7 @@
         <v>44763.384930555556</v>
       </c>
     </row>
-    <row r="595" spans="3:8" ht="167.25">
+    <row r="595" spans="3:8" ht="176" x14ac:dyDescent="0.2">
       <c r="C595" s="1" t="s">
         <v>1681</v>
       </c>
@@ -26222,7 +26221,7 @@
         <v>44763.393136574072</v>
       </c>
     </row>
-    <row r="596" spans="3:8" ht="409.6">
+    <row r="596" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C596" s="1" t="s">
         <v>1684</v>
       </c>
@@ -26240,7 +26239,7 @@
         <v>44763.429942129631</v>
       </c>
     </row>
-    <row r="597" spans="3:8" ht="409.6">
+    <row r="597" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C597" s="1" t="s">
         <v>1686</v>
       </c>
@@ -26258,7 +26257,7 @@
         <v>44763.509375000001</v>
       </c>
     </row>
-    <row r="598" spans="3:8" ht="409.6">
+    <row r="598" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C598" s="1" t="s">
         <v>1689</v>
       </c>
@@ -26276,7 +26275,7 @@
         <v>44763.608206018522</v>
       </c>
     </row>
-    <row r="599" spans="3:8" ht="60.75">
+    <row r="599" spans="3:8" ht="64" x14ac:dyDescent="0.2">
       <c r="C599" s="1" t="s">
         <v>1691</v>
       </c>
@@ -26294,7 +26293,7 @@
         <v>44763.621793981481</v>
       </c>
     </row>
-    <row r="600" spans="3:8" ht="60.75">
+    <row r="600" spans="3:8" ht="64" x14ac:dyDescent="0.2">
       <c r="C600" s="1" t="s">
         <v>1693</v>
       </c>
@@ -26312,7 +26311,7 @@
         <v>44763.638356481482</v>
       </c>
     </row>
-    <row r="601" spans="3:8">
+    <row r="601" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C601" t="s">
         <v>1696</v>
       </c>
@@ -26329,7 +26328,7 @@
         <v>44763.655393518522</v>
       </c>
     </row>
-    <row r="602" spans="3:8" ht="336">
+    <row r="602" spans="3:8" ht="335" x14ac:dyDescent="0.2">
       <c r="C602" s="1" t="s">
         <v>1699</v>
       </c>
@@ -26347,7 +26346,7 @@
         <v>44763.662152777775</v>
       </c>
     </row>
-    <row r="603" spans="3:8" ht="336">
+    <row r="603" spans="3:8" ht="350" x14ac:dyDescent="0.2">
       <c r="C603" s="1" t="s">
         <v>1701</v>
       </c>
@@ -26365,7 +26364,7 @@
         <v>44763.70416666667</v>
       </c>
     </row>
-    <row r="604" spans="3:8" ht="121.5">
+    <row r="604" spans="3:8" ht="128" x14ac:dyDescent="0.2">
       <c r="C604" s="1" t="s">
         <v>1704</v>
       </c>
@@ -26383,7 +26382,7 @@
         <v>44763.798344907409</v>
       </c>
     </row>
-    <row r="605" spans="3:8" ht="229.5">
+    <row r="605" spans="3:8" ht="240" x14ac:dyDescent="0.2">
       <c r="C605" s="1" t="s">
         <v>1706</v>
       </c>
@@ -26401,7 +26400,7 @@
         <v>44763.828831018516</v>
       </c>
     </row>
-    <row r="606" spans="3:8" ht="336">
+    <row r="606" spans="3:8" ht="335" x14ac:dyDescent="0.2">
       <c r="C606" s="1" t="s">
         <v>1708</v>
       </c>
@@ -26419,7 +26418,7 @@
         <v>44763.83185185185</v>
       </c>
     </row>
-    <row r="607" spans="3:8" ht="409.6">
+    <row r="607" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C607" s="1" t="s">
         <v>1710</v>
       </c>
@@ -26437,7 +26436,7 @@
         <v>44763.849293981482</v>
       </c>
     </row>
-    <row r="608" spans="3:8" ht="137.25">
+    <row r="608" spans="3:8" ht="144" x14ac:dyDescent="0.2">
       <c r="C608" s="1" t="s">
         <v>1712</v>
       </c>
@@ -26455,7 +26454,7 @@
         <v>44763.852962962963</v>
       </c>
     </row>
-    <row r="609" spans="3:8" ht="244.5">
+    <row r="609" spans="3:8" ht="256" x14ac:dyDescent="0.2">
       <c r="C609" s="1" t="s">
         <v>1714</v>
       </c>
@@ -26473,7 +26472,7 @@
         <v>44763.884074074071</v>
       </c>
     </row>
-    <row r="610" spans="3:8" ht="45.75">
+    <row r="610" spans="3:8" ht="48" x14ac:dyDescent="0.2">
       <c r="C610" s="1" t="s">
         <v>1716</v>
       </c>
@@ -26491,7 +26490,7 @@
         <v>44763.902870370373</v>
       </c>
     </row>
-    <row r="611" spans="3:8" ht="290.25">
+    <row r="611" spans="3:8" ht="288" x14ac:dyDescent="0.2">
       <c r="C611" s="1" t="s">
         <v>1719</v>
       </c>
@@ -26509,7 +26508,7 @@
         <v>44763.93414351852</v>
       </c>
     </row>
-    <row r="612" spans="3:8" ht="396.75">
+    <row r="612" spans="3:8" ht="395" x14ac:dyDescent="0.2">
       <c r="C612" s="1" t="s">
         <v>1722</v>
       </c>
@@ -26527,7 +26526,7 @@
         <v>44763.943055555559</v>
       </c>
     </row>
-    <row r="613" spans="3:8" ht="183">
+    <row r="613" spans="3:8" ht="192" x14ac:dyDescent="0.2">
       <c r="C613" s="1" t="s">
         <v>1725</v>
       </c>
@@ -26545,7 +26544,7 @@
         <v>44763.944606481484</v>
       </c>
     </row>
-    <row r="614" spans="3:8" ht="381.75">
+    <row r="614" spans="3:8" ht="380" x14ac:dyDescent="0.2">
       <c r="C614" s="1" t="s">
         <v>1727</v>
       </c>
@@ -26563,7 +26562,7 @@
         <v>44763.975810185184</v>
       </c>
     </row>
-    <row r="615" spans="3:8" ht="409.6">
+    <row r="615" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C615" s="1" t="s">
         <v>1730</v>
       </c>
@@ -26581,7 +26580,7 @@
         <v>44764.159120370372</v>
       </c>
     </row>
-    <row r="616" spans="3:8" ht="409.6">
+    <row r="616" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C616" s="1" t="s">
         <v>1732</v>
       </c>
@@ -26599,7 +26598,7 @@
         <v>44764.261724537035</v>
       </c>
     </row>
-    <row r="617" spans="3:8" ht="106.5">
+    <row r="617" spans="3:8" ht="112" x14ac:dyDescent="0.2">
       <c r="C617" s="1" t="s">
         <v>1735</v>
       </c>
@@ -26617,7 +26616,7 @@
         <v>44764.32167824074</v>
       </c>
     </row>
-    <row r="618" spans="3:8" ht="409.6">
+    <row r="618" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C618" s="1" t="s">
         <v>1738</v>
       </c>
@@ -26635,7 +26634,7 @@
         <v>44764.33693287037</v>
       </c>
     </row>
-    <row r="619" spans="3:8">
+    <row r="619" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C619" t="s">
         <v>1741</v>
       </c>
@@ -26652,7 +26651,7 @@
         <v>44764.368217592593</v>
       </c>
     </row>
-    <row r="620" spans="3:8" ht="198">
+    <row r="620" spans="3:8" ht="176" x14ac:dyDescent="0.2">
       <c r="C620" s="1" t="s">
         <v>1744</v>
       </c>
@@ -26670,7 +26669,7 @@
         <v>44764.369930555556</v>
       </c>
     </row>
-    <row r="621" spans="3:8" ht="121.5">
+    <row r="621" spans="3:8" ht="112" x14ac:dyDescent="0.2">
       <c r="C621" s="1" t="s">
         <v>1747</v>
       </c>
@@ -26688,7 +26687,7 @@
         <v>44764.370254629626</v>
       </c>
     </row>
-    <row r="622" spans="3:8" ht="259.5">
+    <row r="622" spans="3:8" ht="256" x14ac:dyDescent="0.2">
       <c r="C622" s="1" t="s">
         <v>1749</v>
       </c>
@@ -26706,7 +26705,7 @@
         <v>44764.371712962966</v>
       </c>
     </row>
-    <row r="623" spans="3:8" ht="167.25">
+    <row r="623" spans="3:8" ht="176" x14ac:dyDescent="0.2">
       <c r="C623" s="1" t="s">
         <v>1752</v>
       </c>
@@ -26724,7 +26723,7 @@
         <v>44764.372777777775</v>
       </c>
     </row>
-    <row r="624" spans="3:8" ht="409.6">
+    <row r="624" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C624" s="1" t="s">
         <v>1754</v>
       </c>
@@ -26742,7 +26741,7 @@
         <v>44764.394467592596</v>
       </c>
     </row>
-    <row r="625" spans="3:8" ht="396.75">
+    <row r="625" spans="3:8" ht="380" x14ac:dyDescent="0.2">
       <c r="C625" s="1" t="s">
         <v>1756</v>
       </c>
@@ -26760,7 +26759,7 @@
         <v>44764.420567129629</v>
       </c>
     </row>
-    <row r="626" spans="3:8" ht="409.6">
+    <row r="626" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C626" s="1" t="s">
         <v>1759</v>
       </c>
@@ -26778,7 +26777,7 @@
         <v>44764.42459490741</v>
       </c>
     </row>
-    <row r="627" spans="3:8" ht="229.5">
+    <row r="627" spans="3:8" ht="208" x14ac:dyDescent="0.2">
       <c r="C627" s="1" t="s">
         <v>1762</v>
       </c>
@@ -26796,7 +26795,7 @@
         <v>44764.426863425928</v>
       </c>
     </row>
-    <row r="628" spans="3:8" ht="409.6">
+    <row r="628" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C628" s="1" t="s">
         <v>1765</v>
       </c>
@@ -26814,7 +26813,7 @@
         <v>44764.429016203707</v>
       </c>
     </row>
-    <row r="629" spans="3:8" ht="229.5">
+    <row r="629" spans="3:8" ht="240" x14ac:dyDescent="0.2">
       <c r="C629" s="1" t="s">
         <v>1768</v>
       </c>
@@ -26832,7 +26831,7 @@
         <v>44764.71539351852</v>
       </c>
     </row>
-    <row r="630" spans="3:8" ht="290.25">
+    <row r="630" spans="3:8" ht="304" x14ac:dyDescent="0.2">
       <c r="C630" s="1" t="s">
         <v>1771</v>
       </c>
@@ -26850,7 +26849,7 @@
         <v>44764.720891203702</v>
       </c>
     </row>
-    <row r="631" spans="3:8" ht="60.75">
+    <row r="631" spans="3:8" ht="64" x14ac:dyDescent="0.2">
       <c r="C631" s="1" t="s">
         <v>1773</v>
       </c>
@@ -26868,7 +26867,7 @@
         <v>44764.721493055556</v>
       </c>
     </row>
-    <row r="632" spans="3:8">
+    <row r="632" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C632" t="s">
         <v>72</v>
       </c>
@@ -26885,7 +26884,7 @@
         <v>44765.12232638889</v>
       </c>
     </row>
-    <row r="633" spans="3:8" ht="167.25">
+    <row r="633" spans="3:8" ht="160" x14ac:dyDescent="0.2">
       <c r="C633" s="1" t="s">
         <v>1777</v>
       </c>
@@ -26903,7 +26902,7 @@
         <v>44765.288865740738</v>
       </c>
     </row>
-    <row r="634" spans="3:8" ht="305.25">
+    <row r="634" spans="3:8" ht="320" x14ac:dyDescent="0.2">
       <c r="C634" s="1" t="s">
         <v>1779</v>
       </c>
@@ -26921,7 +26920,7 @@
         <v>44765.305902777778</v>
       </c>
     </row>
-    <row r="635" spans="3:8" ht="167.25">
+    <row r="635" spans="3:8" ht="160" x14ac:dyDescent="0.2">
       <c r="C635" s="1" t="s">
         <v>1782</v>
       </c>
@@ -26939,7 +26938,7 @@
         <v>44765.308425925927</v>
       </c>
     </row>
-    <row r="636" spans="3:8" ht="137.25">
+    <row r="636" spans="3:8" ht="144" x14ac:dyDescent="0.2">
       <c r="C636" s="1" t="s">
         <v>1785</v>
       </c>
@@ -26957,7 +26956,7 @@
         <v>44765.340983796297</v>
       </c>
     </row>
-    <row r="637" spans="3:8" ht="106.5">
+    <row r="637" spans="3:8" ht="112" x14ac:dyDescent="0.2">
       <c r="C637" s="1" t="s">
         <v>1788</v>
       </c>
@@ -26975,7 +26974,7 @@
         <v>44765.342847222222</v>
       </c>
     </row>
-    <row r="638" spans="3:8" ht="137.25">
+    <row r="638" spans="3:8" ht="112" x14ac:dyDescent="0.2">
       <c r="C638" s="1" t="s">
         <v>1791</v>
       </c>
@@ -26993,7 +26992,7 @@
         <v>44765.358715277776</v>
       </c>
     </row>
-    <row r="639" spans="3:8" ht="137.25">
+    <row r="639" spans="3:8" ht="144" x14ac:dyDescent="0.2">
       <c r="C639" s="1" t="s">
         <v>1794</v>
       </c>
@@ -27011,7 +27010,7 @@
         <v>44765.362407407411</v>
       </c>
     </row>
-    <row r="640" spans="3:8" ht="167.25">
+    <row r="640" spans="3:8" ht="144" x14ac:dyDescent="0.2">
       <c r="C640" s="1" t="s">
         <v>1796</v>
       </c>
@@ -27029,7 +27028,7 @@
         <v>44765.365034722221</v>
       </c>
     </row>
-    <row r="641" spans="3:8" ht="106.5">
+    <row r="641" spans="3:8" ht="112" x14ac:dyDescent="0.2">
       <c r="C641" s="1" t="s">
         <v>1799</v>
       </c>
@@ -27047,7 +27046,7 @@
         <v>44765.36787037037</v>
       </c>
     </row>
-    <row r="642" spans="3:8" ht="366">
+    <row r="642" spans="3:8" ht="365" x14ac:dyDescent="0.2">
       <c r="C642" s="1" t="s">
         <v>1802</v>
       </c>
@@ -27065,7 +27064,7 @@
         <v>44765.372048611112</v>
       </c>
     </row>
-    <row r="643" spans="3:8" ht="351">
+    <row r="643" spans="3:8" ht="335" x14ac:dyDescent="0.2">
       <c r="C643" s="1" t="s">
         <v>1804</v>
       </c>
@@ -27083,7 +27082,7 @@
         <v>44765.439687500002</v>
       </c>
     </row>
-    <row r="644" spans="3:8" ht="45.75">
+    <row r="644" spans="3:8" ht="48" x14ac:dyDescent="0.2">
       <c r="C644" s="1" t="s">
         <v>1806</v>
       </c>
@@ -27101,7 +27100,7 @@
         <v>44765.446226851855</v>
       </c>
     </row>
-    <row r="645" spans="3:8" ht="409.6">
+    <row r="645" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C645" s="1" t="s">
         <v>1809</v>
       </c>
@@ -27119,7 +27118,7 @@
         <v>44765.457060185188</v>
       </c>
     </row>
-    <row r="646" spans="3:8" ht="121.5">
+    <row r="646" spans="3:8" ht="112" x14ac:dyDescent="0.2">
       <c r="C646" s="1" t="s">
         <v>1811</v>
       </c>
@@ -27137,7 +27136,7 @@
         <v>44765.492280092592</v>
       </c>
     </row>
-    <row r="647" spans="3:8" ht="409.6">
+    <row r="647" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C647" s="1" t="s">
         <v>1814</v>
       </c>
@@ -27155,7 +27154,7 @@
         <v>44765.50408564815</v>
       </c>
     </row>
-    <row r="648" spans="3:8" ht="409.6">
+    <row r="648" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C648" s="1" t="s">
         <v>1817</v>
       </c>
@@ -27173,7 +27172,7 @@
         <v>44765.514444444445</v>
       </c>
     </row>
-    <row r="649" spans="3:8" ht="290.25">
+    <row r="649" spans="3:8" ht="288" x14ac:dyDescent="0.2">
       <c r="C649" s="1" t="s">
         <v>1820</v>
       </c>
@@ -27191,7 +27190,7 @@
         <v>44765.571875000001</v>
       </c>
     </row>
-    <row r="650" spans="3:8" ht="409.6">
+    <row r="650" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C650" s="1" t="s">
         <v>1823</v>
       </c>
@@ -27209,7 +27208,7 @@
         <v>44765.572175925925</v>
       </c>
     </row>
-    <row r="651" spans="3:8" ht="409.6">
+    <row r="651" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C651" s="1" t="s">
         <v>1825</v>
       </c>
@@ -27227,7 +27226,7 @@
         <v>44765.591608796298</v>
       </c>
     </row>
-    <row r="652" spans="3:8" ht="409.6">
+    <row r="652" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C652" s="1" t="s">
         <v>1828</v>
       </c>
@@ -27245,7 +27244,7 @@
         <v>44765.599641203706</v>
       </c>
     </row>
-    <row r="653" spans="3:8">
+    <row r="653" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C653" t="s">
         <v>1830</v>
       </c>
@@ -27262,7 +27261,7 @@
         <v>44765.600115740737</v>
       </c>
     </row>
-    <row r="654" spans="3:8" ht="106.5">
+    <row r="654" spans="3:8" ht="112" x14ac:dyDescent="0.2">
       <c r="C654" s="1" t="s">
         <v>1833</v>
       </c>
@@ -27280,7 +27279,7 @@
         <v>44765.620069444441</v>
       </c>
     </row>
-    <row r="655" spans="3:8">
+    <row r="655" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C655" t="s">
         <v>1836</v>
       </c>
@@ -27297,7 +27296,7 @@
         <v>44765.723981481482</v>
       </c>
     </row>
-    <row r="656" spans="3:8" ht="409.6">
+    <row r="656" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C656" s="1" t="s">
         <v>1838</v>
       </c>
@@ -27315,7 +27314,7 @@
         <v>44765.772858796299</v>
       </c>
     </row>
-    <row r="657" spans="3:8" ht="381.75">
+    <row r="657" spans="3:8" ht="395" x14ac:dyDescent="0.2">
       <c r="C657" s="1" t="s">
         <v>817</v>
       </c>
@@ -27333,7 +27332,7 @@
         <v>44765.780185185184</v>
       </c>
     </row>
-    <row r="658" spans="3:8" ht="167.25">
+    <row r="658" spans="3:8" ht="144" x14ac:dyDescent="0.2">
       <c r="C658" s="1" t="s">
         <v>1841</v>
       </c>
@@ -27351,7 +27350,7 @@
         <v>44765.816944444443</v>
       </c>
     </row>
-    <row r="659" spans="3:8" ht="409.6">
+    <row r="659" spans="3:8" ht="395" x14ac:dyDescent="0.2">
       <c r="C659" s="1" t="s">
         <v>1844</v>
       </c>
@@ -27369,7 +27368,7 @@
         <v>44765.830972222226</v>
       </c>
     </row>
-    <row r="660" spans="3:8">
+    <row r="660" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C660" t="s">
         <v>1847</v>
       </c>
@@ -27386,7 +27385,7 @@
         <v>44765.895671296297</v>
       </c>
     </row>
-    <row r="661" spans="3:8" ht="409.6">
+    <row r="661" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C661" s="1" t="s">
         <v>1850</v>
       </c>
@@ -27404,7 +27403,7 @@
         <v>44765.898518518516</v>
       </c>
     </row>
-    <row r="662" spans="3:8" ht="409.6">
+    <row r="662" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C662" s="1" t="s">
         <v>1852</v>
       </c>
@@ -27422,7 +27421,7 @@
         <v>44765.900196759256</v>
       </c>
     </row>
-    <row r="663" spans="3:8" ht="409.6">
+    <row r="663" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C663" s="1" t="s">
         <v>1855</v>
       </c>
@@ -27440,7 +27439,7 @@
         <v>44765.90252314815</v>
       </c>
     </row>
-    <row r="664" spans="3:8" ht="409.6">
+    <row r="664" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C664" s="1" t="s">
         <v>1858</v>
       </c>
@@ -27458,7 +27457,7 @@
         <v>44765.956192129626</v>
       </c>
     </row>
-    <row r="665" spans="3:8" ht="409.6">
+    <row r="665" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C665" s="1" t="s">
         <v>1861</v>
       </c>
@@ -27476,7 +27475,7 @@
         <v>44766.071145833332</v>
       </c>
     </row>
-    <row r="666" spans="3:8" ht="275.25">
+    <row r="666" spans="3:8" ht="272" x14ac:dyDescent="0.2">
       <c r="C666" s="1" t="s">
         <v>1864</v>
       </c>
@@ -27494,7 +27493,7 @@
         <v>44766.198171296295</v>
       </c>
     </row>
-    <row r="667" spans="3:8" ht="259.5">
+    <row r="667" spans="3:8" ht="240" x14ac:dyDescent="0.2">
       <c r="C667" s="1" t="s">
         <v>1867</v>
       </c>
@@ -27512,7 +27511,7 @@
         <v>44766.236006944448</v>
       </c>
     </row>
-    <row r="668" spans="3:8" ht="121.5">
+    <row r="668" spans="3:8" ht="112" x14ac:dyDescent="0.2">
       <c r="C668" s="1" t="s">
         <v>1870</v>
       </c>
@@ -27530,7 +27529,7 @@
         <v>44766.237500000003</v>
       </c>
     </row>
-    <row r="669" spans="3:8">
+    <row r="669" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C669" t="s">
         <v>1873</v>
       </c>
@@ -27547,7 +27546,7 @@
         <v>44766.237534722219</v>
       </c>
     </row>
-    <row r="670" spans="3:8" ht="366">
+    <row r="670" spans="3:8" ht="350" x14ac:dyDescent="0.2">
       <c r="C670" s="1" t="s">
         <v>1875</v>
       </c>
@@ -27565,7 +27564,7 @@
         <v>44766.290810185186</v>
       </c>
     </row>
-    <row r="671" spans="3:8">
+    <row r="671" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C671" t="s">
         <v>1877</v>
       </c>
@@ -27582,7 +27581,7 @@
         <v>44766.299351851849</v>
       </c>
     </row>
-    <row r="672" spans="3:8" ht="106.5">
+    <row r="672" spans="3:8" ht="96" x14ac:dyDescent="0.2">
       <c r="C672" s="1" t="s">
         <v>1879</v>
       </c>
@@ -27600,7 +27599,7 @@
         <v>44766.364016203705</v>
       </c>
     </row>
-    <row r="673" spans="3:8" ht="229.5">
+    <row r="673" spans="3:8" ht="224" x14ac:dyDescent="0.2">
       <c r="C673" s="1" t="s">
         <v>1881</v>
       </c>
@@ -27618,7 +27617,7 @@
         <v>44766.368414351855</v>
       </c>
     </row>
-    <row r="674" spans="3:8" ht="183">
+    <row r="674" spans="3:8" ht="176" x14ac:dyDescent="0.2">
       <c r="C674" s="1" t="s">
         <v>1883</v>
       </c>
@@ -27636,7 +27635,7 @@
         <v>44766.371238425927</v>
       </c>
     </row>
-    <row r="675" spans="3:8">
+    <row r="675" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C675" t="s">
         <v>1886</v>
       </c>
@@ -27653,7 +27652,7 @@
         <v>44766.431875000002</v>
       </c>
     </row>
-    <row r="676" spans="3:8" ht="409.6">
+    <row r="676" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C676" s="1" t="s">
         <v>1889</v>
       </c>
@@ -27671,7 +27670,7 @@
         <v>44766.432685185187</v>
       </c>
     </row>
-    <row r="677" spans="3:8" ht="409.6">
+    <row r="677" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C677" s="1" t="s">
         <v>1892</v>
       </c>
@@ -27689,7 +27688,7 @@
         <v>44766.452499999999</v>
       </c>
     </row>
-    <row r="678" spans="3:8" ht="409.6">
+    <row r="678" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C678" s="1" t="s">
         <v>1895</v>
       </c>
@@ -27707,7 +27706,7 @@
         <v>44766.465787037036</v>
       </c>
     </row>
-    <row r="679" spans="3:8" ht="60.75">
+    <row r="679" spans="3:8" ht="64" x14ac:dyDescent="0.2">
       <c r="C679" s="1" t="s">
         <v>1897</v>
       </c>
@@ -27725,7 +27724,7 @@
         <v>44766.473564814813</v>
       </c>
     </row>
-    <row r="680" spans="3:8" ht="409.6">
+    <row r="680" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C680" s="1" t="s">
         <v>1900</v>
       </c>
@@ -27743,7 +27742,7 @@
         <v>44766.490115740744</v>
       </c>
     </row>
-    <row r="681" spans="3:8">
+    <row r="681" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C681" t="s">
         <v>1903</v>
       </c>
@@ -27760,7 +27759,7 @@
         <v>44766.500335648147</v>
       </c>
     </row>
-    <row r="682" spans="3:8" ht="106.5">
+    <row r="682" spans="3:8" ht="96" x14ac:dyDescent="0.2">
       <c r="C682" s="1" t="s">
         <v>1906</v>
       </c>
@@ -27778,7 +27777,7 @@
         <v>44766.538090277776</v>
       </c>
     </row>
-    <row r="683" spans="3:8" ht="152.25">
+    <row r="683" spans="3:8" ht="144" x14ac:dyDescent="0.2">
       <c r="C683" s="1" t="s">
         <v>1908</v>
       </c>
@@ -27796,7 +27795,7 @@
         <v>44766.589918981481</v>
       </c>
     </row>
-    <row r="684" spans="3:8">
+    <row r="684" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C684" t="s">
         <v>72</v>
       </c>
@@ -27813,7 +27812,7 @@
         <v>44766.605034722219</v>
       </c>
     </row>
-    <row r="685" spans="3:8" ht="60.75">
+    <row r="685" spans="3:8" ht="64" x14ac:dyDescent="0.2">
       <c r="C685" s="1" t="s">
         <v>1912</v>
       </c>
@@ -27831,7 +27830,7 @@
         <v>44766.716805555552</v>
       </c>
     </row>
-    <row r="686" spans="3:8" ht="321">
+    <row r="686" spans="3:8" ht="304" x14ac:dyDescent="0.2">
       <c r="C686" s="1" t="s">
         <v>1914</v>
       </c>
@@ -27849,7 +27848,7 @@
         <v>44766.732418981483</v>
       </c>
     </row>
-    <row r="687" spans="3:8" ht="409.6">
+    <row r="687" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C687" s="1" t="s">
         <v>1916</v>
       </c>
@@ -27867,7 +27866,7 @@
         <v>44766.740115740744</v>
       </c>
     </row>
-    <row r="688" spans="3:8" ht="121.5">
+    <row r="688" spans="3:8" ht="128" x14ac:dyDescent="0.2">
       <c r="C688" s="1" t="s">
         <v>1919</v>
       </c>
@@ -27885,7 +27884,7 @@
         <v>44766.741631944446</v>
       </c>
     </row>
-    <row r="689" spans="3:8" ht="409.6">
+    <row r="689" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C689" s="1" t="s">
         <v>1921</v>
       </c>
@@ -27903,7 +27902,7 @@
         <v>44766.779490740744</v>
       </c>
     </row>
-    <row r="690" spans="3:8" ht="409.6">
+    <row r="690" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C690" s="1" t="s">
         <v>1924</v>
       </c>
@@ -27921,7 +27920,7 @@
         <v>44766.793506944443</v>
       </c>
     </row>
-    <row r="691" spans="3:8" ht="76.5">
+    <row r="691" spans="3:8" ht="80" x14ac:dyDescent="0.2">
       <c r="C691" s="1" t="s">
         <v>248</v>
       </c>
@@ -27939,7 +27938,7 @@
         <v>44766.821331018517</v>
       </c>
     </row>
-    <row r="692" spans="3:8" ht="229.5">
+    <row r="692" spans="3:8" ht="224" x14ac:dyDescent="0.2">
       <c r="C692" s="1" t="s">
         <v>1928</v>
       </c>
@@ -27957,7 +27956,7 @@
         <v>44766.838993055557</v>
       </c>
     </row>
-    <row r="693" spans="3:8" ht="259.5">
+    <row r="693" spans="3:8" ht="272" x14ac:dyDescent="0.2">
       <c r="C693" s="1" t="s">
         <v>1931</v>
       </c>
@@ -27975,7 +27974,7 @@
         <v>44766.850717592592</v>
       </c>
     </row>
-    <row r="694" spans="3:8" ht="76.5">
+    <row r="694" spans="3:8" ht="80" x14ac:dyDescent="0.2">
       <c r="C694" s="1" t="s">
         <v>1934</v>
       </c>
@@ -27993,7 +27992,7 @@
         <v>44766.855138888888</v>
       </c>
     </row>
-    <row r="695" spans="3:8" ht="305.25">
+    <row r="695" spans="3:8" ht="304" x14ac:dyDescent="0.2">
       <c r="C695" s="1" t="s">
         <v>1936</v>
       </c>
@@ -28011,7 +28010,7 @@
         <v>44766.862974537034</v>
       </c>
     </row>
-    <row r="696" spans="3:8">
+    <row r="696" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C696" t="s">
         <v>1939</v>
       </c>
@@ -28028,7 +28027,7 @@
         <v>44766.88548611111</v>
       </c>
     </row>
-    <row r="697" spans="3:8">
+    <row r="697" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C697" t="s">
         <v>1942</v>
       </c>
@@ -28045,7 +28044,7 @@
         <v>44766.924560185187</v>
       </c>
     </row>
-    <row r="698" spans="3:8">
+    <row r="698" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C698" t="s">
         <v>1945</v>
       </c>
@@ -28062,7 +28061,7 @@
         <v>44766.938726851855</v>
       </c>
     </row>
-    <row r="699" spans="3:8">
+    <row r="699" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C699" t="s">
         <v>1948</v>
       </c>
@@ -28079,7 +28078,7 @@
         <v>44766.946423611109</v>
       </c>
     </row>
-    <row r="700" spans="3:8" ht="409.6">
+    <row r="700" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C700" s="1" t="s">
         <v>1950</v>
       </c>
@@ -28097,7 +28096,7 @@
         <v>44766.995532407411</v>
       </c>
     </row>
-    <row r="701" spans="3:8" ht="213">
+    <row r="701" spans="3:8" ht="176" x14ac:dyDescent="0.2">
       <c r="C701" s="1" t="s">
         <v>1953</v>
       </c>
@@ -28115,7 +28114,7 @@
         <v>44767.058761574073</v>
       </c>
     </row>
-    <row r="702" spans="3:8" ht="409.6">
+    <row r="702" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C702" s="1" t="s">
         <v>1956</v>
       </c>
@@ -28133,7 +28132,7 @@
         <v>44767.101620370369</v>
       </c>
     </row>
-    <row r="703" spans="3:8" ht="183">
+    <row r="703" spans="3:8" ht="192" x14ac:dyDescent="0.2">
       <c r="C703" s="1" t="s">
         <v>1959</v>
       </c>
@@ -28151,7 +28150,7 @@
         <v>44767.143611111111</v>
       </c>
     </row>
-    <row r="704" spans="3:8" ht="409.6">
+    <row r="704" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C704" s="1" t="s">
         <v>1961</v>
       </c>
@@ -28169,7 +28168,7 @@
         <v>44767.166168981479</v>
       </c>
     </row>
-    <row r="705" spans="3:8" ht="121.5">
+    <row r="705" spans="3:8" ht="112" x14ac:dyDescent="0.2">
       <c r="C705" s="1" t="s">
         <v>1963</v>
       </c>
@@ -28187,7 +28186,7 @@
         <v>44767.169687499998</v>
       </c>
     </row>
-    <row r="706" spans="3:8" ht="409.6">
+    <row r="706" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C706" s="1" t="s">
         <v>1966</v>
       </c>
@@ -28205,7 +28204,7 @@
         <v>44767.244872685187</v>
       </c>
     </row>
-    <row r="707" spans="3:8" ht="409.6">
+    <row r="707" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C707" s="1" t="s">
         <v>1969</v>
       </c>
@@ -28223,7 +28222,7 @@
         <v>44767.253229166665</v>
       </c>
     </row>
-    <row r="708" spans="3:8" ht="259.5">
+    <row r="708" spans="3:8" ht="256" x14ac:dyDescent="0.2">
       <c r="C708" s="1" t="s">
         <v>1972</v>
       </c>
@@ -28241,7 +28240,7 @@
         <v>44767.300555555557</v>
       </c>
     </row>
-    <row r="709" spans="3:8" ht="396.75">
+    <row r="709" spans="3:8" ht="395" x14ac:dyDescent="0.2">
       <c r="C709" s="1" t="s">
         <v>1975</v>
       </c>
@@ -28259,7 +28258,7 @@
         <v>44767.304918981485</v>
       </c>
     </row>
-    <row r="710" spans="3:8">
+    <row r="710" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C710" t="s">
         <v>1978</v>
       </c>
@@ -28276,7 +28275,7 @@
         <v>44767.305243055554</v>
       </c>
     </row>
-    <row r="711" spans="3:8" ht="275.25">
+    <row r="711" spans="3:8" ht="288" x14ac:dyDescent="0.2">
       <c r="C711" s="1" t="s">
         <v>1981</v>
       </c>
@@ -28294,7 +28293,7 @@
         <v>44767.306620370371</v>
       </c>
     </row>
-    <row r="712" spans="3:8" ht="396.75">
+    <row r="712" spans="3:8" ht="380" x14ac:dyDescent="0.2">
       <c r="C712" s="1" t="s">
         <v>1983</v>
       </c>
@@ -28312,7 +28311,7 @@
         <v>44767.315428240741</v>
       </c>
     </row>
-    <row r="713" spans="3:8" ht="409.6">
+    <row r="713" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C713" s="1" t="s">
         <v>1985</v>
       </c>
@@ -28330,7 +28329,7 @@
         <v>44767.318958333337</v>
       </c>
     </row>
-    <row r="714" spans="3:8" ht="45.75">
+    <row r="714" spans="3:8" ht="48" x14ac:dyDescent="0.2">
       <c r="C714" s="1" t="s">
         <v>1987</v>
       </c>
@@ -28348,7 +28347,7 @@
         <v>44767.336111111108</v>
       </c>
     </row>
-    <row r="715" spans="3:8" ht="381.75">
+    <row r="715" spans="3:8" ht="380" x14ac:dyDescent="0.2">
       <c r="C715" s="1" t="s">
         <v>1990</v>
       </c>
@@ -28366,7 +28365,7 @@
         <v>44767.397939814815</v>
       </c>
     </row>
-    <row r="716" spans="3:8">
+    <row r="716" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C716" t="s">
         <v>1993</v>
       </c>
@@ -28383,7 +28382,7 @@
         <v>44767.432800925926</v>
       </c>
     </row>
-    <row r="717" spans="3:8" ht="409.6">
+    <row r="717" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C717" s="1" t="s">
         <v>1995</v>
       </c>
@@ -28401,7 +28400,7 @@
         <v>44767.436655092592</v>
       </c>
     </row>
-    <row r="718" spans="3:8" ht="396.75">
+    <row r="718" spans="3:8" ht="395" x14ac:dyDescent="0.2">
       <c r="C718" s="1" t="s">
         <v>1997</v>
       </c>
@@ -28419,7 +28418,7 @@
         <v>44767.463645833333</v>
       </c>
     </row>
-    <row r="719" spans="3:8" ht="409.6">
+    <row r="719" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C719" s="1" t="s">
         <v>2000</v>
       </c>
@@ -28437,7 +28436,7 @@
         <v>44767.467847222222</v>
       </c>
     </row>
-    <row r="720" spans="3:8">
+    <row r="720" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C720" t="s">
         <v>2003</v>
       </c>
@@ -28454,7 +28453,7 @@
         <v>44767.481574074074</v>
       </c>
     </row>
-    <row r="721" spans="3:8">
+    <row r="721" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C721" t="s">
         <v>2006</v>
       </c>
@@ -28471,7 +28470,7 @@
         <v>44767.574328703704</v>
       </c>
     </row>
-    <row r="722" spans="3:8" ht="321">
+    <row r="722" spans="3:8" ht="304" x14ac:dyDescent="0.2">
       <c r="C722" s="1" t="s">
         <v>2009</v>
       </c>
@@ -28489,7 +28488,7 @@
         <v>44767.578587962962</v>
       </c>
     </row>
-    <row r="723" spans="3:8">
+    <row r="723" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C723" t="s">
         <v>2011</v>
       </c>
@@ -28506,7 +28505,7 @@
         <v>44767.655752314815</v>
       </c>
     </row>
-    <row r="724" spans="3:8">
+    <row r="724" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C724" t="s">
         <v>2014</v>
       </c>
@@ -28523,7 +28522,7 @@
         <v>44767.66</v>
       </c>
     </row>
-    <row r="725" spans="3:8">
+    <row r="725" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C725" t="s">
         <v>2016</v>
       </c>
@@ -28540,7 +28539,7 @@
         <v>44767.661898148152</v>
       </c>
     </row>
-    <row r="726" spans="3:8" ht="259.5">
+    <row r="726" spans="3:8" ht="256" x14ac:dyDescent="0.2">
       <c r="C726" s="1" t="s">
         <v>2019</v>
       </c>
@@ -28558,7 +28557,7 @@
         <v>44767.676527777781</v>
       </c>
     </row>
-    <row r="727" spans="3:8" ht="137.25">
+    <row r="727" spans="3:8" ht="144" x14ac:dyDescent="0.2">
       <c r="C727" s="1" t="s">
         <v>2021</v>
       </c>
@@ -28576,7 +28575,7 @@
         <v>44767.680219907408</v>
       </c>
     </row>
-    <row r="728" spans="3:8" ht="409.6">
+    <row r="728" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C728" s="1" t="s">
         <v>2024</v>
       </c>
@@ -28594,7 +28593,7 @@
         <v>44767.692430555559</v>
       </c>
     </row>
-    <row r="729" spans="3:8" ht="76.5">
+    <row r="729" spans="3:8" ht="80" x14ac:dyDescent="0.2">
       <c r="C729" s="1" t="s">
         <v>2026</v>
       </c>
@@ -28612,7 +28611,7 @@
         <v>44767.704548611109</v>
       </c>
     </row>
-    <row r="730" spans="3:8">
+    <row r="730" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C730" t="s">
         <v>2028</v>
       </c>
@@ -28629,7 +28628,7 @@
         <v>44767.705671296295</v>
       </c>
     </row>
-    <row r="731" spans="3:8" ht="409.6">
+    <row r="731" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C731" s="1" t="s">
         <v>2031</v>
       </c>
@@ -28647,7 +28646,7 @@
         <v>44767.707754629628</v>
       </c>
     </row>
-    <row r="732" spans="3:8" ht="321">
+    <row r="732" spans="3:8" ht="304" x14ac:dyDescent="0.2">
       <c r="C732" s="1" t="s">
         <v>2034</v>
       </c>
@@ -28665,7 +28664,7 @@
         <v>44767.708634259259</v>
       </c>
     </row>
-    <row r="733" spans="3:8" ht="183">
+    <row r="733" spans="3:8" ht="176" x14ac:dyDescent="0.2">
       <c r="C733" s="1" t="s">
         <v>2036</v>
       </c>
@@ -28683,7 +28682,7 @@
         <v>44767.756053240744</v>
       </c>
     </row>
-    <row r="734" spans="3:8" ht="244.5">
+    <row r="734" spans="3:8" ht="208" x14ac:dyDescent="0.2">
       <c r="C734" s="1" t="s">
         <v>2039</v>
       </c>
@@ -28701,7 +28700,7 @@
         <v>44767.756192129629</v>
       </c>
     </row>
-    <row r="735" spans="3:8" ht="409.6">
+    <row r="735" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C735" s="1" t="s">
         <v>2041</v>
       </c>
@@ -28719,7 +28718,7 @@
         <v>44767.803657407407</v>
       </c>
     </row>
-    <row r="736" spans="3:8">
+    <row r="736" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C736" t="s">
         <v>2043</v>
       </c>
@@ -28736,7 +28735,7 @@
         <v>44767.843958333331</v>
       </c>
     </row>
-    <row r="737" spans="3:8" ht="137.25">
+    <row r="737" spans="3:8" ht="128" x14ac:dyDescent="0.2">
       <c r="C737" s="1" t="s">
         <v>2046</v>
       </c>
@@ -28754,7 +28753,7 @@
         <v>44767.895474537036</v>
       </c>
     </row>
-    <row r="738" spans="3:8" ht="409.6">
+    <row r="738" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C738" s="1" t="s">
         <v>2049</v>
       </c>
@@ -28772,7 +28771,7 @@
         <v>44767.964236111111</v>
       </c>
     </row>
-    <row r="739" spans="3:8" ht="244.5">
+    <row r="739" spans="3:8" ht="224" x14ac:dyDescent="0.2">
       <c r="C739" s="1" t="s">
         <v>2052</v>
       </c>
@@ -28790,7 +28789,7 @@
         <v>44768.076261574075</v>
       </c>
     </row>
-    <row r="740" spans="3:8" ht="409.6">
+    <row r="740" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C740" s="1" t="s">
         <v>2055</v>
       </c>
@@ -28808,7 +28807,7 @@
         <v>44768.084293981483</v>
       </c>
     </row>
-    <row r="741" spans="3:8" ht="198">
+    <row r="741" spans="3:8" ht="192" x14ac:dyDescent="0.2">
       <c r="C741" s="1" t="s">
         <v>2058</v>
       </c>
@@ -28826,7 +28825,7 @@
         <v>44768.089930555558</v>
       </c>
     </row>
-    <row r="742" spans="3:8" ht="409.6">
+    <row r="742" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C742" s="1" t="s">
         <v>2060</v>
       </c>
@@ -28844,7 +28843,7 @@
         <v>44768.118541666663</v>
       </c>
     </row>
-    <row r="743" spans="3:8" ht="229.5">
+    <row r="743" spans="3:8" ht="224" x14ac:dyDescent="0.2">
       <c r="C743" s="1" t="s">
         <v>2063</v>
       </c>
@@ -28862,7 +28861,7 @@
         <v>44768.258946759262</v>
       </c>
     </row>
-    <row r="744" spans="3:8" ht="213">
+    <row r="744" spans="3:8" ht="240" x14ac:dyDescent="0.2">
       <c r="C744" s="1" t="s">
         <v>2066</v>
       </c>
@@ -28880,7 +28879,7 @@
         <v>44768.261203703703</v>
       </c>
     </row>
-    <row r="745" spans="3:8" ht="409.6">
+    <row r="745" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C745" s="1" t="s">
         <v>2069</v>
       </c>
@@ -28898,7 +28897,7 @@
         <v>44768.359826388885</v>
       </c>
     </row>
-    <row r="746" spans="3:8" ht="244.5">
+    <row r="746" spans="3:8" ht="240" x14ac:dyDescent="0.2">
       <c r="C746" s="1" t="s">
         <v>2072</v>
       </c>
@@ -28916,7 +28915,7 @@
         <v>44768.404108796298</v>
       </c>
     </row>
-    <row r="747" spans="3:8" ht="244.5">
+    <row r="747" spans="3:8" ht="256" x14ac:dyDescent="0.2">
       <c r="C747" s="1" t="s">
         <v>2074</v>
       </c>
@@ -28934,7 +28933,7 @@
         <v>44768.43608796296</v>
       </c>
     </row>
-    <row r="748" spans="3:8" ht="183">
+    <row r="748" spans="3:8" ht="160" x14ac:dyDescent="0.2">
       <c r="C748" s="1" t="s">
         <v>2076</v>
       </c>
@@ -28952,7 +28951,7 @@
         <v>44768.438483796293</v>
       </c>
     </row>
-    <row r="749" spans="3:8" ht="137.25">
+    <row r="749" spans="3:8" ht="128" x14ac:dyDescent="0.2">
       <c r="C749" s="1" t="s">
         <v>2079</v>
       </c>
@@ -28970,7 +28969,7 @@
         <v>44768.452291666668</v>
       </c>
     </row>
-    <row r="750" spans="3:8" ht="259.5">
+    <row r="750" spans="3:8" ht="272" x14ac:dyDescent="0.2">
       <c r="C750" s="1" t="s">
         <v>2082</v>
       </c>
@@ -28988,7 +28987,7 @@
         <v>44768.48883101852</v>
       </c>
     </row>
-    <row r="751" spans="3:8" ht="409.6">
+    <row r="751" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C751" s="1" t="s">
         <v>2085</v>
       </c>
@@ -29006,7 +29005,7 @@
         <v>44768.512256944443</v>
       </c>
     </row>
-    <row r="752" spans="3:8" ht="290.25">
+    <row r="752" spans="3:8" ht="272" x14ac:dyDescent="0.2">
       <c r="C752" s="1" t="s">
         <v>2088</v>
       </c>
@@ -29024,7 +29023,7 @@
         <v>44768.55259259259</v>
       </c>
     </row>
-    <row r="753" spans="3:8" ht="244.5">
+    <row r="753" spans="3:8" ht="240" x14ac:dyDescent="0.2">
       <c r="C753" s="1" t="s">
         <v>2090</v>
       </c>
@@ -29042,7 +29041,7 @@
         <v>44768.564386574071</v>
       </c>
     </row>
-    <row r="754" spans="3:8" ht="409.6">
+    <row r="754" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C754" s="1" t="s">
         <v>2093</v>
       </c>
@@ -29060,7 +29059,7 @@
         <v>44768.580416666664</v>
       </c>
     </row>
-    <row r="755" spans="3:8" ht="121.5">
+    <row r="755" spans="3:8" ht="144" x14ac:dyDescent="0.2">
       <c r="C755" s="1" t="s">
         <v>2095</v>
       </c>
@@ -29078,7 +29077,7 @@
         <v>44768.584189814814</v>
       </c>
     </row>
-    <row r="756" spans="3:8">
+    <row r="756" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C756" t="s">
         <v>2098</v>
       </c>
@@ -29095,7 +29094,7 @@
         <v>44768.618564814817</v>
       </c>
     </row>
-    <row r="757" spans="3:8" ht="409.6">
+    <row r="757" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C757" s="1" t="s">
         <v>2101</v>
       </c>
@@ -29113,7 +29112,7 @@
         <v>44768.683900462966</v>
       </c>
     </row>
-    <row r="758" spans="3:8" ht="409.6">
+    <row r="758" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C758" s="1" t="s">
         <v>2103</v>
       </c>
@@ -29131,7 +29130,7 @@
         <v>44768.729108796295</v>
       </c>
     </row>
-    <row r="759" spans="3:8" ht="409.6">
+    <row r="759" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C759" s="1" t="s">
         <v>2105</v>
       </c>
@@ -29149,7 +29148,7 @@
         <v>44768.748796296299</v>
       </c>
     </row>
-    <row r="760" spans="3:8" ht="213">
+    <row r="760" spans="3:8" ht="192" x14ac:dyDescent="0.2">
       <c r="C760" s="1" t="s">
         <v>2108</v>
       </c>
@@ -29167,7 +29166,7 @@
         <v>44768.758726851855</v>
       </c>
     </row>
-    <row r="761" spans="3:8" ht="229.5">
+    <row r="761" spans="3:8" ht="208" x14ac:dyDescent="0.2">
       <c r="C761" s="1" t="s">
         <v>2111</v>
       </c>
@@ -29185,7 +29184,7 @@
         <v>44768.791342592594</v>
       </c>
     </row>
-    <row r="762" spans="3:8" ht="409.6">
+    <row r="762" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C762" s="1" t="s">
         <v>2114</v>
       </c>
@@ -29203,7 +29202,7 @@
         <v>44768.819537037038</v>
       </c>
     </row>
-    <row r="763" spans="3:8" ht="351">
+    <row r="763" spans="3:8" ht="335" x14ac:dyDescent="0.2">
       <c r="C763" s="1" t="s">
         <v>2117</v>
       </c>
@@ -29221,7 +29220,7 @@
         <v>44768.832141203704</v>
       </c>
     </row>
-    <row r="764" spans="3:8" ht="106.5">
+    <row r="764" spans="3:8" ht="112" x14ac:dyDescent="0.2">
       <c r="C764" s="1" t="s">
         <v>2120</v>
       </c>
@@ -29239,7 +29238,7 @@
         <v>44768.848935185182</v>
       </c>
     </row>
-    <row r="765" spans="3:8" ht="409.6">
+    <row r="765" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C765" s="1" t="s">
         <v>2123</v>
       </c>
@@ -29257,7 +29256,7 @@
         <v>44768.88853009259</v>
       </c>
     </row>
-    <row r="766" spans="3:8" ht="167.25">
+    <row r="766" spans="3:8" ht="176" x14ac:dyDescent="0.2">
       <c r="C766" s="1" t="s">
         <v>2126</v>
       </c>
@@ -29275,7 +29274,7 @@
         <v>44768.964016203703</v>
       </c>
     </row>
-    <row r="767" spans="3:8" ht="409.6">
+    <row r="767" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C767" s="1" t="s">
         <v>2129</v>
       </c>
@@ -29293,7 +29292,7 @@
         <v>44769.00990740741</v>
       </c>
     </row>
-    <row r="768" spans="3:8" ht="409.6">
+    <row r="768" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C768" s="1" t="s">
         <v>2132</v>
       </c>
@@ -29311,7 +29310,7 @@
         <v>44769.010370370372</v>
       </c>
     </row>
-    <row r="769" spans="3:8" ht="409.6">
+    <row r="769" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C769" s="1" t="s">
         <v>2134</v>
       </c>
@@ -29329,7 +29328,7 @@
         <v>44769.018530092595</v>
       </c>
     </row>
-    <row r="770" spans="3:8" ht="409.6">
+    <row r="770" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C770" s="1" t="s">
         <v>2137</v>
       </c>
@@ -29347,7 +29346,7 @@
         <v>44769.044988425929</v>
       </c>
     </row>
-    <row r="771" spans="3:8" ht="106.5">
+    <row r="771" spans="3:8" ht="96" x14ac:dyDescent="0.2">
       <c r="C771" s="1" t="s">
         <v>2140</v>
       </c>
@@ -29365,7 +29364,7 @@
         <v>44769.067997685182</v>
       </c>
     </row>
-    <row r="772" spans="3:8" ht="198">
+    <row r="772" spans="3:8" ht="192" x14ac:dyDescent="0.2">
       <c r="C772" s="1" t="s">
         <v>2143</v>
       </c>
@@ -29383,7 +29382,7 @@
         <v>44769.070104166669</v>
       </c>
     </row>
-    <row r="773" spans="3:8" ht="409.6">
+    <row r="773" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C773" s="1" t="s">
         <v>2146</v>
       </c>
@@ -29401,7 +29400,7 @@
         <v>44769.071840277778</v>
       </c>
     </row>
-    <row r="774" spans="3:8" ht="91.5">
+    <row r="774" spans="3:8" ht="96" x14ac:dyDescent="0.2">
       <c r="C774" s="1" t="s">
         <v>2149</v>
       </c>
@@ -29419,7 +29418,7 @@
         <v>44769.083171296297</v>
       </c>
     </row>
-    <row r="775" spans="3:8" ht="106.5">
+    <row r="775" spans="3:8" ht="96" x14ac:dyDescent="0.2">
       <c r="C775" s="1" t="s">
         <v>2151</v>
       </c>
@@ -29437,7 +29436,7 @@
         <v>44769.085474537038</v>
       </c>
     </row>
-    <row r="776" spans="3:8" ht="76.5">
+    <row r="776" spans="3:8" ht="80" x14ac:dyDescent="0.2">
       <c r="C776" s="1" t="s">
         <v>2154</v>
       </c>
@@ -29455,7 +29454,7 @@
         <v>44769.090868055559</v>
       </c>
     </row>
-    <row r="777" spans="3:8" ht="152.25">
+    <row r="777" spans="3:8" ht="128" x14ac:dyDescent="0.2">
       <c r="C777" s="1" t="s">
         <v>2156</v>
       </c>
@@ -29473,7 +29472,7 @@
         <v>44769.10533564815</v>
       </c>
     </row>
-    <row r="778" spans="3:8" ht="198">
+    <row r="778" spans="3:8" ht="192" x14ac:dyDescent="0.2">
       <c r="C778" s="1" t="s">
         <v>2158</v>
       </c>
@@ -29491,7 +29490,7 @@
         <v>44769.110312500001</v>
       </c>
     </row>
-    <row r="779" spans="3:8" ht="409.6">
+    <row r="779" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C779" s="1" t="s">
         <v>2161</v>
       </c>
@@ -29509,7 +29508,7 @@
         <v>44769.195474537039</v>
       </c>
     </row>
-    <row r="780" spans="3:8" ht="167.25">
+    <row r="780" spans="3:8" ht="160" x14ac:dyDescent="0.2">
       <c r="C780" s="1" t="s">
         <v>2163</v>
       </c>
@@ -29527,7 +29526,7 @@
         <v>44769.261886574073</v>
       </c>
     </row>
-    <row r="781" spans="3:8" ht="409.6">
+    <row r="781" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C781" s="1" t="s">
         <v>2165</v>
       </c>
@@ -29545,7 +29544,7 @@
         <v>44769.332604166666</v>
       </c>
     </row>
-    <row r="782" spans="3:8" ht="167.25">
+    <row r="782" spans="3:8" ht="176" x14ac:dyDescent="0.2">
       <c r="C782" s="1" t="s">
         <v>2168</v>
       </c>
@@ -29563,7 +29562,7 @@
         <v>44769.34957175926</v>
       </c>
     </row>
-    <row r="783" spans="3:8" ht="45.75">
+    <row r="783" spans="3:8" ht="48" x14ac:dyDescent="0.2">
       <c r="C783" s="1" t="s">
         <v>2170</v>
       </c>
@@ -29581,7 +29580,7 @@
         <v>44769.360659722224</v>
       </c>
     </row>
-    <row r="784" spans="3:8">
+    <row r="784" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C784" t="s">
         <v>72</v>
       </c>
@@ -29598,7 +29597,7 @@
         <v>44769.367546296293</v>
       </c>
     </row>
-    <row r="785" spans="3:8" ht="152.25">
+    <row r="785" spans="3:8" ht="160" x14ac:dyDescent="0.2">
       <c r="C785" s="1" t="s">
         <v>2173</v>
       </c>
@@ -29616,7 +29615,7 @@
         <v>44769.370555555557</v>
       </c>
     </row>
-    <row r="786" spans="3:8" ht="213">
+    <row r="786" spans="3:8" ht="224" x14ac:dyDescent="0.2">
       <c r="C786" s="1" t="s">
         <v>2175</v>
       </c>
@@ -29634,7 +29633,7 @@
         <v>44769.378703703704</v>
       </c>
     </row>
-    <row r="787" spans="3:8" ht="409.6">
+    <row r="787" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C787" s="1" t="s">
         <v>2177</v>
       </c>
@@ -29652,7 +29651,7 @@
         <v>44769.393611111111</v>
       </c>
     </row>
-    <row r="788" spans="3:8" ht="183">
+    <row r="788" spans="3:8" ht="176" x14ac:dyDescent="0.2">
       <c r="C788" s="1" t="s">
         <v>2179</v>
       </c>
@@ -29670,7 +29669,7 @@
         <v>44769.399930555555</v>
       </c>
     </row>
-    <row r="789" spans="3:8" ht="229.5">
+    <row r="789" spans="3:8" ht="224" x14ac:dyDescent="0.2">
       <c r="C789" s="1" t="s">
         <v>2182</v>
       </c>
@@ -29688,7 +29687,7 @@
         <v>44769.406585648147</v>
       </c>
     </row>
-    <row r="790" spans="3:8" ht="381.75">
+    <row r="790" spans="3:8" ht="365" x14ac:dyDescent="0.2">
       <c r="C790" s="1" t="s">
         <v>2185</v>
       </c>
@@ -29706,7 +29705,7 @@
         <v>44769.412187499998</v>
       </c>
     </row>
-    <row r="791" spans="3:8" ht="91.5">
+    <row r="791" spans="3:8" ht="96" x14ac:dyDescent="0.2">
       <c r="C791" s="1" t="s">
         <v>2188</v>
       </c>
@@ -29724,7 +29723,7 @@
         <v>44769.41983796296</v>
       </c>
     </row>
-    <row r="792" spans="3:8" ht="152.25">
+    <row r="792" spans="3:8" ht="160" x14ac:dyDescent="0.2">
       <c r="C792" s="1" t="s">
         <v>2191</v>
       </c>
@@ -29742,7 +29741,7 @@
         <v>44769.4218287037</v>
       </c>
     </row>
-    <row r="793" spans="3:8" ht="259.5">
+    <row r="793" spans="3:8" ht="256" x14ac:dyDescent="0.2">
       <c r="C793" s="1" t="s">
         <v>2194</v>
       </c>
@@ -29760,7 +29759,7 @@
         <v>44769.459756944445</v>
       </c>
     </row>
-    <row r="794" spans="3:8" ht="409.6">
+    <row r="794" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C794" s="1" t="s">
         <v>2196</v>
       </c>
@@ -29778,7 +29777,7 @@
         <v>44769.4996875</v>
       </c>
     </row>
-    <row r="795" spans="3:8" ht="409.6">
+    <row r="795" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C795" s="1" t="s">
         <v>2199</v>
       </c>
@@ -29796,7 +29795,7 @@
         <v>44769.504606481481</v>
       </c>
     </row>
-    <row r="796" spans="3:8" ht="137.25">
+    <row r="796" spans="3:8" ht="144" x14ac:dyDescent="0.2">
       <c r="C796" s="1" t="s">
         <v>2201</v>
       </c>
@@ -29814,7 +29813,7 @@
         <v>44769.506608796299</v>
       </c>
     </row>
-    <row r="797" spans="3:8" ht="409.6">
+    <row r="797" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C797" s="1" t="s">
         <v>2203</v>
       </c>
@@ -29832,7 +29831,7 @@
         <v>44769.509016203701</v>
       </c>
     </row>
-    <row r="798" spans="3:8" ht="229.5">
+    <row r="798" spans="3:8" ht="240" x14ac:dyDescent="0.2">
       <c r="C798" s="1" t="s">
         <v>2205</v>
       </c>
@@ -29850,7 +29849,7 @@
         <v>44769.517905092594</v>
       </c>
     </row>
-    <row r="799" spans="3:8" ht="259.5">
+    <row r="799" spans="3:8" ht="272" x14ac:dyDescent="0.2">
       <c r="C799" s="1" t="s">
         <v>2207</v>
       </c>
@@ -29868,7 +29867,7 @@
         <v>44769.523009259261</v>
       </c>
     </row>
-    <row r="800" spans="3:8" ht="381.75">
+    <row r="800" spans="3:8" ht="395" x14ac:dyDescent="0.2">
       <c r="C800" s="1" t="s">
         <v>2209</v>
       </c>
@@ -29886,7 +29885,7 @@
         <v>44769.530509259261</v>
       </c>
     </row>
-    <row r="801" spans="3:8" ht="409.6">
+    <row r="801" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C801" s="1" t="s">
         <v>2211</v>
       </c>
@@ -29904,7 +29903,7 @@
         <v>44769.535671296297</v>
       </c>
     </row>
-    <row r="802" spans="3:8">
+    <row r="802" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C802" t="s">
         <v>2213</v>
       </c>
@@ -29921,7 +29920,7 @@
         <v>44769.539837962962</v>
       </c>
     </row>
-    <row r="803" spans="3:8">
+    <row r="803" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C803" t="s">
         <v>2216</v>
       </c>
@@ -29938,7 +29937,7 @@
         <v>44769.547743055555</v>
       </c>
     </row>
-    <row r="804" spans="3:8" ht="198">
+    <row r="804" spans="3:8" ht="176" x14ac:dyDescent="0.2">
       <c r="C804" s="1" t="s">
         <v>2218</v>
       </c>
@@ -29956,7 +29955,7 @@
         <v>44769.550613425927</v>
       </c>
     </row>
-    <row r="805" spans="3:8" ht="409.6">
+    <row r="805" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C805" s="1" t="s">
         <v>2220</v>
       </c>
@@ -29974,7 +29973,7 @@
         <v>44769.57708333333</v>
       </c>
     </row>
-    <row r="806" spans="3:8" ht="91.5">
+    <row r="806" spans="3:8" ht="96" x14ac:dyDescent="0.2">
       <c r="C806" s="1" t="s">
         <v>2223</v>
       </c>
@@ -29992,7 +29991,7 @@
         <v>44769.587685185186</v>
       </c>
     </row>
-    <row r="807" spans="3:8" ht="409.6">
+    <row r="807" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C807" s="1" t="s">
         <v>2226</v>
       </c>
@@ -30010,7 +30009,7 @@
         <v>44769.596990740742</v>
       </c>
     </row>
-    <row r="808" spans="3:8" ht="91.5">
+    <row r="808" spans="3:8" ht="96" x14ac:dyDescent="0.2">
       <c r="C808" s="1" t="s">
         <v>2228</v>
       </c>
@@ -30028,7 +30027,7 @@
         <v>44769.597615740742</v>
       </c>
     </row>
-    <row r="809" spans="3:8" ht="409.6">
+    <row r="809" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C809" s="1" t="s">
         <v>2230</v>
       </c>
@@ -30046,7 +30045,7 @@
         <v>44769.606747685182</v>
       </c>
     </row>
-    <row r="810" spans="3:8" ht="60.75">
+    <row r="810" spans="3:8" ht="48" x14ac:dyDescent="0.2">
       <c r="C810" s="1" t="s">
         <v>2232</v>
       </c>
@@ -30064,7 +30063,7 @@
         <v>44769.619849537034</v>
       </c>
     </row>
-    <row r="811" spans="3:8" ht="409.6">
+    <row r="811" spans="3:8" ht="395" x14ac:dyDescent="0.2">
       <c r="C811" s="1" t="s">
         <v>2235</v>
       </c>
@@ -30082,7 +30081,7 @@
         <v>44769.644999999997</v>
       </c>
     </row>
-    <row r="812" spans="3:8" ht="137.25">
+    <row r="812" spans="3:8" ht="144" x14ac:dyDescent="0.2">
       <c r="C812" s="1" t="s">
         <v>2237</v>
       </c>
@@ -30100,7 +30099,7 @@
         <v>44769.699513888889</v>
       </c>
     </row>
-    <row r="813" spans="3:8" ht="409.6">
+    <row r="813" spans="3:8" ht="395" x14ac:dyDescent="0.2">
       <c r="C813" s="1" t="s">
         <v>2240</v>
       </c>
@@ -30118,7 +30117,7 @@
         <v>44769.708923611113</v>
       </c>
     </row>
-    <row r="814" spans="3:8" ht="409.6">
+    <row r="814" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C814" s="1" t="s">
         <v>2243</v>
       </c>
@@ -30136,7 +30135,7 @@
         <v>44769.737673611111</v>
       </c>
     </row>
-    <row r="815" spans="3:8" ht="409.6">
+    <row r="815" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C815" s="1" t="s">
         <v>2245</v>
       </c>
@@ -30154,7 +30153,7 @@
         <v>44769.766759259262</v>
       </c>
     </row>
-    <row r="816" spans="3:8" ht="121.5">
+    <row r="816" spans="3:8" ht="128" x14ac:dyDescent="0.2">
       <c r="C816" s="1" t="s">
         <v>2247</v>
       </c>
@@ -30172,7 +30171,7 @@
         <v>44769.771469907406</v>
       </c>
     </row>
-    <row r="817" spans="3:8" ht="336">
+    <row r="817" spans="3:8" ht="335" x14ac:dyDescent="0.2">
       <c r="C817" s="1" t="s">
         <v>2250</v>
       </c>
@@ -30190,7 +30189,7 @@
         <v>44769.778333333335</v>
       </c>
     </row>
-    <row r="818" spans="3:8" ht="106.5">
+    <row r="818" spans="3:8" ht="112" x14ac:dyDescent="0.2">
       <c r="C818" s="1" t="s">
         <v>2252</v>
       </c>
@@ -30208,7 +30207,7 @@
         <v>44769.7968287037</v>
       </c>
     </row>
-    <row r="819" spans="3:8" ht="409.6">
+    <row r="819" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C819" s="1" t="s">
         <v>2254</v>
       </c>
@@ -30226,7 +30225,7 @@
         <v>44769.80605324074</v>
       </c>
     </row>
-    <row r="820" spans="3:8" ht="409.6">
+    <row r="820" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C820" s="1" t="s">
         <v>2257</v>
       </c>
@@ -30244,7 +30243,7 @@
         <v>44769.817476851851</v>
       </c>
     </row>
-    <row r="821" spans="3:8" ht="409.6">
+    <row r="821" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C821" s="1" t="s">
         <v>2260</v>
       </c>
@@ -30262,7 +30261,7 @@
         <v>44769.818726851852</v>
       </c>
     </row>
-    <row r="822" spans="3:8" ht="409.6">
+    <row r="822" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C822" s="1" t="s">
         <v>2262</v>
       </c>
@@ -30280,7 +30279,7 @@
         <v>44769.830451388887</v>
       </c>
     </row>
-    <row r="823" spans="3:8" ht="409.6">
+    <row r="823" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C823" s="1" t="s">
         <v>2264</v>
       </c>
@@ -30298,7 +30297,7 @@
         <v>44769.86928240741</v>
       </c>
     </row>
-    <row r="824" spans="3:8" ht="213">
+    <row r="824" spans="3:8" ht="208" x14ac:dyDescent="0.2">
       <c r="C824" s="1" t="s">
         <v>2266</v>
       </c>
@@ -30316,7 +30315,7 @@
         <v>44769.871979166666</v>
       </c>
     </row>
-    <row r="825" spans="3:8" ht="409.6">
+    <row r="825" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C825" s="1" t="s">
         <v>2268</v>
       </c>
@@ -30334,7 +30333,7 @@
         <v>44769.894965277781</v>
       </c>
     </row>
-    <row r="826" spans="3:8" ht="366">
+    <row r="826" spans="3:8" ht="365" x14ac:dyDescent="0.2">
       <c r="C826" s="1" t="s">
         <v>2270</v>
       </c>
@@ -30352,7 +30351,7 @@
         <v>44769.947511574072</v>
       </c>
     </row>
-    <row r="827" spans="3:8" ht="106.5">
+    <row r="827" spans="3:8" ht="96" x14ac:dyDescent="0.2">
       <c r="C827" s="1" t="s">
         <v>2272</v>
       </c>
@@ -30370,7 +30369,7 @@
         <v>44769.987581018519</v>
       </c>
     </row>
-    <row r="828" spans="3:8" ht="409.6">
+    <row r="828" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C828" s="1" t="s">
         <v>2275</v>
       </c>
@@ -30388,7 +30387,7 @@
         <v>44769.987870370373</v>
       </c>
     </row>
-    <row r="829" spans="3:8" ht="259.5">
+    <row r="829" spans="3:8" ht="256" x14ac:dyDescent="0.2">
       <c r="C829" s="1" t="s">
         <v>2277</v>
       </c>
@@ -30406,7 +30405,7 @@
         <v>44769.988634259258</v>
       </c>
     </row>
-    <row r="830" spans="3:8" ht="409.6">
+    <row r="830" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C830" s="1" t="s">
         <v>2280</v>
       </c>
@@ -30424,7 +30423,7 @@
         <v>44769.997812499998</v>
       </c>
     </row>
-    <row r="831" spans="3:8" ht="409.6">
+    <row r="831" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C831" s="1" t="s">
         <v>2283</v>
       </c>
@@ -30442,7 +30441,7 @@
         <v>44769.999699074076</v>
       </c>
     </row>
-    <row r="832" spans="3:8" ht="290.25">
+    <row r="832" spans="3:8" ht="272" x14ac:dyDescent="0.2">
       <c r="C832" s="1" t="s">
         <v>2286</v>
       </c>
@@ -30460,7 +30459,7 @@
         <v>44770.003194444442</v>
       </c>
     </row>
-    <row r="833" spans="3:8" ht="259.5">
+    <row r="833" spans="3:8" ht="240" x14ac:dyDescent="0.2">
       <c r="C833" s="1" t="s">
         <v>2288</v>
       </c>
@@ -30478,7 +30477,7 @@
         <v>44770.007060185184</v>
       </c>
     </row>
-    <row r="834" spans="3:8" ht="244.5">
+    <row r="834" spans="3:8" ht="224" x14ac:dyDescent="0.2">
       <c r="C834" s="1" t="s">
         <v>2291</v>
       </c>
@@ -30496,7 +30495,7 @@
         <v>44770.011874999997</v>
       </c>
     </row>
-    <row r="835" spans="3:8" ht="137.25">
+    <row r="835" spans="3:8" ht="112" x14ac:dyDescent="0.2">
       <c r="C835" s="1" t="s">
         <v>2294</v>
       </c>
@@ -30514,7 +30513,7 @@
         <v>44770.011932870373</v>
       </c>
     </row>
-    <row r="836" spans="3:8" ht="106.5">
+    <row r="836" spans="3:8" ht="96" x14ac:dyDescent="0.2">
       <c r="C836" s="1" t="s">
         <v>2296</v>
       </c>
@@ -30532,7 +30531,7 @@
         <v>44770.026608796295</v>
       </c>
     </row>
-    <row r="837" spans="3:8">
+    <row r="837" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C837" t="s">
         <v>2299</v>
       </c>
@@ -30549,7 +30548,7 @@
         <v>44770.033703703702</v>
       </c>
     </row>
-    <row r="838" spans="3:8" ht="366">
+    <row r="838" spans="3:8" ht="350" x14ac:dyDescent="0.2">
       <c r="C838" s="1" t="s">
         <v>2301</v>
       </c>
@@ -30567,7 +30566,7 @@
         <v>44770.034074074072</v>
       </c>
     </row>
-    <row r="839" spans="3:8" ht="409.6">
+    <row r="839" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C839" s="1" t="s">
         <v>2303</v>
       </c>
@@ -30585,7 +30584,7 @@
         <v>44770.04146990741</v>
       </c>
     </row>
-    <row r="840" spans="3:8" ht="409.6">
+    <row r="840" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C840" s="1" t="s">
         <v>2305</v>
       </c>
@@ -30603,7 +30602,7 @@
         <v>44770.053749999999</v>
       </c>
     </row>
-    <row r="841" spans="3:8" ht="409.6">
+    <row r="841" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C841" s="1" t="s">
         <v>2307</v>
       </c>
@@ -30621,7 +30620,7 @@
         <v>44770.069918981484</v>
       </c>
     </row>
-    <row r="842" spans="3:8">
+    <row r="842" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C842" t="s">
         <v>2309</v>
       </c>
@@ -30638,7 +30637,7 @@
         <v>44770.071736111109</v>
       </c>
     </row>
-    <row r="843" spans="3:8" ht="381.75">
+    <row r="843" spans="3:8" ht="380" x14ac:dyDescent="0.2">
       <c r="C843" s="1" t="s">
         <v>2312</v>
       </c>
@@ -30656,7 +30655,7 @@
         <v>44770.072939814818</v>
       </c>
     </row>
-    <row r="844" spans="3:8">
+    <row r="844" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C844" t="s">
         <v>2314</v>
       </c>
@@ -30673,7 +30672,7 @@
         <v>44770.075300925928</v>
       </c>
     </row>
-    <row r="845" spans="3:8">
+    <row r="845" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C845" t="s">
         <v>2316</v>
       </c>
@@ -30690,7 +30689,7 @@
         <v>44770.092361111114</v>
       </c>
     </row>
-    <row r="846" spans="3:8" ht="213">
+    <row r="846" spans="3:8" ht="224" x14ac:dyDescent="0.2">
       <c r="C846" s="1" t="s">
         <v>2318</v>
       </c>
@@ -30708,7 +30707,7 @@
         <v>44770.109363425923</v>
       </c>
     </row>
-    <row r="847" spans="3:8" ht="121.5">
+    <row r="847" spans="3:8" ht="128" x14ac:dyDescent="0.2">
       <c r="C847" s="1" t="s">
         <v>2321</v>
       </c>
@@ -30726,7 +30725,7 @@
         <v>44770.112430555557</v>
       </c>
     </row>
-    <row r="848" spans="3:8" ht="396.75">
+    <row r="848" spans="3:8" ht="380" x14ac:dyDescent="0.2">
       <c r="C848" s="1" t="s">
         <v>2323</v>
       </c>
@@ -30744,7 +30743,7 @@
         <v>44770.14570601852</v>
       </c>
     </row>
-    <row r="849" spans="3:8">
+    <row r="849" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C849" t="s">
         <v>2325</v>
       </c>
@@ -30761,7 +30760,7 @@
         <v>44770.237881944442</v>
       </c>
     </row>
-    <row r="850" spans="3:8" ht="244.5">
+    <row r="850" spans="3:8" ht="240" x14ac:dyDescent="0.2">
       <c r="C850" s="1" t="s">
         <v>2328</v>
       </c>
@@ -30779,7 +30778,7 @@
         <v>44770.30300925926</v>
       </c>
     </row>
-    <row r="851" spans="3:8" ht="244.5">
+    <row r="851" spans="3:8" ht="240" x14ac:dyDescent="0.2">
       <c r="C851" s="1" t="s">
         <v>2330</v>
       </c>
@@ -30797,7 +30796,7 @@
         <v>44770.323113425926</v>
       </c>
     </row>
-    <row r="852" spans="3:8" ht="259.5">
+    <row r="852" spans="3:8" ht="256" x14ac:dyDescent="0.2">
       <c r="C852" s="1" t="s">
         <v>2332</v>
       </c>
@@ -30815,7 +30814,7 @@
         <v>44770.352129629631</v>
       </c>
     </row>
-    <row r="853" spans="3:8" ht="290.25">
+    <row r="853" spans="3:8" ht="288" x14ac:dyDescent="0.2">
       <c r="C853" s="1" t="s">
         <v>2334</v>
       </c>
@@ -30833,7 +30832,7 @@
         <v>44770.358298611114</v>
       </c>
     </row>
-    <row r="854" spans="3:8" ht="229.5">
+    <row r="854" spans="3:8" ht="224" x14ac:dyDescent="0.2">
       <c r="C854" s="1" t="s">
         <v>2336</v>
       </c>
@@ -30851,7 +30850,7 @@
         <v>44770.360810185186</v>
       </c>
     </row>
-    <row r="855" spans="3:8" ht="106.5">
+    <row r="855" spans="3:8" ht="96" x14ac:dyDescent="0.2">
       <c r="C855" s="1" t="s">
         <v>2338</v>
       </c>
@@ -30869,7 +30868,7 @@
         <v>44770.400405092594</v>
       </c>
     </row>
-    <row r="856" spans="3:8" ht="396.75">
+    <row r="856" spans="3:8" ht="365" x14ac:dyDescent="0.2">
       <c r="C856" s="1" t="s">
         <v>2341</v>
       </c>
@@ -30887,7 +30886,7 @@
         <v>44770.420613425929</v>
       </c>
     </row>
-    <row r="857" spans="3:8" ht="259.5">
+    <row r="857" spans="3:8" ht="272" x14ac:dyDescent="0.2">
       <c r="C857" s="1" t="s">
         <v>2344</v>
       </c>
@@ -30905,7 +30904,7 @@
         <v>44770.452245370368</v>
       </c>
     </row>
-    <row r="858" spans="3:8" ht="106.5">
+    <row r="858" spans="3:8" ht="112" x14ac:dyDescent="0.2">
       <c r="C858" s="1" t="s">
         <v>2347</v>
       </c>
@@ -30923,7 +30922,7 @@
         <v>44770.462395833332</v>
       </c>
     </row>
-    <row r="859" spans="3:8" ht="259.5">
+    <row r="859" spans="3:8" ht="256" x14ac:dyDescent="0.2">
       <c r="C859" s="1" t="s">
         <v>2349</v>
       </c>
@@ -30941,7 +30940,7 @@
         <v>44770.476331018515</v>
       </c>
     </row>
-    <row r="860" spans="3:8">
+    <row r="860" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C860" t="s">
         <v>2352</v>
       </c>
@@ -30958,7 +30957,7 @@
         <v>44770.481863425928</v>
       </c>
     </row>
-    <row r="861" spans="3:8" ht="409.6">
+    <row r="861" spans="3:8" ht="395" x14ac:dyDescent="0.2">
       <c r="C861" s="1" t="s">
         <v>2355</v>
       </c>
@@ -30976,7 +30975,7 @@
         <v>44770.499930555554</v>
       </c>
     </row>
-    <row r="862" spans="3:8" ht="121.5">
+    <row r="862" spans="3:8" ht="128" x14ac:dyDescent="0.2">
       <c r="C862" s="1" t="s">
         <v>2357</v>
       </c>
@@ -30994,7 +30993,7 @@
         <v>44770.511192129627</v>
       </c>
     </row>
-    <row r="863" spans="3:8" ht="409.6">
+    <row r="863" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C863" s="1" t="s">
         <v>2360</v>
       </c>
@@ -31012,7 +31011,7 @@
         <v>44770.514444444445</v>
       </c>
     </row>
-    <row r="864" spans="3:8" ht="409.6">
+    <row r="864" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C864" s="1" t="s">
         <v>2362</v>
       </c>
@@ -31030,7 +31029,7 @@
         <v>44770.565023148149</v>
       </c>
     </row>
-    <row r="865" spans="3:8" ht="45.75">
+    <row r="865" spans="3:8" ht="48" x14ac:dyDescent="0.2">
       <c r="C865" s="1" t="s">
         <v>2364</v>
       </c>
@@ -31048,7 +31047,7 @@
         <v>44770.58016203704</v>
       </c>
     </row>
-    <row r="866" spans="3:8">
+    <row r="866" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C866" t="s">
         <v>2367</v>
       </c>
@@ -31065,7 +31064,7 @@
         <v>44770.745509259257</v>
       </c>
     </row>
-    <row r="867" spans="3:8" ht="305.25">
+    <row r="867" spans="3:8" ht="320" x14ac:dyDescent="0.2">
       <c r="C867" s="1" t="s">
         <v>2370</v>
       </c>
@@ -31083,7 +31082,7 @@
         <v>44770.756886574076</v>
       </c>
     </row>
-    <row r="868" spans="3:8">
+    <row r="868" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C868" t="s">
         <v>2373</v>
       </c>
@@ -31100,7 +31099,7 @@
         <v>44770.809398148151</v>
       </c>
     </row>
-    <row r="869" spans="3:8" ht="259.5">
+    <row r="869" spans="3:8" ht="256" x14ac:dyDescent="0.2">
       <c r="C869" s="1" t="s">
         <v>2376</v>
       </c>
@@ -31118,7 +31117,7 @@
         <v>44770.912777777776</v>
       </c>
     </row>
-    <row r="870" spans="3:8" ht="121.5">
+    <row r="870" spans="3:8" ht="96" x14ac:dyDescent="0.2">
       <c r="C870" s="1" t="s">
         <v>2379</v>
       </c>
@@ -31136,7 +31135,7 @@
         <v>44771.012499999997</v>
       </c>
     </row>
-    <row r="871" spans="3:8">
+    <row r="871" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C871" t="s">
         <v>2381</v>
       </c>
@@ -31153,7 +31152,7 @@
         <v>44771.02715277778</v>
       </c>
     </row>
-    <row r="872" spans="3:8" ht="275.25">
+    <row r="872" spans="3:8" ht="288" x14ac:dyDescent="0.2">
       <c r="C872" s="1" t="s">
         <v>2384</v>
       </c>
@@ -31171,7 +31170,7 @@
         <v>44771.30228009259</v>
       </c>
     </row>
-    <row r="873" spans="3:8" ht="409.6">
+    <row r="873" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C873" s="1" t="s">
         <v>2387</v>
       </c>
@@ -31189,7 +31188,7 @@
         <v>44771.321250000001</v>
       </c>
     </row>
-    <row r="874" spans="3:8" ht="409.6">
+    <row r="874" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C874" s="1" t="s">
         <v>2389</v>
       </c>
@@ -31207,7 +31206,7 @@
         <v>44771.327453703707</v>
       </c>
     </row>
-    <row r="875" spans="3:8" ht="213">
+    <row r="875" spans="3:8" ht="192" x14ac:dyDescent="0.2">
       <c r="C875" s="1" t="s">
         <v>2392</v>
       </c>
@@ -31225,7 +31224,7 @@
         <v>44771.352662037039</v>
       </c>
     </row>
-    <row r="876" spans="3:8" ht="409.6">
+    <row r="876" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C876" s="1" t="s">
         <v>2395</v>
       </c>
@@ -31243,7 +31242,7 @@
         <v>44771.375532407408</v>
       </c>
     </row>
-    <row r="877" spans="3:8" ht="409.6">
+    <row r="877" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C877" s="1" t="s">
         <v>2397</v>
       </c>
@@ -31261,7 +31260,7 @@
         <v>44771.394641203704</v>
       </c>
     </row>
-    <row r="878" spans="3:8" ht="60.75">
+    <row r="878" spans="3:8" ht="64" x14ac:dyDescent="0.2">
       <c r="C878" s="1" t="s">
         <v>2399</v>
       </c>
@@ -31279,7 +31278,7 @@
         <v>44771.417407407411</v>
       </c>
     </row>
-    <row r="879" spans="3:8" ht="152.25">
+    <row r="879" spans="3:8" ht="144" x14ac:dyDescent="0.2">
       <c r="C879" s="1" t="s">
         <v>2402</v>
       </c>
@@ -31297,7 +31296,7 @@
         <v>44771.456180555557</v>
       </c>
     </row>
-    <row r="880" spans="3:8" ht="121.5">
+    <row r="880" spans="3:8" ht="112" x14ac:dyDescent="0.2">
       <c r="C880" s="1" t="s">
         <v>2404</v>
       </c>
@@ -31315,7 +31314,7 @@
         <v>44771.470046296294</v>
       </c>
     </row>
-    <row r="881" spans="3:8" ht="244.5">
+    <row r="881" spans="3:8" ht="224" x14ac:dyDescent="0.2">
       <c r="C881" s="1" t="s">
         <v>2406</v>
       </c>
@@ -31333,7 +31332,7 @@
         <v>44771.473506944443</v>
       </c>
     </row>
-    <row r="882" spans="3:8" ht="229.5">
+    <row r="882" spans="3:8" ht="208" x14ac:dyDescent="0.2">
       <c r="C882" s="1" t="s">
         <v>2408</v>
       </c>
@@ -31351,12 +31350,12 @@
         <v>44771.5078587963</v>
       </c>
     </row>
-    <row r="883" spans="3:8">
+    <row r="883" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C883" t="e">
-        <f ca="1">-the _xludf.large majority of jobs in the military may _xludf.not be in direct contact of taking a life but itâ€™s still all connected.
--_xludf.if the parents consent it absolutely changes my view but all my years going to public school there was never forms _xludf.for consent.
-- Free college _xludf.and healthcare isnâ€™t immoral on its own. but requiring one to join the military to get it is.
-                                                                                                                                                                                                                                                                Thank you _xludf.for rebuttal it does have me thinking</f>
+        <f>-the large majority of jobs in the military may not be in direct contact of taking a life but itâ€™s still all connected.
+-if the parents consent it absolutely changes my view but all my years going to public school there was never forms for consent.
+- Free college and healthcare isnâ€™t immoral on its own. but requiring one to join the military to get it is.
+                                                                                                                                                                                                                                                                Thank you for rebuttal it does have me thinking</f>
         <v>#NAME?</v>
       </c>
       <c r="E883" t="s">
@@ -31372,7 +31371,7 @@
         <v>44771.520104166666</v>
       </c>
     </row>
-    <row r="884" spans="3:8">
+    <row r="884" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C884" t="s">
         <v>2413</v>
       </c>
@@ -31389,7 +31388,7 @@
         <v>44771.522974537038</v>
       </c>
     </row>
-    <row r="885" spans="3:8" ht="198">
+    <row r="885" spans="3:8" ht="176" x14ac:dyDescent="0.2">
       <c r="C885" s="1" t="s">
         <v>2416</v>
       </c>
@@ -31407,7 +31406,7 @@
         <v>44771.525983796295</v>
       </c>
     </row>
-    <row r="886" spans="3:8" ht="213">
+    <row r="886" spans="3:8" ht="224" x14ac:dyDescent="0.2">
       <c r="C886" s="1" t="s">
         <v>2418</v>
       </c>
@@ -31425,7 +31424,7 @@
         <v>44771.572199074071</v>
       </c>
     </row>
-    <row r="887" spans="3:8" ht="106.5">
+    <row r="887" spans="3:8" ht="96" x14ac:dyDescent="0.2">
       <c r="C887" s="1" t="s">
         <v>2420</v>
       </c>
@@ -31443,7 +31442,7 @@
         <v>44771.577430555553</v>
       </c>
     </row>
-    <row r="888" spans="3:8" ht="409.6">
+    <row r="888" spans="3:8" ht="395" x14ac:dyDescent="0.2">
       <c r="C888" s="1" t="s">
         <v>2422</v>
       </c>
@@ -31461,7 +31460,7 @@
         <v>44771.593831018516</v>
       </c>
     </row>
-    <row r="889" spans="3:8">
+    <row r="889" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C889" t="s">
         <v>2424</v>
       </c>
@@ -31478,7 +31477,7 @@
         <v>44771.625300925924</v>
       </c>
     </row>
-    <row r="890" spans="3:8" ht="409.6">
+    <row r="890" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C890" s="1" t="s">
         <v>2427</v>
       </c>
@@ -31496,7 +31495,7 @@
         <v>44771.856678240743</v>
       </c>
     </row>
-    <row r="891" spans="3:8" ht="409.6">
+    <row r="891" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C891" s="1" t="s">
         <v>2429</v>
       </c>
@@ -31514,7 +31513,7 @@
         <v>44771.897222222222</v>
       </c>
     </row>
-    <row r="892" spans="3:8" ht="409.6">
+    <row r="892" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C892" s="1" t="s">
         <v>2432</v>
       </c>
@@ -31532,7 +31531,7 @@
         <v>44772.195868055554</v>
       </c>
     </row>
-    <row r="893" spans="3:8" ht="409.6">
+    <row r="893" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C893" s="1" t="s">
         <v>2435</v>
       </c>
@@ -31550,7 +31549,7 @@
         <v>44772.234155092592</v>
       </c>
     </row>
-    <row r="894" spans="3:8">
+    <row r="894" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C894" t="s">
         <v>2437</v>
       </c>
@@ -31567,7 +31566,7 @@
         <v>44772.242094907408</v>
       </c>
     </row>
-    <row r="895" spans="3:8" ht="275.25">
+    <row r="895" spans="3:8" ht="256" x14ac:dyDescent="0.2">
       <c r="C895" s="1" t="s">
         <v>2440</v>
       </c>
@@ -31585,7 +31584,7 @@
         <v>44772.267476851855</v>
       </c>
     </row>
-    <row r="896" spans="3:8" ht="409.6">
+    <row r="896" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C896" s="1" t="s">
         <v>2442</v>
       </c>
@@ -31603,7 +31602,7 @@
         <v>44772.282754629632</v>
       </c>
     </row>
-    <row r="897" spans="3:8" ht="76.5">
+    <row r="897" spans="3:8" ht="64" x14ac:dyDescent="0.2">
       <c r="C897" s="1" t="s">
         <v>2444</v>
       </c>
@@ -31621,7 +31620,7 @@
         <v>44772.288182870368</v>
       </c>
     </row>
-    <row r="898" spans="3:8" ht="213">
+    <row r="898" spans="3:8" ht="208" x14ac:dyDescent="0.2">
       <c r="C898" s="1" t="s">
         <v>2447</v>
       </c>
@@ -31639,7 +31638,7 @@
         <v>44772.29996527778</v>
       </c>
     </row>
-    <row r="899" spans="3:8" ht="409.6">
+    <row r="899" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C899" s="1" t="s">
         <v>2450</v>
       </c>
@@ -31657,7 +31656,7 @@
         <v>44772.305787037039</v>
       </c>
     </row>
-    <row r="900" spans="3:8" ht="409.6">
+    <row r="900" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C900" s="1" t="s">
         <v>2453</v>
       </c>
@@ -31675,7 +31674,7 @@
         <v>44772.3358912037</v>
       </c>
     </row>
-    <row r="901" spans="3:8" ht="91.5">
+    <row r="901" spans="3:8" ht="96" x14ac:dyDescent="0.2">
       <c r="C901" s="1" t="s">
         <v>2455</v>
       </c>
@@ -31693,7 +31692,7 @@
         <v>44772.412094907406</v>
       </c>
     </row>
-    <row r="902" spans="3:8" ht="76.5">
+    <row r="902" spans="3:8" ht="80" x14ac:dyDescent="0.2">
       <c r="C902" s="1" t="s">
         <v>2457</v>
       </c>
@@ -31711,7 +31710,7 @@
         <v>44772.43341435185</v>
       </c>
     </row>
-    <row r="903" spans="3:8">
+    <row r="903" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C903" t="s">
         <v>2459</v>
       </c>
@@ -31728,7 +31727,7 @@
         <v>44772.450787037036</v>
       </c>
     </row>
-    <row r="904" spans="3:8">
+    <row r="904" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C904" t="s">
         <v>2461</v>
       </c>
@@ -31745,7 +31744,7 @@
         <v>44772.459594907406</v>
       </c>
     </row>
-    <row r="905" spans="3:8" ht="305.25">
+    <row r="905" spans="3:8" ht="304" x14ac:dyDescent="0.2">
       <c r="C905" s="1" t="s">
         <v>2464</v>
       </c>
@@ -31763,7 +31762,7 @@
         <v>44772.485300925924</v>
       </c>
     </row>
-    <row r="906" spans="3:8" ht="409.6">
+    <row r="906" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C906" s="1" t="s">
         <v>2467</v>
       </c>
@@ -31781,7 +31780,7 @@
         <v>44772.4921875</v>
       </c>
     </row>
-    <row r="907" spans="3:8" ht="137.25">
+    <row r="907" spans="3:8" ht="128" x14ac:dyDescent="0.2">
       <c r="C907" s="1" t="s">
         <v>2470</v>
       </c>
@@ -31799,7 +31798,7 @@
         <v>44772.495173611111</v>
       </c>
     </row>
-    <row r="908" spans="3:8" ht="152.25">
+    <row r="908" spans="3:8" ht="160" x14ac:dyDescent="0.2">
       <c r="C908" s="1" t="s">
         <v>2472</v>
       </c>
@@ -31817,7 +31816,7 @@
         <v>44772.519907407404</v>
       </c>
     </row>
-    <row r="909" spans="3:8" ht="409.6">
+    <row r="909" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C909" s="1" t="s">
         <v>2475</v>
       </c>
@@ -31835,7 +31834,7 @@
         <v>44772.532256944447</v>
       </c>
     </row>
-    <row r="910" spans="3:8" ht="152.25">
+    <row r="910" spans="3:8" ht="144" x14ac:dyDescent="0.2">
       <c r="C910" s="1" t="s">
         <v>2478</v>
       </c>
@@ -31853,7 +31852,7 @@
         <v>44772.561053240737</v>
       </c>
     </row>
-    <row r="911" spans="3:8" ht="409.6">
+    <row r="911" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C911" s="1" t="s">
         <v>2481</v>
       </c>
@@ -31871,7 +31870,7 @@
         <v>44772.564386574071</v>
       </c>
     </row>
-    <row r="912" spans="3:8" ht="409.6">
+    <row r="912" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C912" s="1" t="s">
         <v>2484</v>
       </c>
@@ -31889,7 +31888,7 @@
         <v>44772.60224537037</v>
       </c>
     </row>
-    <row r="913" spans="3:8" ht="409.6">
+    <row r="913" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C913" s="1" t="s">
         <v>2486</v>
       </c>
@@ -31907,7 +31906,7 @@
         <v>44772.671238425923</v>
       </c>
     </row>
-    <row r="914" spans="3:8" ht="409.6">
+    <row r="914" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C914" s="1" t="s">
         <v>2488</v>
       </c>
@@ -31925,7 +31924,7 @@
         <v>44772.674456018518</v>
       </c>
     </row>
-    <row r="915" spans="3:8" ht="45.75">
+    <row r="915" spans="3:8" ht="48" x14ac:dyDescent="0.2">
       <c r="C915" s="1" t="s">
         <v>2490</v>
       </c>
@@ -31943,7 +31942,7 @@
         <v>44772.67591435185</v>
       </c>
     </row>
-    <row r="916" spans="3:8" ht="229.5">
+    <row r="916" spans="3:8" ht="240" x14ac:dyDescent="0.2">
       <c r="C916" s="1" t="s">
         <v>2493</v>
       </c>
@@ -31961,7 +31960,7 @@
         <v>44772.676087962966</v>
       </c>
     </row>
-    <row r="917" spans="3:8">
+    <row r="917" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C917" t="s">
         <v>2496</v>
       </c>
@@ -31978,7 +31977,7 @@
         <v>44772.71266203704</v>
       </c>
     </row>
-    <row r="918" spans="3:8" ht="259.5">
+    <row r="918" spans="3:8" ht="272" x14ac:dyDescent="0.2">
       <c r="C918" s="1" t="s">
         <v>2499</v>
       </c>
@@ -31996,7 +31995,7 @@
         <v>44772.718078703707</v>
       </c>
     </row>
-    <row r="919" spans="3:8" ht="396.75">
+    <row r="919" spans="3:8" ht="395" x14ac:dyDescent="0.2">
       <c r="C919" s="1" t="s">
         <v>2501</v>
       </c>
@@ -32014,7 +32013,7 @@
         <v>44772.72011574074</v>
       </c>
     </row>
-    <row r="920" spans="3:8" ht="76.5">
+    <row r="920" spans="3:8" ht="80" x14ac:dyDescent="0.2">
       <c r="C920" s="1" t="s">
         <v>248</v>
       </c>
@@ -32032,7 +32031,7 @@
         <v>44772.725995370369</v>
       </c>
     </row>
-    <row r="921" spans="3:8" ht="366">
+    <row r="921" spans="3:8" ht="335" x14ac:dyDescent="0.2">
       <c r="C921" s="1" t="s">
         <v>2504</v>
       </c>
@@ -32050,7 +32049,7 @@
         <v>44772.744837962964</v>
       </c>
     </row>
-    <row r="922" spans="3:8" ht="244.5">
+    <row r="922" spans="3:8" ht="224" x14ac:dyDescent="0.2">
       <c r="C922" s="1" t="s">
         <v>2507</v>
       </c>
@@ -32068,7 +32067,7 @@
         <v>44772.752500000002</v>
       </c>
     </row>
-    <row r="923" spans="3:8" ht="409.6">
+    <row r="923" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C923" s="1" t="s">
         <v>2510</v>
       </c>
@@ -32086,7 +32085,7 @@
         <v>44772.79383101852</v>
       </c>
     </row>
-    <row r="924" spans="3:8" ht="409.6">
+    <row r="924" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C924" s="1" t="s">
         <v>2512</v>
       </c>
@@ -32104,7 +32103,7 @@
         <v>44772.838136574072</v>
       </c>
     </row>
-    <row r="925" spans="3:8" ht="137.25">
+    <row r="925" spans="3:8" ht="112" x14ac:dyDescent="0.2">
       <c r="C925" s="1" t="s">
         <v>2514</v>
       </c>
@@ -32122,7 +32121,7 @@
         <v>44772.996805555558</v>
       </c>
     </row>
-    <row r="926" spans="3:8" ht="409.6">
+    <row r="926" spans="3:8" ht="395" x14ac:dyDescent="0.2">
       <c r="C926" s="1" t="s">
         <v>2517</v>
       </c>
@@ -32140,7 +32139,7 @@
         <v>44773.008263888885</v>
       </c>
     </row>
-    <row r="927" spans="3:8" ht="409.6">
+    <row r="927" spans="3:8" ht="395" x14ac:dyDescent="0.2">
       <c r="C927" s="1" t="s">
         <v>2519</v>
       </c>
@@ -32158,7 +32157,7 @@
         <v>44773.017997685187</v>
       </c>
     </row>
-    <row r="928" spans="3:8" ht="321">
+    <row r="928" spans="3:8" ht="320" x14ac:dyDescent="0.2">
       <c r="C928" s="1" t="s">
         <v>2521</v>
       </c>
@@ -32176,7 +32175,7 @@
         <v>44773.022592592592</v>
       </c>
     </row>
-    <row r="929" spans="3:8" ht="229.5">
+    <row r="929" spans="3:8" ht="240" x14ac:dyDescent="0.2">
       <c r="C929" s="1" t="s">
         <v>2524</v>
       </c>
@@ -32194,7 +32193,7 @@
         <v>44773.039305555554</v>
       </c>
     </row>
-    <row r="930" spans="3:8" ht="137.25">
+    <row r="930" spans="3:8" ht="128" x14ac:dyDescent="0.2">
       <c r="C930" s="1" t="s">
         <v>2526</v>
       </c>
@@ -32212,7 +32211,7 @@
         <v>44773.043171296296</v>
       </c>
     </row>
-    <row r="931" spans="3:8" ht="244.5">
+    <row r="931" spans="3:8" ht="208" x14ac:dyDescent="0.2">
       <c r="C931" s="1" t="s">
         <v>2529</v>
       </c>
@@ -32230,7 +32229,7 @@
         <v>44773.053437499999</v>
       </c>
     </row>
-    <row r="932" spans="3:8" ht="409.6">
+    <row r="932" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C932" s="1" t="s">
         <v>2531</v>
       </c>
@@ -32248,7 +32247,7 @@
         <v>44773.057581018518</v>
       </c>
     </row>
-    <row r="933" spans="3:8" ht="409.6">
+    <row r="933" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C933" s="1" t="s">
         <v>2534</v>
       </c>
@@ -32266,7 +32265,7 @@
         <v>44773.070347222223</v>
       </c>
     </row>
-    <row r="934" spans="3:8" ht="76.5">
+    <row r="934" spans="3:8" ht="80" x14ac:dyDescent="0.2">
       <c r="C934" s="1" t="s">
         <v>2536</v>
       </c>
@@ -32284,7 +32283,7 @@
         <v>44773.074212962965</v>
       </c>
     </row>
-    <row r="935" spans="3:8" ht="336">
+    <row r="935" spans="3:8" ht="320" x14ac:dyDescent="0.2">
       <c r="C935" s="1" t="s">
         <v>2538</v>
       </c>
@@ -32302,7 +32301,7 @@
         <v>44773.080312500002</v>
       </c>
     </row>
-    <row r="936" spans="3:8" ht="290.25">
+    <row r="936" spans="3:8" ht="272" x14ac:dyDescent="0.2">
       <c r="C936" s="1" t="s">
         <v>2540</v>
       </c>
@@ -32320,7 +32319,7 @@
         <v>44773.097337962965</v>
       </c>
     </row>
-    <row r="937" spans="3:8" ht="121.5">
+    <row r="937" spans="3:8" ht="96" x14ac:dyDescent="0.2">
       <c r="C937" s="1" t="s">
         <v>2543</v>
       </c>
@@ -32338,7 +32337,7 @@
         <v>44773.135752314818</v>
       </c>
     </row>
-    <row r="938" spans="3:8" ht="244.5">
+    <row r="938" spans="3:8" ht="240" x14ac:dyDescent="0.2">
       <c r="C938" s="1" t="s">
         <v>2545</v>
       </c>
@@ -32356,7 +32355,7 @@
         <v>44773.201284722221</v>
       </c>
     </row>
-    <row r="939" spans="3:8" ht="290.25">
+    <row r="939" spans="3:8" ht="304" x14ac:dyDescent="0.2">
       <c r="C939" s="1" t="s">
         <v>2548</v>
       </c>
@@ -32374,7 +32373,7 @@
         <v>44773.216111111113</v>
       </c>
     </row>
-    <row r="940" spans="3:8" ht="198">
+    <row r="940" spans="3:8" ht="192" x14ac:dyDescent="0.2">
       <c r="C940" s="1" t="s">
         <v>2550</v>
       </c>
@@ -32392,7 +32391,7 @@
         <v>44773.327013888891</v>
       </c>
     </row>
-    <row r="941" spans="3:8" ht="137.25">
+    <row r="941" spans="3:8" ht="128" x14ac:dyDescent="0.2">
       <c r="C941" s="1" t="s">
         <v>2552</v>
       </c>
@@ -32410,7 +32409,7 @@
         <v>44773.377962962964</v>
       </c>
     </row>
-    <row r="942" spans="3:8">
+    <row r="942" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C942" t="s">
         <v>2554</v>
       </c>
@@ -32427,7 +32426,7 @@
         <v>44773.403460648151</v>
       </c>
     </row>
-    <row r="943" spans="3:8" ht="167.25">
+    <row r="943" spans="3:8" ht="176" x14ac:dyDescent="0.2">
       <c r="C943" s="1" t="s">
         <v>2557</v>
       </c>
@@ -32445,7 +32444,7 @@
         <v>44773.425335648149</v>
       </c>
     </row>
-    <row r="944" spans="3:8">
+    <row r="944" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C944" t="s">
         <v>2560</v>
       </c>
@@ -32462,7 +32461,7 @@
         <v>44773.426516203705</v>
       </c>
     </row>
-    <row r="945" spans="3:8" ht="321">
+    <row r="945" spans="3:8" ht="320" x14ac:dyDescent="0.2">
       <c r="C945" s="1" t="s">
         <v>2562</v>
       </c>
@@ -32480,7 +32479,7 @@
         <v>44773.477476851855</v>
       </c>
     </row>
-    <row r="946" spans="3:8" ht="409.6">
+    <row r="946" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C946" s="1" t="s">
         <v>2564</v>
       </c>
@@ -32498,7 +32497,7 @@
         <v>44773.50409722222</v>
       </c>
     </row>
-    <row r="947" spans="3:8" ht="409.6">
+    <row r="947" spans="3:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C947" s="1" t="s">
         <v>2567</v>
       </c>
@@ -32516,7 +32515,7 @@
         <v>44773.543113425927</v>
       </c>
     </row>
-    <row r="948" spans="3:8" ht="259.5">
+    <row r="948" spans="3:8" ht="272" x14ac:dyDescent="0.2">
       <c r="C948" s="1" t="s">
         <v>2569</v>
       </c>
@@ -32534,7 +32533,7 @@
         <v>44773.543981481482</v>
       </c>
     </row>
-    <row r="949" spans="3:8" ht="106.5">
+    <row r="949" spans="3:8" ht="112" x14ac:dyDescent="0.2">
       <c r="C949" s="1" t="s">
         <v>2571</v>
       </c>
@@ -32552,7 +32551,7 @@
         <v>44773.548206018517</v>
       </c>
     </row>
-    <row r="950" spans="3:8" ht="183">
+    <row r="950" spans="3:8" ht="176" x14ac:dyDescent="0.2">
       <c r="C950" s="1" t="s">
         <v>2573</v>
       </c>
@@ -32570,7 +32569,7 @@
         <v>44773.556435185186</v>
       </c>
     </row>
-    <row r="951" spans="3:8" ht="152.25">
+    <row r="951" spans="3:8" ht="144" x14ac:dyDescent="0.2">
       <c r="C951" s="1" t="s">
         <v>2575</v>
       </c>
@@ -32588,7 +32587,7 @@
         <v>44773.622685185182</v>
       </c>
     </row>
-    <row r="952" spans="3:8" ht="213">
+    <row r="952" spans="3:8" ht="224" x14ac:dyDescent="0.2">
       <c r="C952" s="1" t="s">
         <v>2577</v>
       </c>
@@ -32606,7 +32605,7 @@
         <v>44773.648946759262</v>
       </c>
     </row>
-    <row r="953" spans="3:8">
+    <row r="953" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C953" t="s">
         <v>2580</v>
       </c>
